--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -701,17 +701,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clube da Luta</t>
+          <t>O Senhor dos Anéis: As Duas Torres</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2h 19m</t>
+          <t>2h 59m</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -723,17 +723,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>O Senhor dos Anéis: As Duas Torres</t>
+          <t>Clube da Luta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2h 59m</t>
+          <t>2h 19m</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1119,17 +1119,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Homem-Aranha: Através do Aranhaverso</t>
+          <t>A Viagem de Chihiro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1141,17 +1141,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A Viagem de Chihiro</t>
+          <t>Homem-Aranha: Através do Aranhaverso</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1537,39 +1537,39 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Janela Indiscreta</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Janela Indiscreta</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1581,22 +1581,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>12th Fail</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -2219,29 +2219,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Princesa Mononoke</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Princesa Mononoke</t>
+          <t>Gênio Indomável</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2263,22 +2263,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gênio Indomável</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -2527,44 +2527,44 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Pobres Criaturas</t>
+          <t>A Caça</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A Caça</t>
+          <t>Pobres Criaturas</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -2813,17 +2813,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>O Fabuloso Destino de Amélie Poulain</t>
+          <t>Incêndios</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2835,17 +2835,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Incêndios</t>
+          <t>O Fabuloso Destino de Amélie Poulain</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3143,44 +3143,44 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ladrões de Bicicletas</t>
+          <t>Los Angeles: Cidade Proibida</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Los Angeles: Cidade Proibida</t>
+          <t>Ladrões de Bicicletas</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -3759,17 +3759,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Yojimbo, o Guarda-Costas</t>
+          <t>O Enigma de Outro Mundo</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3781,17 +3781,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>O Enigma de Outro Mundo</t>
+          <t>Yojimbo, o Guarda-Costas</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3957,17 +3957,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Chinatown</t>
+          <t>Os Suspeitos</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3979,17 +3979,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Os Suspeitos</t>
+          <t>Chinatown</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4265,66 +4265,66 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Godzilla Minus One</t>
+          <t>Guerreiro</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Guerreiro</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Godzilla Minus One</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -4727,17 +4727,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A General</t>
+          <t>Sociedade dos Poetas Mortos</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1h 18m</t>
+          <t>2h 8m</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4749,17 +4749,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sociedade dos Poetas Mortos</t>
+          <t>A General</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2h 8m</t>
+          <t>1h 18m</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4837,17 +4837,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Morangos Silvestres</t>
+          <t>Monstros S.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4881,17 +4881,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>O 3º Homem</t>
+          <t>Morangos Silvestres</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1h 44m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4903,17 +4903,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Monstros S.A.</t>
+          <t>O 3º Homem</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5189,17 +5189,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Hotel Ruanda</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5211,17 +5211,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Spotlight - Segredos Revelados</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5233,17 +5233,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Spotlight - Segredos Revelados</t>
+          <t>Hotel Ruanda</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5321,44 +5321,44 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Antes do Pôr do Sol</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>1h 20m</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Antes do Pôr do Sol</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
@@ -5673,39 +5673,39 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Feitiço do Tempo</t>
+          <t>As Vinhas da Ira</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>As Vinhas da Ira</t>
+          <t>A Batalha de Argel</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5717,17 +5717,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A Batalha de Argel</t>
+          <t>A Noviça Rebelde</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5739,22 +5739,22 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A Noviça Rebelde</t>
+          <t>Feitiço do Tempo</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -5937,22 +5937,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A Chantagem</t>
+          <t>Dança com Lobos</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2h 43m</t>
+          <t>3h 1m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -6242,17 +6242,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clube da Luta</t>
+          <t>O Senhor dos Anéis: As Duas Torres</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2h 19m</t>
+          <t>2h 59m</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6264,17 +6264,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>O Senhor dos Anéis: As Duas Torres</t>
+          <t>Clube da Luta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2h 59m</t>
+          <t>2h 19m</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -6660,17 +6660,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Homem-Aranha: Através do Aranhaverso</t>
+          <t>A Viagem de Chihiro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6682,17 +6682,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A Viagem de Chihiro</t>
+          <t>Homem-Aranha: Através do Aranhaverso</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -7078,39 +7078,39 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Janela Indiscreta</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Janela Indiscreta</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7122,22 +7122,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>12th Fail</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -7760,29 +7760,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Princesa Mononoke</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Princesa Mononoke</t>
+          <t>Gênio Indomável</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7804,22 +7804,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gênio Indomável</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -8068,39 +8068,39 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Pobres Criaturas</t>
+          <t>A Caça</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A Caça</t>
+          <t>2001: Uma Odisséia no Espaço</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8112,22 +8112,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2001: Uma Odisséia no Espaço</t>
+          <t>Pobres Criaturas</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -8354,17 +8354,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>O Fabuloso Destino de Amélie Poulain</t>
+          <t>Incêndios</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -8376,17 +8376,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Incêndios</t>
+          <t>O Fabuloso Destino de Amélie Poulain</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -8684,44 +8684,44 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ladrões de Bicicletas</t>
+          <t>Los Angeles: Cidade Proibida</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Los Angeles: Cidade Proibida</t>
+          <t>Ladrões de Bicicletas</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -9300,17 +9300,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Yojimbo, o Guarda-Costas</t>
+          <t>O Enigma de Outro Mundo</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -9322,17 +9322,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>O Enigma de Outro Mundo</t>
+          <t>Yojimbo, o Guarda-Costas</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -9498,17 +9498,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Chinatown</t>
+          <t>Os Suspeitos</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -9520,17 +9520,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Os Suspeitos</t>
+          <t>Chinatown</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -9806,66 +9806,66 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Godzilla Minus One</t>
+          <t>Guerreiro</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Guerreiro</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Godzilla Minus One</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -10268,17 +10268,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A General</t>
+          <t>Sociedade dos Poetas Mortos</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1h 18m</t>
+          <t>2h 8m</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -10290,17 +10290,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sociedade dos Poetas Mortos</t>
+          <t>A General</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2h 8m</t>
+          <t>1h 18m</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -10378,17 +10378,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Morangos Silvestres</t>
+          <t>Monstros S.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -10422,17 +10422,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>O 3º Homem</t>
+          <t>Morangos Silvestres</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1h 44m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10444,17 +10444,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Monstros S.A.</t>
+          <t>O 3º Homem</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10664,17 +10664,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>O Grande Lebowski</t>
+          <t>Era uma Vez em Tóquio</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10686,17 +10686,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Era uma Vez em Tóquio</t>
+          <t>O Grande Lebowski</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10730,17 +10730,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Hotel Ruanda</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10752,17 +10752,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Spotlight - Segredos Revelados</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10774,17 +10774,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Spotlight - Segredos Revelados</t>
+          <t>Hotel Ruanda</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10862,44 +10862,44 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Antes do Pôr do Sol</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>1h 20m</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Antes do Pôr do Sol</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
@@ -11214,39 +11214,39 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Feitiço do Tempo</t>
+          <t>As Vinhas da Ira</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>As Vinhas da Ira</t>
+          <t>A Batalha de Argel</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11258,17 +11258,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A Batalha de Argel</t>
+          <t>A Noviça Rebelde</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -11280,22 +11280,22 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A Noviça Rebelde</t>
+          <t>Feitiço do Tempo</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -11478,22 +11478,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A Chantagem</t>
+          <t>Dança com Lobos</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2h 43m</t>
+          <t>3h 1m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="films_scraping_selenium" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="films_scraping_requests" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="films_scraping_selenium" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="films_scraping_requests" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1559,44 +1559,44 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>12th Fail</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -3319,17 +3319,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Quanto Mais Quente Melhor</t>
+          <t>O Lobo de Wall Street</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3341,17 +3341,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>O Lobo de Wall Street</t>
+          <t>Quanto Mais Quente Melhor</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4837,44 +4837,44 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Monstros S.A.</t>
+          <t>Bancando o Águia</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>45m</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Bancando o Águia</t>
+          <t>Monstros S.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>45m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -5409,17 +5409,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Rush: No Limite da Emoção</t>
+          <t>O Exorcista</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2h 3m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5431,17 +5431,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>O Exorcista</t>
+          <t>Rush: No Limite da Emoção</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 3m</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5673,17 +5673,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>As Vinhas da Ira</t>
+          <t>A Noviça Rebelde</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5695,17 +5695,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A Batalha de Argel</t>
+          <t>As Vinhas da Ira</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5717,44 +5717,44 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A Noviça Rebelde</t>
+          <t>Feitiço do Tempo</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Feitiço do Tempo</t>
+          <t>A Batalha de Argel</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -5937,22 +5937,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Dança com Lobos</t>
+          <t>A Chantagem</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>3h 1m</t>
+          <t>2h 43m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -7100,44 +7100,44 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>12th Fail</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -8090,44 +8090,44 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2001: Uma Odisséia no Espaço</t>
+          <t>Pobres Criaturas</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pobres Criaturas</t>
+          <t>2001: Uma Odisséia no Espaço</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -8860,17 +8860,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Quanto Mais Quente Melhor</t>
+          <t>O Lobo de Wall Street</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8882,17 +8882,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>O Lobo de Wall Street</t>
+          <t>Quanto Mais Quente Melhor</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -10378,44 +10378,44 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Monstros S.A.</t>
+          <t>Bancando o Águia</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>45m</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Bancando o Águia</t>
+          <t>Monstros S.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>45m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -10664,17 +10664,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Era uma Vez em Tóquio</t>
+          <t>O Grande Lebowski</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10686,17 +10686,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>O Grande Lebowski</t>
+          <t>Era uma Vez em Tóquio</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10950,17 +10950,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Rush: No Limite da Emoção</t>
+          <t>O Exorcista</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2h 3m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -10972,17 +10972,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>O Exorcista</t>
+          <t>Rush: No Limite da Emoção</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 3m</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11214,17 +11214,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>As Vinhas da Ira</t>
+          <t>A Noviça Rebelde</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11236,17 +11236,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A Batalha de Argel</t>
+          <t>As Vinhas da Ira</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -11258,44 +11258,44 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A Noviça Rebelde</t>
+          <t>Feitiço do Tempo</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Feitiço do Tempo</t>
+          <t>A Batalha de Argel</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -11478,22 +11478,22 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Dança com Lobos</t>
+          <t>A Chantagem</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>3h 1m</t>
+          <t>2h 43m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -1141,44 +1141,44 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Homem-Aranha: Através do Aranhaverso</t>
+          <t>O Pianista</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 30m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>O Pianista</t>
+          <t>Homem-Aranha: Através do Aranhaverso</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -1559,39 +1559,39 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>Alien - O 8º Passageiro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1603,22 +1603,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Alien - O 8º Passageiro</t>
+          <t>12th Fail</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -2263,17 +2263,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Your Name.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2285,17 +2285,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Your Name.</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2549,44 +2549,44 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Pobres Criaturas</t>
+          <t>2001: Uma Odisséia no Espaço</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2001: Uma Odisséia no Espaço</t>
+          <t>Pobres Criaturas</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -2681,17 +2681,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cidadão Kane</t>
+          <t>Intriga Internacional</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2703,17 +2703,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intriga Internacional</t>
+          <t>Cidadão Kane</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3055,17 +3055,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Metrópolis</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3077,17 +3077,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Metrópolis</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3319,17 +3319,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>O Lobo de Wall Street</t>
+          <t>Quanto Mais Quente Melhor</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3341,17 +3341,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Quanto Mais Quente Melhor</t>
+          <t>O Lobo de Wall Street</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -3737,17 +3737,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>O Tesouro da Sierra Madre</t>
+          <t>O Enigma de Outro Mundo</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3759,17 +3759,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>O Enigma de Outro Mundo</t>
+          <t>O Tesouro da Sierra Madre</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4309,44 +4309,44 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Godzilla Minus One</t>
+          <t>Prenda-me se for Capaz</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Prenda-me se for Capaz</t>
+          <t>Godzilla Minus One</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -4881,17 +4881,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Morangos Silvestres</t>
+          <t>O 3º Homem</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4903,17 +4903,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>O 3º Homem</t>
+          <t>Morangos Silvestres</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1h 44m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5321,44 +5321,44 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Antes do Pôr do Sol</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Antes do Pôr do Sol</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>1h 20m</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -5915,44 +5915,44 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>A Chantagem</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>2h 43m</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A Chantagem</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2h 43m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -6682,44 +6682,44 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Homem-Aranha: Através do Aranhaverso</t>
+          <t>O Pianista</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 30m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>O Pianista</t>
+          <t>Homem-Aranha: Através do Aranhaverso</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
@@ -7100,39 +7100,39 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>Alien - O 8º Passageiro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7144,22 +7144,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Alien - O 8º Passageiro</t>
+          <t>12th Fail</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.1</t>
         </is>
       </c>
     </row>
@@ -7804,17 +7804,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Your Name.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -7826,17 +7826,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Your Name.</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8090,44 +8090,44 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Pobres Criaturas</t>
+          <t>2001: Uma Odisséia no Espaço</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2001: Uma Odisséia no Espaço</t>
+          <t>Pobres Criaturas</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -8222,17 +8222,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cidadão Kane</t>
+          <t>Intriga Internacional</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8244,17 +8244,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intriga Internacional</t>
+          <t>Cidadão Kane</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8596,17 +8596,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Metrópolis</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -8618,17 +8618,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Metrópolis</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8860,17 +8860,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>O Lobo de Wall Street</t>
+          <t>Quanto Mais Quente Melhor</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8882,17 +8882,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Quanto Mais Quente Melhor</t>
+          <t>O Lobo de Wall Street</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -9278,17 +9278,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>O Tesouro da Sierra Madre</t>
+          <t>O Enigma de Outro Mundo</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -9300,17 +9300,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>O Enigma de Outro Mundo</t>
+          <t>O Tesouro da Sierra Madre</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -9850,44 +9850,44 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Godzilla Minus One</t>
+          <t>Prenda-me se for Capaz</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Prenda-me se for Capaz</t>
+          <t>Godzilla Minus One</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -10422,17 +10422,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Morangos Silvestres</t>
+          <t>O 3º Homem</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -10444,17 +10444,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>O 3º Homem</t>
+          <t>Morangos Silvestres</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1h 44m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -10862,44 +10862,44 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Antes do Pôr do Sol</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Antes do Pôr do Sol</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>1h 20m</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -11456,44 +11456,44 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>A Chantagem</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>2h 43m</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A Chantagem</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2h 43m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -503,7 +503,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Batman - O Cavaleiro das Trevas</t>
+          <t>Batman: O Cavaleiro das Trevas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pulp Fiction - Tempo de Violência</t>
+          <t>Pulp Fiction: Tempo de Violência</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -789,39 +789,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>Duna: Parte 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Os Bons Companheiros</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2h 25m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -833,17 +833,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Um Estranho no Ninho</t>
+          <t>Os Bons Companheiros</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>2h 25m</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -855,39 +855,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Seven: Os Sete Crimes Capitais</t>
+          <t>Um Estranho no Ninho</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A Felicidade Não se Compra</t>
+          <t>Seven: Os Sete Crimes Capitais</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 7m</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -921,17 +921,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Os Sete Samurais</t>
+          <t>A Felicidade Não se Compra</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3h 27m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -943,17 +943,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>O Silêncio dos Inocentes</t>
+          <t>Os Sete Samurais</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>3h 27m</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -965,17 +965,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>O Resgate do Soldado Ryan</t>
+          <t>O Silêncio dos Inocentes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2h 49m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -987,17 +987,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cidade de Deus</t>
+          <t>O Resgate do Soldado Ryan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 49m</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1009,17 +1009,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A Vida é Bela</t>
+          <t>Cidade de Deus</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1031,17 +1031,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>À Espera de um Milagre</t>
+          <t>A Vida é Bela</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3h 9m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1053,17 +1053,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>O Exterminador do Futuro 2: O Julgamento Final</t>
+          <t>À Espera de um Milagre</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>3h 9m</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1075,17 +1075,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Star Wars: Episódio IV - Uma Nova Esperança</t>
+          <t>O Exterminador do Futuro 2: O Julgamento Final</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1097,88 +1097,88 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>De Volta para o Futuro</t>
+          <t>Star Wars: Episódio IV - Uma Nova Esperança</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A Viagem de Chihiro</t>
+          <t>De Volta para o Futuro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>O Pianista</t>
+          <t>A Viagem de Chihiro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Homem-Aranha: Através do Aranhaverso</t>
+          <t>O Pianista</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 30m</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -1229,39 +1229,39 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gladiador</t>
+          <t>Homem-Aranha: Através do Aranhaverso</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2h 35m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>O Rei Leão</t>
+          <t>Gladiador</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>2h 35m</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1273,7 +1273,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>O Profissional</t>
+          <t>O Rei Leão</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1295,17 +1295,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Os Infiltrados</t>
+          <t>O Profissional</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2h 31m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1317,17 +1317,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A Outra História Americana</t>
+          <t>Os Infiltrados</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>2h 31m</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1339,17 +1339,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Whiplash: Em Busca da Perfeição</t>
+          <t>A Outra História Americana</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1361,17 +1361,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>O Grande Truque</t>
+          <t>Whiplash: Em Busca da Perfeição</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1383,17 +1383,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Túmulo dos Vagalumes</t>
+          <t>O Grande Truque</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1405,61 +1405,61 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Harakiri</t>
+          <t>Túmulo dos Vagalumes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Os Suspeitos</t>
+          <t>Harakiri</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Os Suspeitos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1471,17 +1471,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intocáveis</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1493,17 +1493,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tempos Modernos</t>
+          <t>Intocáveis</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1h 27m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1537,17 +1537,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Janela Indiscreta</t>
+          <t>Tempos Modernos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 27m</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1559,17 +1559,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>Janela Indiscreta</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1581,17 +1581,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Alien - O 8º Passageiro</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1603,22 +1603,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Alien - O 8º Passageiro</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -1713,39 +1713,39 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WALL·E</t>
+          <t>Repetente</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Os Caçadores da Arca Perdida</t>
+          <t>WALL·E</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1757,17 +1757,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A Vida dos Outros</t>
+          <t>Os Caçadores da Arca Perdida</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1779,17 +1779,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Crepúsculo dos Deuses</t>
+          <t>A Vida dos Outros</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1801,17 +1801,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Glória Feita de Sangue</t>
+          <t>Crepúsculo dos Deuses</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1823,17 +1823,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vingadores: Guerra Infinita</t>
+          <t>Glória Feita de Sangue</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1845,7 +1845,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Homem-Aranha: No Aranhaverso</t>
+          <t>Vingadores: Guerra Infinita</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1867,17 +1867,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>O Iluminado</t>
+          <t>Homem-Aranha: No Aranhaverso</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2h 26m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1911,17 +1911,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>O Grande Ditador</t>
+          <t>O Iluminado</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>2h 26m</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1933,17 +1933,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aliens, O Resgate</t>
+          <t>O Grande Ditador</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1955,17 +1955,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bastardos Inglórios</t>
+          <t>Aliens, O Resgate</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1977,17 +1977,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Batman - O Cavaleiro das Trevas Ressurge</t>
+          <t>Bastardos Inglórios</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1999,17 +1999,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dr. Fantástico</t>
+          <t>Batman: O Cavaleiro das Trevas Ressurge</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2021,39 +2021,39 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Beleza Americana</t>
+          <t>Dr. Fantástico</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Oldboy</t>
+          <t>Beleza Americana</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2065,39 +2065,39 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Viva - A Vida é uma Festa</t>
+          <t>Oldboy</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1h 45m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Amadeus</t>
+          <t>Viva - A Vida é uma Festa</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>1h 45m</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2109,66 +2109,66 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Toy Story</t>
+          <t>Amadeus</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1h 21m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>O Barco: Inferno no Mar</t>
+          <t>Toy Story</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 21m</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Coração Valente</t>
+          <t>O Barco: Inferno no Mar</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2h 58m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -2197,51 +2197,51 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Coringa</t>
+          <t>Coração Valente</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 58m</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Princesa Mononoke</t>
+          <t>Coringa</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gênio Indomável</t>
+          <t>Princesa Mononoke</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2263,39 +2263,39 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Your Name.</t>
+          <t>Gênio Indomável</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Your Name</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Toy Story 3</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2483,17 +2483,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Star Wars, Episódio VI: O Retorno do Jedi</t>
+          <t>Toy Story 3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2505,17 +2505,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Brilho Eterno de uma Mente sem Lembranças</t>
+          <t>Star Wars: Episódio VI - O Retorno de Jedi</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2527,17 +2527,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A Caça</t>
+          <t>Brilho Eterno de uma Mente sem Lembranças</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2549,17 +2549,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2001: Uma Odisséia no Espaço</t>
+          <t>A Caça</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2571,22 +2571,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pobres Criaturas</t>
+          <t>2001: Uma Odisséia no Espaço</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -2725,17 +2725,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>M, o Vampiro de Dusseldorf</t>
+          <t>Incêndios</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2769,17 +2769,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Pacto de Sangue</t>
+          <t>M, o Vampiro de Dusseldorf</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2791,17 +2791,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>Pacto de Sangue</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2813,17 +2813,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Incêndios</t>
+          <t>Scarface</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2879,17 +2879,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Laranja Mecânica</t>
+          <t>Fogo Contra Fogo</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2901,17 +2901,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Fogo Contra Fogo</t>
+          <t>Laranja Mecânica</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2923,7 +2923,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Up - Altas Aventuras</t>
+          <t>Up: Altas Aventuras</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3077,17 +3077,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Como Estrelas na Terra</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>2h 42m</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3099,17 +3099,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Como Estrelas na Terra</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2h 42m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3165,44 +3165,44 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ladrões de Bicicletas</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>Ladrões de Bicicletas</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -3319,17 +3319,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Quanto Mais Quente Melhor</t>
+          <t>O Lobo de Wall Street</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3341,17 +3341,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>O Lobo de Wall Street</t>
+          <t>Quanto Mais Quente Melhor</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3363,17 +3363,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>O Garoto</t>
+          <t>Green Book: O Guia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1h 8m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3385,17 +3385,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Green Book: O Guia</t>
+          <t>O Garoto</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 8m</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3429,61 +3429,61 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Top Gun: Maverick</t>
+          <t>Julgamento em Nuremberg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 59m</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Julgamento em Nuremberg</t>
+          <t>A Malvada</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2h 59m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A Malvada</t>
+          <t>O Show de Truman: O Show da Vida</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3495,17 +3495,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>O Show de Truman: O Show da Vida</t>
+          <t>Top Gun: Maverick</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3517,17 +3517,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sangue Negro</t>
+          <t>Ilha do Medo</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2h 38m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3539,17 +3539,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ilha do Medo</t>
+          <t>Sangue Negro</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>2h 38m</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3693,17 +3693,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Uma Mente Brilhante</t>
+          <t>Onde os Fracos Não Têm Vez</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2h 15m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3715,17 +3715,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Onde os Fracos Não Têm Vez</t>
+          <t>Uma Mente Brilhante</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 15m</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3781,17 +3781,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Yojimbo, o Guarda-Costas</t>
+          <t>Kill Bill: Volume 1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3803,17 +3803,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Kill Bill: Volume 1</t>
+          <t>Yojimbo, o Guarda-Costas</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3913,17 +3913,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>O Homem Elefante</t>
+          <t>Os Suspeitos</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3957,22 +3957,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Os Suspeitos</t>
+          <t>O Homem Elefante</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -4111,17 +4111,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Touro Indomável</t>
+          <t>Divertida Mente</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4133,17 +4133,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Divertida Mente</t>
+          <t>Touro Indomável</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4243,7 +4243,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Fargo - Uma Comédia de Erros</t>
+          <t>Fargo: Uma Comédia de Erros</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4265,61 +4265,61 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Guerreiro</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Prenda-Me se for Capaz</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Prenda-me se for Capaz</t>
+          <t>Guerreiro</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4485,7 +4485,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Blade Runner: O Caçador de Androides</t>
+          <t>Blade Runner - O Caçador de Androides</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4529,17 +4529,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>O Grande Hotel Budapeste</t>
+          <t>Ben-Hur</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>3h 32m</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4551,17 +4551,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Ben-Hur</t>
+          <t>O Grande Hotel Budapeste</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3h 32m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4617,17 +4617,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Em Busca do Ouro</t>
+          <t>Até o Último Homem</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 19m</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4639,17 +4639,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Até o Último Homem</t>
+          <t>Em Busca do Ouro</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2h 19m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4705,17 +4705,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sindicato de Ladrões</t>
+          <t>Sociedade dos Poetas Mortos</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 8m</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4727,17 +4727,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sociedade dos Poetas Mortos</t>
+          <t>Sindicato de Ladrões</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2h 8m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4771,17 +4771,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>O Franco Atirador</t>
+          <t>Relatos Selvagens</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>3h 3m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4793,17 +4793,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Relatos Selvagens</t>
+          <t>O Franco Atirador</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>3h 3m</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4837,44 +4837,44 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Bancando o Águia</t>
+          <t>Monstros S.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>45m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Monstros S.A.</t>
+          <t>Bancando o Águia</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>45m</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -5035,17 +5035,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ford vs Ferrari</t>
+          <t>Ratatouille</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2h 32m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5057,17 +5057,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ratatouille</t>
+          <t>Ford vs. Ferrari</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>2h 32m</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5079,17 +5079,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>O Sétimo Selo</t>
+          <t>O Grande Lebowski</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5101,17 +5101,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>O Quarto de Jack</t>
+          <t>Era uma Vez em Tóquio</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5123,17 +5123,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>O Grande Lebowski</t>
+          <t>O Quarto de Jack</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5145,17 +5145,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Era uma Vez em Tóquio</t>
+          <t>O Sétimo Selo</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5167,7 +5167,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Rocky - Um Lutador</t>
+          <t>Rocky, um Lutador</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5211,7 +5211,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Spotlight - Segredos Revelados</t>
+          <t>Spotlight: Segredos Revelados</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5321,39 +5321,39 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Antes do Pôr do Sol</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>1h 20m</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Antes do Pôr do Sol</t>
+          <t>O Ódio</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5387,17 +5387,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>O Ódio</t>
+          <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>2h 23m</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5453,39 +5453,39 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Rede de Intrigas</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
+          <t>Rede de Intrigas</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2h 23m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5563,17 +5563,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Na Natureza Selvagem</t>
+          <t>Sempre ao Seu Lado</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2h 28m</t>
+          <t>1h 33m</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5585,17 +5585,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Sempre ao Seu Lado</t>
+          <t>A Criada</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1h 33m</t>
+          <t>2h 25m</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5607,17 +5607,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A Criada</t>
+          <t>Na Natureza Selvagem</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2h 25m</t>
+          <t>2h 28m</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5651,17 +5651,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Ser ou Não Ser</t>
+          <t>A Noviça Rebelde</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5673,17 +5673,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A Noviça Rebelde</t>
+          <t>A Batalha de Argel</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5717,44 +5717,44 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Feitiço do Tempo</t>
+          <t>Ser ou Não Ser</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A Batalha de Argel</t>
+          <t>Feitiço do Tempo</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -5893,66 +5893,66 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Os Incompreendidos</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A Chantagem</t>
+          <t>Dança com Lobos</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2h 43m</t>
+          <t>3h 1m</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>A Chantagem</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>2h 43m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Batman - O Cavaleiro das Trevas</t>
+          <t>Batman: O Cavaleiro das Trevas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6154,7 +6154,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pulp Fiction - Tempo de Violência</t>
+          <t>Pulp Fiction: Tempo de Violência</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -6330,39 +6330,39 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Matrix</t>
+          <t>Duna: Parte 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Os Bons Companheiros</t>
+          <t>Matrix</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2h 25m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -6374,17 +6374,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Um Estranho no Ninho</t>
+          <t>Os Bons Companheiros</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>2h 25m</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -6396,39 +6396,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Seven: Os Sete Crimes Capitais</t>
+          <t>Um Estranho no Ninho</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A Felicidade Não se Compra</t>
+          <t>Seven: Os Sete Crimes Capitais</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 7m</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6462,17 +6462,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Os Sete Samurais</t>
+          <t>A Felicidade Não se Compra</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3h 27m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -6484,17 +6484,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>O Silêncio dos Inocentes</t>
+          <t>Os Sete Samurais</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>3h 27m</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -6506,17 +6506,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>O Resgate do Soldado Ryan</t>
+          <t>O Silêncio dos Inocentes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2h 49m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -6528,17 +6528,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cidade de Deus</t>
+          <t>O Resgate do Soldado Ryan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 49m</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -6550,17 +6550,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A Vida é Bela</t>
+          <t>Cidade de Deus</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6572,17 +6572,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>À Espera de um Milagre</t>
+          <t>A Vida é Bela</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3h 9m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -6594,17 +6594,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>O Exterminador do Futuro 2: O Julgamento Final</t>
+          <t>À Espera de um Milagre</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>3h 9m</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6616,17 +6616,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Star Wars: Episódio IV - Uma Nova Esperança</t>
+          <t>O Exterminador do Futuro 2: O Julgamento Final</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -6638,88 +6638,88 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>De Volta para o Futuro</t>
+          <t>Star Wars: Episódio IV - Uma Nova Esperança</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A Viagem de Chihiro</t>
+          <t>De Volta para o Futuro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>O Pianista</t>
+          <t>A Viagem de Chihiro</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Homem-Aranha: Através do Aranhaverso</t>
+          <t>O Pianista</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 30m</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -6770,39 +6770,39 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gladiador</t>
+          <t>Homem-Aranha: Através do Aranhaverso</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2h 35m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>O Rei Leão</t>
+          <t>Gladiador</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>2h 35m</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6814,7 +6814,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>O Profissional</t>
+          <t>O Rei Leão</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6836,17 +6836,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Os Infiltrados</t>
+          <t>O Profissional</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2h 31m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6858,17 +6858,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A Outra História Americana</t>
+          <t>Os Infiltrados</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>2h 31m</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6880,17 +6880,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Whiplash: Em Busca da Perfeição</t>
+          <t>A Outra História Americana</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6902,17 +6902,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>O Grande Truque</t>
+          <t>Whiplash: Em Busca da Perfeição</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6924,17 +6924,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Túmulo dos Vagalumes</t>
+          <t>O Grande Truque</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6946,61 +6946,61 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Harakiri</t>
+          <t>Túmulo dos Vagalumes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Os Suspeitos</t>
+          <t>Harakiri</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Os Suspeitos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -7012,17 +7012,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intocáveis</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -7034,17 +7034,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tempos Modernos</t>
+          <t>Intocáveis</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1h 27m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -7078,17 +7078,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Janela Indiscreta</t>
+          <t>Tempos Modernos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 27m</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -7100,17 +7100,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Era uma Vez no Oeste</t>
+          <t>Janela Indiscreta</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2h 46m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -7122,17 +7122,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Alien - O 8º Passageiro</t>
+          <t>Era uma Vez no Oeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 46m</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -7144,22 +7144,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>12th Fail</t>
+          <t>Alien - O 8º Passageiro</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -7254,39 +7254,39 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WALL·E</t>
+          <t>Repetente</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Os Caçadores da Arca Perdida</t>
+          <t>WALL·E</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -7298,17 +7298,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A Vida dos Outros</t>
+          <t>Os Caçadores da Arca Perdida</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7320,17 +7320,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Crepúsculo dos Deuses</t>
+          <t>A Vida dos Outros</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7342,17 +7342,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Glória Feita de Sangue</t>
+          <t>Crepúsculo dos Deuses</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7364,17 +7364,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vingadores: Guerra Infinita</t>
+          <t>Glória Feita de Sangue</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7386,7 +7386,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Homem-Aranha: No Aranhaverso</t>
+          <t>Vingadores: Guerra Infinita</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -7408,17 +7408,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>O Iluminado</t>
+          <t>Homem-Aranha: No Aranhaverso</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2h 26m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7452,17 +7452,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>O Grande Ditador</t>
+          <t>O Iluminado</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>2h 26m</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -7474,17 +7474,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aliens, O Resgate</t>
+          <t>O Grande Ditador</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7496,17 +7496,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bastardos Inglórios</t>
+          <t>Aliens, O Resgate</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -7518,17 +7518,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Batman - O Cavaleiro das Trevas Ressurge</t>
+          <t>Bastardos Inglórios</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7540,17 +7540,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dr. Fantástico</t>
+          <t>Batman: O Cavaleiro das Trevas Ressurge</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7562,39 +7562,39 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Beleza Americana</t>
+          <t>Dr. Fantástico</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Oldboy</t>
+          <t>Beleza Americana</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7606,39 +7606,39 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Viva - A Vida é uma Festa</t>
+          <t>Oldboy</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1h 45m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Amadeus</t>
+          <t>Viva - A Vida é uma Festa</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>1h 45m</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -7650,66 +7650,66 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Toy Story</t>
+          <t>Amadeus</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1h 21m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>O Barco: Inferno no Mar</t>
+          <t>Toy Story</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 21m</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Coração Valente</t>
+          <t>O Barco: Inferno no Mar</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2h 58m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
@@ -7738,51 +7738,51 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Coringa</t>
+          <t>Coração Valente</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 58m</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Princesa Mononoke</t>
+          <t>Coringa</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gênio Indomável</t>
+          <t>Princesa Mononoke</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7804,39 +7804,39 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Your Name.</t>
+          <t>Gênio Indomável</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Your Name</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8002,17 +8002,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Toy Story 3</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -8024,17 +8024,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Star Wars, Episódio VI: O Retorno do Jedi</t>
+          <t>Toy Story 3</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -8046,17 +8046,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Brilho Eterno de uma Mente sem Lembranças</t>
+          <t>Star Wars: Episódio VI - O Retorno de Jedi</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8068,17 +8068,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A Caça</t>
+          <t>Brilho Eterno de uma Mente sem Lembranças</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8090,17 +8090,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2001: Uma Odisséia no Espaço</t>
+          <t>A Caça</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8112,22 +8112,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pobres Criaturas</t>
+          <t>2001: Uma Odisséia no Espaço</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -8266,17 +8266,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>M, o Vampiro de Dusseldorf</t>
+          <t>Incêndios</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -8310,17 +8310,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Pacto de Sangue</t>
+          <t>M, o Vampiro de Dusseldorf</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -8332,17 +8332,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>Pacto de Sangue</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -8354,17 +8354,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Incêndios</t>
+          <t>Scarface</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -8420,17 +8420,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Laranja Mecânica</t>
+          <t>Fogo Contra Fogo</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -8442,17 +8442,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Fogo Contra Fogo</t>
+          <t>Laranja Mecânica</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -8464,7 +8464,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Up - Altas Aventuras</t>
+          <t>Up: Altas Aventuras</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8618,17 +8618,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Como Estrelas na Terra</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>2h 42m</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8640,17 +8640,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Como Estrelas na Terra</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2h 42m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8706,44 +8706,44 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ladrões de Bicicletas</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>Ladrões de Bicicletas</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -8860,17 +8860,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Quanto Mais Quente Melhor</t>
+          <t>O Lobo de Wall Street</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8882,17 +8882,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>O Lobo de Wall Street</t>
+          <t>Quanto Mais Quente Melhor</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8904,17 +8904,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>O Garoto</t>
+          <t>Green Book: O Guia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1h 8m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -8926,17 +8926,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Green Book: O Guia</t>
+          <t>O Garoto</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 8m</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -8970,61 +8970,61 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Top Gun: Maverick</t>
+          <t>Julgamento em Nuremberg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 59m</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Julgamento em Nuremberg</t>
+          <t>A Malvada</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2h 59m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A Malvada</t>
+          <t>O Show de Truman: O Show da Vida</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9036,17 +9036,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>O Show de Truman: O Show da Vida</t>
+          <t>Top Gun: Maverick</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9058,17 +9058,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sangue Negro</t>
+          <t>Ilha do Medo</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2h 38m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9080,17 +9080,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ilha do Medo</t>
+          <t>Sangue Negro</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>2h 38m</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9234,17 +9234,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Uma Mente Brilhante</t>
+          <t>Onde os Fracos Não Têm Vez</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2h 15m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9256,17 +9256,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Onde os Fracos Não Têm Vez</t>
+          <t>Uma Mente Brilhante</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 15m</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -9322,17 +9322,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Yojimbo, o Guarda-Costas</t>
+          <t>Kill Bill: Volume 1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -9344,17 +9344,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Kill Bill: Volume 1</t>
+          <t>Yojimbo, o Guarda-Costas</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -9454,17 +9454,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>O Homem Elefante</t>
+          <t>Os Suspeitos</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -9498,22 +9498,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Os Suspeitos</t>
+          <t>O Homem Elefante</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -9652,17 +9652,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Touro Indomável</t>
+          <t>Divertida Mente</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9674,17 +9674,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Divertida Mente</t>
+          <t>Touro Indomável</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9784,7 +9784,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Fargo - Uma Comédia de Erros</t>
+          <t>Fargo: Uma Comédia de Erros</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9806,61 +9806,61 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Guerreiro</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Prenda-Me se for Capaz</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Prenda-me se for Capaz</t>
+          <t>Guerreiro</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -10026,7 +10026,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Blade Runner: O Caçador de Androides</t>
+          <t>Blade Runner - O Caçador de Androides</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -10070,17 +10070,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>O Grande Hotel Budapeste</t>
+          <t>Ben-Hur</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>3h 32m</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -10092,17 +10092,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Ben-Hur</t>
+          <t>O Grande Hotel Budapeste</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3h 32m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -10158,17 +10158,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Em Busca do Ouro</t>
+          <t>Até o Último Homem</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 19m</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -10180,17 +10180,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Até o Último Homem</t>
+          <t>Em Busca do Ouro</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2h 19m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -10246,17 +10246,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Sindicato de Ladrões</t>
+          <t>Sociedade dos Poetas Mortos</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 8m</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -10268,17 +10268,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sociedade dos Poetas Mortos</t>
+          <t>Sindicato de Ladrões</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2h 8m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -10312,17 +10312,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>O Franco Atirador</t>
+          <t>Relatos Selvagens</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>3h 3m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -10334,17 +10334,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Relatos Selvagens</t>
+          <t>O Franco Atirador</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>3h 3m</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -10378,44 +10378,44 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Bancando o Águia</t>
+          <t>Monstros S.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>45m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Monstros S.A.</t>
+          <t>Bancando o Águia</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>45m</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>
@@ -10576,17 +10576,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Ford vs Ferrari</t>
+          <t>Ratatouille</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2h 32m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -10598,17 +10598,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ratatouille</t>
+          <t>Ford vs. Ferrari</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>2h 32m</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -10620,17 +10620,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>O Sétimo Selo</t>
+          <t>O Grande Lebowski</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -10642,17 +10642,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>O Quarto de Jack</t>
+          <t>Era uma Vez em Tóquio</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -10664,17 +10664,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>O Grande Lebowski</t>
+          <t>O Quarto de Jack</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10686,17 +10686,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Era uma Vez em Tóquio</t>
+          <t>O Sétimo Selo</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10708,7 +10708,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Rocky - Um Lutador</t>
+          <t>Rocky, um Lutador</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10752,7 +10752,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Spotlight - Segredos Revelados</t>
+          <t>Spotlight: Segredos Revelados</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -10862,39 +10862,39 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>Antes do Pôr do Sol</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>1h 20m</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Antes do Pôr do Sol</t>
+          <t>O Ódio</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -10928,17 +10928,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>O Ódio</t>
+          <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>2h 23m</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -10994,39 +10994,39 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Rede de Intrigas</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.7</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
+          <t>Rede de Intrigas</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2h 23m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -11104,17 +11104,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Na Natureza Selvagem</t>
+          <t>Sempre ao Seu Lado</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2h 28m</t>
+          <t>1h 33m</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11126,17 +11126,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Sempre ao Seu Lado</t>
+          <t>A Criada</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1h 33m</t>
+          <t>2h 25m</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11148,17 +11148,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A Criada</t>
+          <t>Na Natureza Selvagem</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2h 25m</t>
+          <t>2h 28m</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -11192,17 +11192,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Ser ou Não Ser</t>
+          <t>A Noviça Rebelde</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -11214,17 +11214,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A Noviça Rebelde</t>
+          <t>A Batalha de Argel</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11258,44 +11258,44 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Feitiço do Tempo</t>
+          <t>Ser ou Não Ser</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A Batalha de Argel</t>
+          <t>Feitiço do Tempo</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -11434,66 +11434,66 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Os Incompreendidos</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A Chantagem</t>
+          <t>Dança com Lobos</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2h 43m</t>
+          <t>3h 1m</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>A Chantagem</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>2h 43m</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.2</t>
         </is>
       </c>
     </row>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="456">
   <si>
     <t>film_name</t>
   </si>
@@ -92,33 +92,33 @@
     <t>A Felicidade Não se Compra</t>
   </si>
   <si>
+    <t>Os Sete Samurais</t>
+  </si>
+  <si>
+    <t>O Silêncio dos Inocentes</t>
+  </si>
+  <si>
+    <t>O Resgate do Soldado Ryan</t>
+  </si>
+  <si>
+    <t>Cidade de Deus</t>
+  </si>
+  <si>
+    <t>A Vida é Bela</t>
+  </si>
+  <si>
+    <t>À Espera de um Milagre</t>
+  </si>
+  <si>
+    <t>O Exterminador do Futuro 2: O Julgamento Final</t>
+  </si>
+  <si>
+    <t>Star Wars: Episódio IV - Uma Nova Esperança</t>
+  </si>
+  <si>
     <t>Duna: Parte 2</t>
   </si>
   <si>
-    <t>Os Sete Samurais</t>
-  </si>
-  <si>
-    <t>O Silêncio dos Inocentes</t>
-  </si>
-  <si>
-    <t>O Resgate do Soldado Ryan</t>
-  </si>
-  <si>
-    <t>Cidade de Deus</t>
-  </si>
-  <si>
-    <t>A Vida é Bela</t>
-  </si>
-  <si>
-    <t>À Espera de um Milagre</t>
-  </si>
-  <si>
-    <t>O Exterminador do Futuro 2: O Julgamento Final</t>
-  </si>
-  <si>
-    <t>Star Wars: Episódio IV - Uma Nova Esperança</t>
-  </si>
-  <si>
     <t>De Volta para o Futuro</t>
   </si>
   <si>
@@ -134,21 +134,21 @@
     <t>Psicose</t>
   </si>
   <si>
+    <t>Gladiador</t>
+  </si>
+  <si>
     <t>Homem-Aranha: Através do Aranhaverso</t>
   </si>
   <si>
-    <t>Gladiador</t>
-  </si>
-  <si>
     <t>O Rei Leão</t>
   </si>
   <si>
+    <t>Os Infiltrados</t>
+  </si>
+  <si>
     <t>O Profissional</t>
   </si>
   <si>
-    <t>Os Infiltrados</t>
-  </si>
-  <si>
     <t>A Outra História Americana</t>
   </si>
   <si>
@@ -200,12 +200,12 @@
     <t>Amnésia</t>
   </si>
   <si>
+    <t>WALL·E</t>
+  </si>
+  <si>
     <t>Repetente</t>
   </si>
   <si>
-    <t>WALL·E</t>
-  </si>
-  <si>
     <t>Os Caçadores da Arca Perdida</t>
   </si>
   <si>
@@ -215,12 +215,12 @@
     <t>Crepúsculo dos Deuses</t>
   </si>
   <si>
+    <t>Vingadores: Guerra Infinita</t>
+  </si>
+  <si>
     <t>Glória Feita de Sangue</t>
   </si>
   <si>
-    <t>Vingadores: Guerra Infinita</t>
-  </si>
-  <si>
     <t>Homem-Aranha: No Aranhaverso</t>
   </si>
   <si>
@@ -245,48 +245,48 @@
     <t>Dr. Fantástico</t>
   </si>
   <si>
+    <t>Viva - A Vida é uma Festa</t>
+  </si>
+  <si>
+    <t>Oldboy</t>
+  </si>
+  <si>
     <t>Beleza Americana</t>
   </si>
   <si>
-    <t>Oldboy</t>
-  </si>
-  <si>
-    <t>Viva - A Vida é uma Festa</t>
-  </si>
-  <si>
     <t>Amadeus</t>
   </si>
   <si>
     <t>Toy Story</t>
   </si>
   <si>
+    <t>Vingadores: Ultimato</t>
+  </si>
+  <si>
     <t>O Barco: Inferno no Mar</t>
   </si>
   <si>
-    <t>Vingadores: Ultimato</t>
-  </si>
-  <si>
     <t>Coração Valente</t>
   </si>
   <si>
+    <t>Gênio Indomável</t>
+  </si>
+  <si>
+    <t>Princesa Mononoke</t>
+  </si>
+  <si>
     <t>Coringa</t>
   </si>
   <si>
-    <t>Princesa Mononoke</t>
-  </si>
-  <si>
-    <t>Gênio Indomável</t>
-  </si>
-  <si>
     <t>Your Name</t>
   </si>
   <si>
+    <t>Céu e Inferno</t>
+  </si>
+  <si>
     <t>Era uma Vez na América</t>
   </si>
   <si>
-    <t>Céu e Inferno</t>
-  </si>
-  <si>
     <t>3 Idiotas</t>
   </si>
   <si>
@@ -296,12 +296,12 @@
     <t>Cafarnaum</t>
   </si>
   <si>
+    <t>Vá e Veja</t>
+  </si>
+  <si>
     <t>Réquiem para um Sonho</t>
   </si>
   <si>
-    <t>Vá e Veja</t>
-  </si>
-  <si>
     <t>Toy Story 3</t>
   </si>
   <si>
@@ -311,63 +311,63 @@
     <t>Brilho Eterno de uma Mente sem Lembranças</t>
   </si>
   <si>
+    <t>A Caça</t>
+  </si>
+  <si>
+    <t>2001: Uma Odisséia no Espaço</t>
+  </si>
+  <si>
+    <t>Cães de Aluguel</t>
+  </si>
+  <si>
+    <t>Viver</t>
+  </si>
+  <si>
     <t>Oppenheimer</t>
   </si>
   <si>
-    <t>A Caça</t>
-  </si>
-  <si>
-    <t>2001: Uma Odisséia no Espaço</t>
-  </si>
-  <si>
-    <t>Cães de Aluguel</t>
-  </si>
-  <si>
-    <t>Viver</t>
-  </si>
-  <si>
     <t>Lawrence da Arábia</t>
   </si>
   <si>
     <t>Se Meu Apartamento Falasse</t>
   </si>
   <si>
+    <t>Incêndios</t>
+  </si>
+  <si>
     <t>Intriga Internacional</t>
   </si>
   <si>
-    <t>Incêndios</t>
-  </si>
-  <si>
     <t>Cidadão Kane</t>
   </si>
   <si>
+    <t>M, o Vampiro de Dusseldorf</t>
+  </si>
+  <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>Pacto de Sangue</t>
+  </si>
+  <si>
     <t>Um Corpo que Cai</t>
   </si>
   <si>
-    <t>M, o Vampiro de Dusseldorf</t>
-  </si>
-  <si>
-    <t>Pacto de Sangue</t>
-  </si>
-  <si>
-    <t>Scarface</t>
-  </si>
-  <si>
     <t>Nascido para Matar</t>
   </si>
   <si>
     <t>O Fabuloso Destino de Amélie Poulain</t>
   </si>
   <si>
-    <t>Fogo Contra Fogo</t>
+    <t>Fogo contra Fogo</t>
+  </si>
+  <si>
+    <t>Up: Altas Aventuras</t>
   </si>
   <si>
     <t>Laranja Mecânica</t>
   </si>
   <si>
-    <t>Up: Altas Aventuras</t>
-  </si>
-  <si>
     <t>O Sol é para Todos</t>
   </si>
   <si>
@@ -383,24 +383,24 @@
     <t>Duro de Matar</t>
   </si>
   <si>
+    <t>Como Estrelas na Terra</t>
+  </si>
+  <si>
     <t>Metrópolis</t>
   </si>
   <si>
-    <t>Como Estrelas na Terra</t>
-  </si>
-  <si>
     <t>Snatch - Porcos e Diamantes</t>
   </si>
   <si>
+    <t>Los Angeles: Cidade Proibida</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Los Angeles: Cidade Proibida</t>
-  </si>
-  <si>
-    <t>1917</t>
-  </si>
-  <si>
     <t>Ladrões de Bicicletas</t>
   </si>
   <si>
@@ -437,25 +437,25 @@
     <t>Julgamento em Nuremberg</t>
   </si>
   <si>
+    <t>O Show de Truman: O Show da Vida</t>
+  </si>
+  <si>
     <t>A Malvada</t>
   </si>
   <si>
-    <t>O Show de Truman: O Show da Vida</t>
+    <t>Ilha do Medo</t>
   </si>
   <si>
     <t>Top Gun: Maverick</t>
   </si>
   <si>
-    <t>Ilha do Medo</t>
-  </si>
-  <si>
     <t>Sangue Negro</t>
   </si>
   <si>
     <t>Cassino</t>
   </si>
   <si>
-    <t>Jurassic Park - O Parque dos Dinossauros</t>
+    <t>Jurassic Park: O Parque dos Dinossauros</t>
   </si>
   <si>
     <t>Ran</t>
@@ -497,30 +497,30 @@
     <t>Procurando Nemo</t>
   </si>
   <si>
+    <t>O Castelo Animado</t>
+  </si>
+  <si>
     <t>Rashomon</t>
   </si>
   <si>
-    <t>O Castelo Animado</t>
-  </si>
-  <si>
     <t>O Homem Elefante</t>
   </si>
   <si>
+    <t>Disque M para Matar</t>
+  </si>
+  <si>
     <t>Chinatown</t>
   </si>
   <si>
-    <t>Disque M para Matar</t>
-  </si>
-  <si>
     <t>...E o Vento Levou</t>
   </si>
   <si>
+    <t>Jogos, Trapaças e Dois Canos Fumegantes</t>
+  </si>
+  <si>
     <t>V de Vingança</t>
   </si>
   <si>
-    <t>Jogos, Trapaças e Dois Canos Fumegantes</t>
-  </si>
-  <si>
     <t>O Segredo dos Seus Olhos</t>
   </si>
   <si>
@@ -539,52 +539,55 @@
     <t>A Ponte do Rio Kwai</t>
   </si>
   <si>
+    <t>Klaus</t>
+  </si>
+  <si>
     <t>Fargo: Uma Comédia de Erros</t>
   </si>
   <si>
+    <t>Prenda-Me se for Capaz</t>
+  </si>
+  <si>
     <t>Homem-Aranha: Sem Volta para Casa</t>
   </si>
   <si>
-    <t>Klaus</t>
-  </si>
-  <si>
-    <t>Prenda-Me se for Capaz</t>
-  </si>
-  <si>
     <t>Guerreiro</t>
   </si>
   <si>
     <t>Gran Torino</t>
   </si>
   <si>
+    <t>Menina de Ouro</t>
+  </si>
+  <si>
+    <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
+  </si>
+  <si>
     <t>Meu Amigo Totoro</t>
   </si>
   <si>
-    <t>Menina de Ouro</t>
-  </si>
-  <si>
-    <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
-  </si>
-  <si>
     <t>Filhos do Paraíso</t>
   </si>
   <si>
     <t>12 Anos de Escravidão</t>
   </si>
   <si>
+    <t>Ben-Hur</t>
+  </si>
+  <si>
     <t>Blade Runner - O Caçador de Androides</t>
   </si>
   <si>
     <t>Antes do Amanhecer</t>
   </si>
   <si>
-    <t>Ben-Hur</t>
+    <t>O Grande Hotel Budapeste</t>
   </si>
   <si>
     <t>Barry Lyndon</t>
   </si>
   <si>
-    <t>O Grande Hotel Budapeste</t>
+    <t>Mad Max: Estrada da Fúria</t>
   </si>
   <si>
     <t>Garota Exemplar</t>
@@ -596,60 +599,57 @@
     <t>Em Busca do Ouro</t>
   </si>
   <si>
+    <t>Sociedade dos Poetas Mortos</t>
+  </si>
+  <si>
     <t>Memórias de um Assassino</t>
   </si>
   <si>
     <t>Em Nome do Pai</t>
   </si>
   <si>
-    <t>Sociedade dos Poetas Mortos</t>
-  </si>
-  <si>
-    <t>Mad Max: Estrada da Fúria</t>
-  </si>
-  <si>
     <t>Relatos Selvagens</t>
   </si>
   <si>
     <t>O Franco Atirador</t>
   </si>
   <si>
+    <t>Monstros S.A.</t>
+  </si>
+  <si>
     <t>A General</t>
   </si>
   <si>
     <t>Sindicato de Ladrões</t>
   </si>
   <si>
-    <t>Monstros S.A.</t>
-  </si>
-  <si>
     <t>Bancando o Águia</t>
   </si>
   <si>
+    <t>Como Treinar o Seu Dragão</t>
+  </si>
+  <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
     <t>O 3º Homem</t>
   </si>
   <si>
-    <t>Tubarão</t>
-  </si>
-  <si>
-    <t>Como Treinar o Seu Dragão</t>
+    <t>O Salário do Medo</t>
+  </si>
+  <si>
+    <t>Mary e Max - Uma Amizade Diferente</t>
   </si>
   <si>
     <t>Morangos Silvestres</t>
   </si>
   <si>
-    <t>O Salário do Medo</t>
-  </si>
-  <si>
-    <t>Mary e Max - Uma Amizade Diferente</t>
+    <t>Ratatouille</t>
   </si>
   <si>
     <t>A Mulher Faz o Homem</t>
   </si>
   <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
     <t>Ford vs. Ferrari</t>
   </si>
   <si>
@@ -683,12 +683,12 @@
     <t>Platoon</t>
   </si>
   <si>
+    <t>O Ódio</t>
+  </si>
+  <si>
     <t>O Martírio de Joana D'Arc</t>
   </si>
   <si>
-    <t>O Ódio</t>
-  </si>
-  <si>
     <t>Antes do Pôr do Sol</t>
   </si>
   <si>
@@ -701,63 +701,60 @@
     <t>O Exorcista</t>
   </si>
   <si>
+    <t>Jai Bhim</t>
+  </si>
+  <si>
     <t>Rush: No Limite da Emoção</t>
   </si>
   <si>
     <t>Rede de Intrigas</t>
   </si>
   <si>
-    <t>Jai Bhim</t>
+    <t>O Mágico de Oz</t>
   </si>
   <si>
     <t>Conta Comigo</t>
   </si>
   <si>
-    <t>O Mágico de Oz</t>
-  </si>
-  <si>
-    <t>Godzilla Minus One</t>
-  </si>
-  <si>
     <t>Os Incríveis</t>
   </si>
   <si>
     <t>Sempre ao Seu Lado</t>
   </si>
   <si>
+    <t>Meu Pai e Meu Filho</t>
+  </si>
+  <si>
     <t>A Criada</t>
   </si>
   <si>
+    <t>A Noviça Rebelde</t>
+  </si>
+  <si>
     <t>Na Natureza Selvagem</t>
   </si>
   <si>
-    <t>Meu Pai e Meu Filho</t>
-  </si>
-  <si>
-    <t>A Noviça Rebelde</t>
+    <t>Ser ou Não Ser</t>
+  </si>
+  <si>
+    <t>A Batalha de Argel</t>
   </si>
   <si>
     <t>As Vinhas da Ira</t>
   </si>
   <si>
-    <t>Ser ou Não Ser</t>
-  </si>
-  <si>
-    <t>A Batalha de Argel</t>
-  </si>
-  <si>
     <t>Feitiço do Tempo</t>
   </si>
   <si>
     <t>Amores Brutos</t>
   </si>
   <si>
+    <t>O Gigante de Ferro</t>
+  </si>
+  <si>
     <t>Rebecca, a Mulher Inesquecível</t>
   </si>
   <si>
-    <t>O Gigante de Ferro</t>
-  </si>
-  <si>
     <t>Rebeldia Indomável</t>
   </si>
   <si>
@@ -767,13 +764,16 @@
     <t>Aconteceu Naquela Noite</t>
   </si>
   <si>
+    <t>A Chantagem</t>
+  </si>
+  <si>
+    <t>Dança com Lobos</t>
+  </si>
+  <si>
     <t>Aladdin</t>
   </si>
   <si>
-    <t>Dança com Lobos</t>
-  </si>
-  <si>
-    <t>Paris, Texas</t>
+    <t>Gangues de Wasseypur</t>
   </si>
   <si>
     <t>1994</t>
@@ -830,24 +830,24 @@
     <t>1946</t>
   </si>
   <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
     <t>1985</t>
   </si>
   <si>
@@ -857,12 +857,12 @@
     <t>1960</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
@@ -944,12 +944,12 @@
     <t>1941</t>
   </si>
   <si>
+    <t>1944</t>
+  </si>
+  <si>
     <t>1958</t>
   </si>
   <si>
-    <t>1944</t>
-  </si>
-  <si>
     <t>1987</t>
   </si>
   <si>
@@ -962,12 +962,12 @@
     <t>1989</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>1927</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -1097,27 +1097,27 @@
     <t>2h 10m</t>
   </si>
   <si>
+    <t>3h 27m</t>
+  </si>
+  <si>
+    <t>1h 58m</t>
+  </si>
+  <si>
+    <t>1h 56m</t>
+  </si>
+  <si>
+    <t>3h 9m</t>
+  </si>
+  <si>
+    <t>2h 17m</t>
+  </si>
+  <si>
+    <t>2h 1m</t>
+  </si>
+  <si>
     <t>2h 46m</t>
   </si>
   <si>
-    <t>3h 27m</t>
-  </si>
-  <si>
-    <t>1h 58m</t>
-  </si>
-  <si>
-    <t>1h 56m</t>
-  </si>
-  <si>
-    <t>3h 9m</t>
-  </si>
-  <si>
-    <t>2h 17m</t>
-  </si>
-  <si>
-    <t>2h 1m</t>
-  </si>
-  <si>
     <t>2h 5m</t>
   </si>
   <si>
@@ -1130,21 +1130,21 @@
     <t>1h 49m</t>
   </si>
   <si>
+    <t>2h 35m</t>
+  </si>
+  <si>
     <t>2h 20m</t>
   </si>
   <si>
-    <t>2h 35m</t>
-  </si>
-  <si>
     <t>1h 28m</t>
   </si>
   <si>
+    <t>2h 31m</t>
+  </si>
+  <si>
     <t>1h 50m</t>
   </si>
   <si>
-    <t>2h 31m</t>
-  </si>
-  <si>
     <t>1h 59m</t>
   </si>
   <si>
@@ -1199,15 +1199,15 @@
     <t>1h 35m</t>
   </si>
   <si>
+    <t>1h 45m</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
     <t>2h 2m</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>1h 45m</t>
-  </si>
-  <si>
     <t>2h 40m</t>
   </si>
   <si>
@@ -1217,18 +1217,18 @@
     <t>3h 1m</t>
   </si>
   <si>
+    <t>2h 6m</t>
+  </si>
+  <si>
     <t>2h 14m</t>
   </si>
   <si>
-    <t>2h 6m</t>
+    <t>2h 23m</t>
   </si>
   <si>
     <t>3h 49m</t>
   </si>
   <si>
-    <t>2h 23m</t>
-  </si>
-  <si>
     <t>2h 50m</t>
   </si>
   <si>
@@ -1241,21 +1241,21 @@
     <t>1h 48m</t>
   </si>
   <si>
+    <t>1h 39m</t>
+  </si>
+  <si>
     <t>3h</t>
   </si>
   <si>
-    <t>1h 39m</t>
-  </si>
-  <si>
     <t>3h 38m</t>
   </si>
   <si>
+    <t>1h 47m</t>
+  </si>
+  <si>
     <t>2h 8m</t>
   </si>
   <si>
-    <t>1h 47m</t>
-  </si>
-  <si>
     <t>2h 9m</t>
   </si>
   <si>
@@ -1313,31 +1313,37 @@
     <t>1h 26m</t>
   </si>
   <si>
+    <t>3h 32m</t>
+  </si>
+  <si>
     <t>1h 41m</t>
   </si>
   <si>
-    <t>3h 32m</t>
-  </si>
-  <si>
     <t>3h 5m</t>
   </si>
   <si>
     <t>3h 3m</t>
   </si>
   <si>
+    <t>1h 32m</t>
+  </si>
+  <si>
     <t>1h 18m</t>
   </si>
   <si>
-    <t>1h 32m</t>
-  </si>
-  <si>
     <t>45m</t>
   </si>
   <si>
     <t>1h 20m</t>
   </si>
   <si>
+    <t>2h 43m</t>
+  </si>
+  <si>
     <t>1h 30m</t>
+  </si>
+  <si>
+    <t>5h 21m</t>
   </si>
   <si>
     <t>9.3</t>
@@ -1765,7 +1771,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1779,7 +1785,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1793,7 +1799,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1807,7 +1813,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1821,7 +1827,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1835,7 +1841,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1849,7 +1855,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1863,7 +1869,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1877,7 +1883,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1891,7 +1897,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1905,7 +1911,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1919,7 +1925,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1933,7 +1939,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1947,7 +1953,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1961,7 +1967,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1975,7 +1981,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1989,7 +1995,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2003,7 +2009,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2017,7 +2023,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2031,7 +2037,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2045,7 +2051,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2059,7 +2065,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2073,7 +2079,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2084,10 +2090,10 @@
         <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2095,13 +2101,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2109,13 +2115,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2123,13 +2129,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
         <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2137,13 +2143,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
         <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2151,13 +2157,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
         <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2171,7 +2177,7 @@
         <v>366</v>
       </c>
       <c r="D31" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2182,10 +2188,10 @@
         <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D32" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2199,7 +2205,7 @@
         <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2213,7 +2219,7 @@
         <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2227,7 +2233,7 @@
         <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2241,7 +2247,7 @@
         <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2255,7 +2261,7 @@
         <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2269,7 +2275,7 @@
         <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2283,7 +2289,7 @@
         <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2291,13 +2297,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
         <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2305,13 +2311,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C41" t="s">
         <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2319,13 +2325,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
         <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2339,7 +2345,7 @@
         <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2353,7 +2359,7 @@
         <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2367,7 +2373,7 @@
         <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2381,7 +2387,7 @@
         <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2395,7 +2401,7 @@
         <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2409,7 +2415,7 @@
         <v>379</v>
       </c>
       <c r="D48" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2423,7 +2429,7 @@
         <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2437,7 +2443,7 @@
         <v>381</v>
       </c>
       <c r="D50" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2451,7 +2457,7 @@
         <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2459,13 +2465,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C52" t="s">
         <v>380</v>
       </c>
       <c r="D52" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2476,10 +2482,10 @@
         <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2493,7 +2499,7 @@
         <v>383</v>
       </c>
       <c r="D54" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2507,7 +2513,7 @@
         <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2521,7 +2527,7 @@
         <v>384</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2535,7 +2541,7 @@
         <v>385</v>
       </c>
       <c r="D57" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2543,13 +2549,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C58" t="s">
         <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2557,13 +2563,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D59" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2571,13 +2577,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D60" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2591,7 +2597,7 @@
         <v>388</v>
       </c>
       <c r="D61" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2602,10 +2608,10 @@
         <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2616,10 +2622,10 @@
         <v>293</v>
       </c>
       <c r="C63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2627,13 +2633,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C64" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2641,13 +2647,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D65" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2661,7 +2667,7 @@
         <v>383</v>
       </c>
       <c r="D66" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2672,10 +2678,10 @@
         <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2689,7 +2695,7 @@
         <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2703,7 +2709,7 @@
         <v>367</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2714,10 +2720,10 @@
         <v>296</v>
       </c>
       <c r="C70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2731,7 +2737,7 @@
         <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2745,7 +2751,7 @@
         <v>392</v>
       </c>
       <c r="D72" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2759,7 +2765,7 @@
         <v>393</v>
       </c>
       <c r="D73" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2767,13 +2773,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
         <v>394</v>
       </c>
       <c r="D74" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2787,7 +2793,7 @@
         <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2795,13 +2801,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
         <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2815,7 +2821,7 @@
         <v>397</v>
       </c>
       <c r="D77" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2829,7 +2835,7 @@
         <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2837,13 +2843,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D79" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2851,13 +2857,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2871,7 +2877,7 @@
         <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2879,13 +2885,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C82" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2893,13 +2899,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D83" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2907,13 +2913,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D84" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2927,7 +2933,7 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2935,13 +2941,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C86" t="s">
         <v>402</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2949,13 +2955,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C87" t="s">
         <v>403</v>
       </c>
       <c r="D87" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2969,7 +2975,7 @@
         <v>404</v>
       </c>
       <c r="D88" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2983,7 +2989,7 @@
         <v>405</v>
       </c>
       <c r="D89" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2994,10 +3000,10 @@
         <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3005,13 +3011,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3019,13 +3025,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="D92" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3039,7 +3045,7 @@
         <v>405</v>
       </c>
       <c r="D93" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3053,7 +3059,7 @@
         <v>406</v>
       </c>
       <c r="D94" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3067,7 +3073,7 @@
         <v>407</v>
       </c>
       <c r="D95" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3075,13 +3081,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="D96" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3089,13 +3095,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3103,13 +3109,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="D98" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3117,13 +3123,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C99" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3131,13 +3137,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C100" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3151,7 +3157,7 @@
         <v>410</v>
       </c>
       <c r="D101" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3165,7 +3171,7 @@
         <v>367</v>
       </c>
       <c r="D102" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3173,13 +3179,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="D103" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3187,13 +3193,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3207,7 +3213,7 @@
         <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3215,13 +3221,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C106" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3229,13 +3235,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C107" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="D107" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3243,13 +3249,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D108" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3257,13 +3263,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C109" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3274,10 +3280,10 @@
         <v>311</v>
       </c>
       <c r="C110" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3288,10 +3294,10 @@
         <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D111" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3305,7 +3311,7 @@
         <v>404</v>
       </c>
       <c r="D112" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3313,13 +3319,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3327,13 +3333,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C114" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3347,7 +3353,7 @@
         <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3361,7 +3367,7 @@
         <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3375,7 +3381,7 @@
         <v>413</v>
       </c>
       <c r="D117" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3389,7 +3395,7 @@
         <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3403,7 +3409,7 @@
         <v>369</v>
       </c>
       <c r="D119" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3414,10 +3420,10 @@
         <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3428,10 +3434,10 @@
         <v>316</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D121" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3439,13 +3445,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C122" t="s">
         <v>416</v>
       </c>
       <c r="D122" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3453,13 +3459,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="D123" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3467,13 +3473,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C124" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D124" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3481,13 +3487,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="C125" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="D125" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3501,7 +3507,7 @@
         <v>378</v>
       </c>
       <c r="D126" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3515,7 +3521,7 @@
         <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3529,7 +3535,7 @@
         <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3543,7 +3549,7 @@
         <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3557,7 +3563,7 @@
         <v>369</v>
       </c>
       <c r="D130" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3568,10 +3574,10 @@
         <v>321</v>
       </c>
       <c r="C131" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D131" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3582,10 +3588,10 @@
         <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D132" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3596,10 +3602,10 @@
         <v>307</v>
       </c>
       <c r="C133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3613,7 +3619,7 @@
         <v>359</v>
       </c>
       <c r="D134" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3627,7 +3633,7 @@
         <v>420</v>
       </c>
       <c r="D135" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3641,7 +3647,7 @@
         <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3655,7 +3661,7 @@
         <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3663,13 +3669,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3677,13 +3683,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3691,13 +3697,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="D140" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3705,13 +3711,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="C141" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="D141" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3719,13 +3725,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C142" t="s">
         <v>422</v>
       </c>
       <c r="D142" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3739,7 +3745,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3753,7 +3759,7 @@
         <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3767,7 +3773,7 @@
         <v>397</v>
       </c>
       <c r="D145" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3778,10 +3784,10 @@
         <v>263</v>
       </c>
       <c r="C146" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D146" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3792,10 +3798,10 @@
         <v>282</v>
       </c>
       <c r="C147" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3809,7 +3815,7 @@
         <v>359</v>
       </c>
       <c r="D148" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3817,13 +3823,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D149" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3837,7 +3843,7 @@
         <v>423</v>
       </c>
       <c r="D150" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3851,7 +3857,7 @@
         <v>370</v>
       </c>
       <c r="D151" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3865,7 +3871,7 @@
         <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3876,10 +3882,10 @@
         <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D153" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3890,10 +3896,10 @@
         <v>324</v>
       </c>
       <c r="C154" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3907,7 +3913,7 @@
         <v>425</v>
       </c>
       <c r="D155" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3921,7 +3927,7 @@
         <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3935,7 +3941,7 @@
         <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3949,7 +3955,7 @@
         <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3957,13 +3963,13 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C159" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3971,13 +3977,13 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C160" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D160" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3991,7 +3997,7 @@
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3999,13 +4005,13 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="D162" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4013,13 +4019,13 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C163" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4033,7 +4039,7 @@
         <v>428</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4041,13 +4047,13 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="D165" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4055,13 +4061,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="C166" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D166" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4075,7 +4081,7 @@
         <v>413</v>
       </c>
       <c r="D167" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4089,7 +4095,7 @@
         <v>393</v>
       </c>
       <c r="D168" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4103,7 +4109,7 @@
         <v>413</v>
       </c>
       <c r="D169" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4117,7 +4123,7 @@
         <v>388</v>
       </c>
       <c r="D170" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4131,7 +4137,7 @@
         <v>429</v>
       </c>
       <c r="D171" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4145,7 +4151,7 @@
         <v>349</v>
       </c>
       <c r="D172" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4153,13 +4159,13 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="C173" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4167,13 +4173,13 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C174" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="D174" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4181,13 +4187,13 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C175" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="D175" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4195,13 +4201,13 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="C176" t="s">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="D176" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4212,10 +4218,10 @@
         <v>286</v>
       </c>
       <c r="C177" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D177" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4226,10 +4232,10 @@
         <v>255</v>
       </c>
       <c r="C178" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D178" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4237,13 +4243,13 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="C179" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="D179" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4251,13 +4257,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C180" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D180" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4265,13 +4271,13 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>431</v>
       </c>
       <c r="D181" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4279,13 +4285,13 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C182" t="s">
         <v>378</v>
       </c>
       <c r="D182" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4296,10 +4302,10 @@
         <v>322</v>
       </c>
       <c r="C183" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D183" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4307,13 +4313,13 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C184" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="D184" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4321,13 +4327,13 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C185" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="D185" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4335,13 +4341,13 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C186" t="s">
         <v>433</v>
       </c>
       <c r="D186" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4349,13 +4355,13 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C187" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4363,13 +4369,13 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C188" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4377,13 +4383,13 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="C189" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D189" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4391,13 +4397,13 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C190" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="D190" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4405,13 +4411,13 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="C191" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="D191" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4419,13 +4425,13 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="C192" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D192" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4433,13 +4439,13 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="C193" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4447,13 +4453,13 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C194" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D194" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4461,13 +4467,13 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="C195" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="D195" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4478,10 +4484,10 @@
         <v>269</v>
       </c>
       <c r="C196" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D196" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4495,7 +4501,7 @@
         <v>435</v>
       </c>
       <c r="D197" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4503,13 +4509,13 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="C198" t="s">
         <v>436</v>
       </c>
       <c r="D198" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4517,13 +4523,13 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="C199" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="D199" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4531,13 +4537,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C200" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4551,7 +4557,7 @@
         <v>438</v>
       </c>
       <c r="D201" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4559,13 +4565,13 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="C202" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="D202" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4579,7 +4585,7 @@
         <v>353</v>
       </c>
       <c r="D203" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4587,13 +4593,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="C204" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="D204" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4601,13 +4607,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C205" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D205" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4615,13 +4621,13 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="D206" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4629,13 +4635,13 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="C207" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D207" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4643,13 +4649,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4657,13 +4663,13 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C209" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D209" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4677,7 +4683,7 @@
         <v>342</v>
       </c>
       <c r="D210" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4691,7 +4697,7 @@
         <v>354</v>
       </c>
       <c r="D211" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4699,13 +4705,13 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C212" t="s">
         <v>383</v>
       </c>
       <c r="D212" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4716,10 +4722,10 @@
         <v>328</v>
       </c>
       <c r="C213" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D213" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4733,7 +4739,7 @@
         <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4747,7 +4753,7 @@
         <v>395</v>
       </c>
       <c r="D215" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4758,10 +4764,10 @@
         <v>299</v>
       </c>
       <c r="C216" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4775,7 +4781,7 @@
         <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4786,10 +4792,10 @@
         <v>305</v>
       </c>
       <c r="C218" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D218" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4800,10 +4806,10 @@
         <v>300</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D219" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4817,7 +4823,7 @@
         <v>395</v>
       </c>
       <c r="D220" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4825,13 +4831,13 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c r="C221" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D221" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4839,13 +4845,13 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="C222" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D222" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4859,7 +4865,7 @@
         <v>439</v>
       </c>
       <c r="D223" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4873,7 +4879,7 @@
         <v>404</v>
       </c>
       <c r="D224" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4884,10 +4890,10 @@
         <v>259</v>
       </c>
       <c r="C225" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D225" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4898,10 +4904,10 @@
         <v>313</v>
       </c>
       <c r="C226" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D226" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4909,13 +4915,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C227" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="D227" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4923,13 +4929,13 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C228" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="D228" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4937,13 +4943,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C229" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="D229" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4951,13 +4957,13 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="C230" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D230" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4965,13 +4971,13 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="C231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D231" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4979,13 +4985,13 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C232" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="D232" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4993,13 +4999,13 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C233" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="D233" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5007,13 +5013,13 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C234" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="D234" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5027,7 +5033,7 @@
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5035,13 +5041,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C236" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="D236" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5049,13 +5055,13 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C237" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="D237" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5063,13 +5069,13 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C238" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D238" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5077,13 +5083,13 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="C239" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="D239" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5091,13 +5097,13 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C240" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D240" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5105,13 +5111,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C241" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="D241" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5119,13 +5125,13 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C242" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
       <c r="D242" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5133,13 +5139,13 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C243" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="D243" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5153,7 +5159,7 @@
         <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5161,13 +5167,13 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="C245" t="s">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="D245" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5175,13 +5181,13 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="C246" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="D246" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5189,13 +5195,13 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="C247" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D247" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5203,13 +5209,13 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C248" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="D248" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5217,13 +5223,13 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="C249" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="D249" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5231,13 +5237,13 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="C250" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="D250" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5245,13 +5251,13 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C251" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="D251" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5261,7 +5267,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5292,7 +5298,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5306,7 +5312,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5320,7 +5326,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5334,7 +5340,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5348,7 +5354,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5362,7 +5368,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5376,7 +5382,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5390,7 +5396,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5404,7 +5410,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5418,7 +5424,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5432,7 +5438,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5446,7 +5452,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5460,7 +5466,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5474,7 +5480,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5488,7 +5494,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5502,7 +5508,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5516,7 +5522,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5530,7 +5536,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5544,7 +5550,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5558,7 +5564,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5572,7 +5578,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5586,7 +5592,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5600,7 +5606,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5611,10 +5617,10 @@
         <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5622,3163 +5628,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>275</v>
-      </c>
-      <c r="C28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>263</v>
-      </c>
-      <c r="C29" t="s">
-        <v>364</v>
-      </c>
-      <c r="D29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" t="s">
-        <v>365</v>
-      </c>
-      <c r="D30" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D31" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32" t="s">
-        <v>363</v>
-      </c>
-      <c r="D32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C33" t="s">
-        <v>367</v>
-      </c>
-      <c r="D33" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" t="s">
-        <v>368</v>
-      </c>
-      <c r="D34" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>278</v>
-      </c>
-      <c r="C35" t="s">
-        <v>369</v>
-      </c>
-      <c r="D35" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>279</v>
-      </c>
-      <c r="C36" t="s">
-        <v>370</v>
-      </c>
-      <c r="D36" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" t="s">
-        <v>371</v>
-      </c>
-      <c r="D37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>281</v>
-      </c>
-      <c r="C38" t="s">
-        <v>372</v>
-      </c>
-      <c r="D38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C39" t="s">
-        <v>373</v>
-      </c>
-      <c r="D39" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" t="s">
-        <v>374</v>
-      </c>
-      <c r="D40" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" t="s">
-        <v>375</v>
-      </c>
-      <c r="D41" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>274</v>
-      </c>
-      <c r="C42" t="s">
-        <v>376</v>
-      </c>
-      <c r="D42" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>269</v>
-      </c>
-      <c r="C43" t="s">
-        <v>377</v>
-      </c>
-      <c r="D43" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D44" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" t="s">
-        <v>378</v>
-      </c>
-      <c r="D45" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>284</v>
-      </c>
-      <c r="C46" t="s">
-        <v>356</v>
-      </c>
-      <c r="D46" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>268</v>
-      </c>
-      <c r="C47" t="s">
-        <v>377</v>
-      </c>
-      <c r="D47" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" t="s">
-        <v>379</v>
-      </c>
-      <c r="D48" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>286</v>
-      </c>
-      <c r="C49" t="s">
-        <v>380</v>
-      </c>
-      <c r="D49" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>283</v>
-      </c>
-      <c r="C50" t="s">
-        <v>381</v>
-      </c>
-      <c r="D50" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" t="s">
-        <v>382</v>
-      </c>
-      <c r="D51" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>272</v>
-      </c>
-      <c r="C52" t="s">
-        <v>380</v>
-      </c>
-      <c r="D52" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>288</v>
-      </c>
-      <c r="C53" t="s">
-        <v>360</v>
-      </c>
-      <c r="D53" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>289</v>
-      </c>
-      <c r="C54" t="s">
-        <v>383</v>
-      </c>
-      <c r="D54" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>290</v>
-      </c>
-      <c r="C55" t="s">
-        <v>382</v>
-      </c>
-      <c r="D55" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="s">
-        <v>291</v>
-      </c>
-      <c r="C56" t="s">
-        <v>384</v>
-      </c>
-      <c r="D56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>289</v>
-      </c>
-      <c r="C57" t="s">
-        <v>385</v>
-      </c>
-      <c r="D57" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>281</v>
-      </c>
-      <c r="C58" t="s">
-        <v>386</v>
-      </c>
-      <c r="D58" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>280</v>
-      </c>
-      <c r="C59" t="s">
-        <v>385</v>
-      </c>
-      <c r="D59" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" t="s">
-        <v>387</v>
-      </c>
-      <c r="D60" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="s">
-        <v>292</v>
-      </c>
-      <c r="C61" t="s">
-        <v>388</v>
-      </c>
-      <c r="D61" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="s">
-        <v>282</v>
-      </c>
-      <c r="C62" t="s">
-        <v>365</v>
-      </c>
-      <c r="D62" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="s">
-        <v>257</v>
-      </c>
-      <c r="C64" t="s">
-        <v>373</v>
-      </c>
-      <c r="D64" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>294</v>
-      </c>
-      <c r="C65" t="s">
-        <v>389</v>
-      </c>
-      <c r="D65" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="s">
-        <v>294</v>
-      </c>
-      <c r="C66" t="s">
-        <v>383</v>
-      </c>
-      <c r="D66" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="s">
-        <v>257</v>
-      </c>
-      <c r="C67" t="s">
-        <v>363</v>
-      </c>
-      <c r="D67" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>265</v>
-      </c>
-      <c r="C68" t="s">
-        <v>390</v>
-      </c>
-      <c r="D68" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" t="s">
-        <v>367</v>
-      </c>
-      <c r="D69" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>296</v>
-      </c>
-      <c r="C70" t="s">
-        <v>365</v>
-      </c>
-      <c r="D70" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>297</v>
-      </c>
-      <c r="C71" t="s">
-        <v>391</v>
-      </c>
-      <c r="D71" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>291</v>
-      </c>
-      <c r="C72" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" t="s">
-        <v>393</v>
-      </c>
-      <c r="D73" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="s">
-        <v>263</v>
-      </c>
-      <c r="C74" t="s">
-        <v>394</v>
-      </c>
-      <c r="D74" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>259</v>
-      </c>
-      <c r="C75" t="s">
-        <v>395</v>
-      </c>
-      <c r="D75" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>299</v>
-      </c>
-      <c r="C76" t="s">
-        <v>396</v>
-      </c>
-      <c r="D76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>300</v>
-      </c>
-      <c r="C77" t="s">
-        <v>397</v>
-      </c>
-      <c r="D77" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>268</v>
-      </c>
-      <c r="C78" t="s">
-        <v>398</v>
-      </c>
-      <c r="D78" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>292</v>
-      </c>
-      <c r="C79" t="s">
-        <v>389</v>
-      </c>
-      <c r="D79" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>278</v>
-      </c>
-      <c r="C80" t="s">
-        <v>399</v>
-      </c>
-      <c r="D80" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="s">
-        <v>268</v>
-      </c>
-      <c r="C81" t="s">
-        <v>348</v>
-      </c>
-      <c r="D81" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>278</v>
-      </c>
-      <c r="C82" t="s">
-        <v>394</v>
-      </c>
-      <c r="D82" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>275</v>
-      </c>
-      <c r="C83" t="s">
-        <v>400</v>
-      </c>
-      <c r="D83" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" t="s">
-        <v>401</v>
-      </c>
-      <c r="D84" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="s">
-        <v>301</v>
-      </c>
-      <c r="C85" t="s">
-        <v>377</v>
-      </c>
-      <c r="D85" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="s">
-        <v>300</v>
-      </c>
-      <c r="C86" t="s">
-        <v>402</v>
-      </c>
-      <c r="D86" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="s">
-        <v>302</v>
-      </c>
-      <c r="C87" t="s">
-        <v>403</v>
-      </c>
-      <c r="D87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>297</v>
-      </c>
-      <c r="C88" t="s">
-        <v>404</v>
-      </c>
-      <c r="D88" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>303</v>
-      </c>
-      <c r="C89" t="s">
-        <v>405</v>
-      </c>
-      <c r="D89" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>294</v>
-      </c>
-      <c r="C90" t="s">
-        <v>401</v>
-      </c>
-      <c r="D90" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="s">
-        <v>281</v>
-      </c>
-      <c r="C91" t="s">
-        <v>379</v>
-      </c>
-      <c r="D91" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" t="s">
-        <v>340</v>
-      </c>
-      <c r="D92" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="s">
-        <v>264</v>
-      </c>
-      <c r="C93" t="s">
-        <v>405</v>
-      </c>
-      <c r="D93" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>304</v>
-      </c>
-      <c r="C94" t="s">
-        <v>406</v>
-      </c>
-      <c r="D94" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>305</v>
-      </c>
-      <c r="C95" t="s">
-        <v>407</v>
-      </c>
-      <c r="D95" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>280</v>
-      </c>
-      <c r="C96" t="s">
-        <v>408</v>
-      </c>
-      <c r="D96" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" t="s">
-        <v>388</v>
-      </c>
-      <c r="D97" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>288</v>
-      </c>
-      <c r="C98" t="s">
-        <v>389</v>
-      </c>
-      <c r="D98" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="s">
-        <v>306</v>
-      </c>
-      <c r="C99" t="s">
-        <v>409</v>
-      </c>
-      <c r="D99" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="s">
-        <v>303</v>
-      </c>
-      <c r="C100" t="s">
-        <v>403</v>
-      </c>
-      <c r="D100" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" t="s">
-        <v>410</v>
-      </c>
-      <c r="D101" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>279</v>
-      </c>
-      <c r="C102" t="s">
-        <v>367</v>
-      </c>
-      <c r="D102" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>307</v>
-      </c>
-      <c r="C103" t="s">
-        <v>354</v>
-      </c>
-      <c r="D103" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="s">
-        <v>264</v>
-      </c>
-      <c r="C104" t="s">
-        <v>406</v>
-      </c>
-      <c r="D104" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
-        <v>308</v>
-      </c>
-      <c r="C105" t="s">
-        <v>376</v>
-      </c>
-      <c r="D105" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="s">
-        <v>309</v>
-      </c>
-      <c r="C106" t="s">
-        <v>411</v>
-      </c>
-      <c r="D106" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="s">
-        <v>290</v>
-      </c>
-      <c r="C107" t="s">
-        <v>383</v>
-      </c>
-      <c r="D107" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="s">
-        <v>310</v>
-      </c>
-      <c r="C108" t="s">
-        <v>412</v>
-      </c>
-      <c r="D108" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="s">
-        <v>304</v>
-      </c>
-      <c r="C109" t="s">
-        <v>404</v>
-      </c>
-      <c r="D109" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="s">
-        <v>311</v>
-      </c>
-      <c r="C110" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="s">
-        <v>260</v>
-      </c>
-      <c r="C111" t="s">
-        <v>394</v>
-      </c>
-      <c r="D111" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="s">
-        <v>268</v>
-      </c>
-      <c r="C112" t="s">
-        <v>404</v>
-      </c>
-      <c r="D112" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="s">
-        <v>312</v>
-      </c>
-      <c r="C113" t="s">
-        <v>354</v>
-      </c>
-      <c r="D113" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" t="s">
-        <v>297</v>
-      </c>
-      <c r="C114" t="s">
-        <v>344</v>
-      </c>
-      <c r="D114" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="s">
-        <v>284</v>
-      </c>
-      <c r="C115" t="s">
-        <v>413</v>
-      </c>
-      <c r="D115" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="s">
-        <v>286</v>
-      </c>
-      <c r="C116" t="s">
-        <v>414</v>
-      </c>
-      <c r="D116" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="s">
-        <v>313</v>
-      </c>
-      <c r="C117" t="s">
-        <v>413</v>
-      </c>
-      <c r="D117" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="s">
-        <v>314</v>
-      </c>
-      <c r="C118" t="s">
-        <v>357</v>
-      </c>
-      <c r="D118" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" t="s">
-        <v>369</v>
-      </c>
-      <c r="D119" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" t="s">
-        <v>315</v>
-      </c>
-      <c r="C120" t="s">
-        <v>391</v>
-      </c>
-      <c r="D120" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" t="s">
-        <v>316</v>
-      </c>
-      <c r="C121" t="s">
-        <v>415</v>
-      </c>
-      <c r="D121" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" t="s">
-        <v>281</v>
-      </c>
-      <c r="C122" t="s">
-        <v>416</v>
-      </c>
-      <c r="D122" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" t="s">
-        <v>317</v>
-      </c>
-      <c r="C123" t="s">
-        <v>397</v>
-      </c>
-      <c r="D123" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" t="s">
-        <v>275</v>
-      </c>
-      <c r="C124" t="s">
-        <v>417</v>
-      </c>
-      <c r="D124" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" t="s">
-        <v>278</v>
-      </c>
-      <c r="C125" t="s">
-        <v>376</v>
-      </c>
-      <c r="D125" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" t="s">
-        <v>318</v>
-      </c>
-      <c r="C126" t="s">
-        <v>378</v>
-      </c>
-      <c r="D126" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" t="s">
-        <v>319</v>
-      </c>
-      <c r="C127" t="s">
-        <v>418</v>
-      </c>
-      <c r="D127" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" t="s">
-        <v>305</v>
-      </c>
-      <c r="C128" t="s">
-        <v>419</v>
-      </c>
-      <c r="D128" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" t="s">
-        <v>301</v>
-      </c>
-      <c r="C129" t="s">
-        <v>349</v>
-      </c>
-      <c r="D129" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" t="s">
-        <v>320</v>
-      </c>
-      <c r="C130" t="s">
-        <v>369</v>
-      </c>
-      <c r="D130" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" t="s">
-        <v>321</v>
-      </c>
-      <c r="C131" t="s">
-        <v>371</v>
-      </c>
-      <c r="D131" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" t="s">
-        <v>322</v>
-      </c>
-      <c r="C132" t="s">
-        <v>408</v>
-      </c>
-      <c r="D132" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" t="s">
-        <v>366</v>
-      </c>
-      <c r="D133" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" t="s">
-        <v>359</v>
-      </c>
-      <c r="D134" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" t="s">
-        <v>323</v>
-      </c>
-      <c r="C135" t="s">
-        <v>420</v>
-      </c>
-      <c r="D135" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" t="s">
-        <v>317</v>
-      </c>
-      <c r="C136" t="s">
-        <v>421</v>
-      </c>
-      <c r="D136" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137" t="s">
-        <v>324</v>
-      </c>
-      <c r="C137" t="s">
-        <v>350</v>
-      </c>
-      <c r="D137" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" t="s">
-        <v>293</v>
-      </c>
-      <c r="C138" t="s">
-        <v>417</v>
-      </c>
-      <c r="D138" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
-      </c>
-      <c r="C139" t="s">
-        <v>405</v>
-      </c>
-      <c r="D139" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" t="s">
-        <v>325</v>
-      </c>
-      <c r="C140" t="s">
-        <v>359</v>
-      </c>
-      <c r="D140" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" t="s">
-        <v>264</v>
-      </c>
-      <c r="C141" t="s">
-        <v>417</v>
-      </c>
-      <c r="D141" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" t="s">
-        <v>316</v>
-      </c>
-      <c r="C142" t="s">
-        <v>422</v>
-      </c>
-      <c r="D142" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" t="s">
-        <v>268</v>
-      </c>
-      <c r="C143" t="s">
-        <v>348</v>
-      </c>
-      <c r="D143" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" t="s">
-        <v>258</v>
-      </c>
-      <c r="C144" t="s">
-        <v>357</v>
-      </c>
-      <c r="D144" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" t="s">
-        <v>277</v>
-      </c>
-      <c r="C145" t="s">
-        <v>397</v>
-      </c>
-      <c r="D145" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" t="s">
-        <v>412</v>
-      </c>
-      <c r="D146" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" t="s">
-        <v>282</v>
-      </c>
-      <c r="C147" t="s">
-        <v>362</v>
-      </c>
-      <c r="D147" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" t="s">
-        <v>306</v>
-      </c>
-      <c r="C148" t="s">
-        <v>359</v>
-      </c>
-      <c r="D148" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" t="s">
-        <v>316</v>
-      </c>
-      <c r="C149" t="s">
-        <v>394</v>
-      </c>
-      <c r="D149" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>152</v>
-      </c>
-      <c r="B150" t="s">
-        <v>260</v>
-      </c>
-      <c r="C150" t="s">
-        <v>423</v>
-      </c>
-      <c r="D150" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" t="s">
-        <v>326</v>
-      </c>
-      <c r="C151" t="s">
-        <v>370</v>
-      </c>
-      <c r="D151" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>154</v>
-      </c>
-      <c r="B152" t="s">
-        <v>259</v>
-      </c>
-      <c r="C152" t="s">
-        <v>424</v>
-      </c>
-      <c r="D152" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" t="s">
-        <v>318</v>
-      </c>
-      <c r="C153" t="s">
-        <v>401</v>
-      </c>
-      <c r="D153" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" t="s">
-        <v>324</v>
-      </c>
-      <c r="C154" t="s">
-        <v>374</v>
-      </c>
-      <c r="D154" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" t="s">
-        <v>267</v>
-      </c>
-      <c r="C155" t="s">
-        <v>425</v>
-      </c>
-      <c r="D155" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" t="s">
-        <v>302</v>
-      </c>
-      <c r="C156" t="s">
-        <v>426</v>
-      </c>
-      <c r="D156" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>159</v>
-      </c>
-      <c r="B157" t="s">
-        <v>259</v>
-      </c>
-      <c r="C157" t="s">
-        <v>427</v>
-      </c>
-      <c r="D157" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>49</v>
-      </c>
-      <c r="B158" t="s">
-        <v>322</v>
-      </c>
-      <c r="C158" t="s">
-        <v>391</v>
-      </c>
-      <c r="D158" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" t="s">
-        <v>293</v>
-      </c>
-      <c r="C159" t="s">
-        <v>373</v>
-      </c>
-      <c r="D159" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" t="s">
-        <v>305</v>
-      </c>
-      <c r="C160" t="s">
-        <v>376</v>
-      </c>
-      <c r="D160" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" t="s">
-        <v>265</v>
-      </c>
-      <c r="C161" t="s">
-        <v>353</v>
-      </c>
-      <c r="D161" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" t="s">
-        <v>256</v>
-      </c>
-      <c r="C162" t="s">
-        <v>359</v>
-      </c>
-      <c r="D162" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" t="s">
-        <v>272</v>
-      </c>
-      <c r="C163" t="s">
-        <v>396</v>
-      </c>
-      <c r="D163" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>165</v>
-      </c>
-      <c r="B164" t="s">
-        <v>327</v>
-      </c>
-      <c r="C164" t="s">
-        <v>428</v>
-      </c>
-      <c r="D164" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" t="s">
-        <v>321</v>
-      </c>
-      <c r="C165" t="s">
-        <v>369</v>
-      </c>
-      <c r="D165" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>167</v>
-      </c>
-      <c r="B166" t="s">
-        <v>274</v>
-      </c>
-      <c r="C166" t="s">
-        <v>412</v>
-      </c>
-      <c r="D166" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" t="s">
-        <v>297</v>
-      </c>
-      <c r="C167" t="s">
-        <v>413</v>
-      </c>
-      <c r="D167" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168" t="s">
-        <v>328</v>
-      </c>
-      <c r="C168" t="s">
-        <v>393</v>
-      </c>
-      <c r="D168" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" t="s">
-        <v>265</v>
-      </c>
-      <c r="C169" t="s">
-        <v>413</v>
-      </c>
-      <c r="D169" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>171</v>
-      </c>
-      <c r="B170" t="s">
-        <v>299</v>
-      </c>
-      <c r="C170" t="s">
-        <v>388</v>
-      </c>
-      <c r="D170" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" t="s">
-        <v>329</v>
-      </c>
-      <c r="C171" t="s">
-        <v>429</v>
-      </c>
-      <c r="D171" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>173</v>
-      </c>
-      <c r="B172" t="s">
-        <v>257</v>
-      </c>
-      <c r="C172" t="s">
-        <v>349</v>
-      </c>
-      <c r="D172" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" t="s">
-        <v>329</v>
-      </c>
-      <c r="C173" t="s">
-        <v>387</v>
-      </c>
-      <c r="D173" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>175</v>
-      </c>
-      <c r="B174" t="s">
-        <v>330</v>
-      </c>
-      <c r="C174" t="s">
-        <v>352</v>
-      </c>
-      <c r="D174" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" t="s">
-        <v>278</v>
-      </c>
-      <c r="C175" t="s">
-        <v>344</v>
-      </c>
-      <c r="D175" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>177</v>
-      </c>
-      <c r="B176" t="s">
-        <v>262</v>
-      </c>
-      <c r="C176" t="s">
-        <v>430</v>
-      </c>
-      <c r="D176" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>178</v>
-      </c>
-      <c r="B177" t="s">
-        <v>286</v>
-      </c>
-      <c r="C177" t="s">
-        <v>371</v>
-      </c>
-      <c r="D177" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" t="s">
-        <v>255</v>
-      </c>
-      <c r="C178" t="s">
-        <v>363</v>
-      </c>
-      <c r="D178" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>180</v>
-      </c>
-      <c r="B179" t="s">
-        <v>283</v>
-      </c>
-      <c r="C179" t="s">
-        <v>431</v>
-      </c>
-      <c r="D179" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>181</v>
-      </c>
-      <c r="B180" t="s">
-        <v>305</v>
-      </c>
-      <c r="C180" t="s">
-        <v>369</v>
-      </c>
-      <c r="D180" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>182</v>
-      </c>
-      <c r="B181" t="s">
-        <v>286</v>
-      </c>
-      <c r="C181" t="s">
-        <v>359</v>
-      </c>
-      <c r="D181" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>183</v>
-      </c>
-      <c r="B182" t="s">
-        <v>275</v>
-      </c>
-      <c r="C182" t="s">
-        <v>378</v>
-      </c>
-      <c r="D182" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>184</v>
-      </c>
-      <c r="B183" t="s">
-        <v>322</v>
-      </c>
-      <c r="C183" t="s">
-        <v>400</v>
-      </c>
-      <c r="D183" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>185</v>
-      </c>
-      <c r="B184" t="s">
-        <v>326</v>
-      </c>
-      <c r="C184" t="s">
-        <v>383</v>
-      </c>
-      <c r="D184" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>186</v>
-      </c>
-      <c r="B185" t="s">
-        <v>268</v>
-      </c>
-      <c r="C185" t="s">
-        <v>432</v>
-      </c>
-      <c r="D185" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" t="s">
-        <v>307</v>
-      </c>
-      <c r="C186" t="s">
-        <v>433</v>
-      </c>
-      <c r="D186" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>188</v>
-      </c>
-      <c r="B187" t="s">
-        <v>267</v>
-      </c>
-      <c r="C187" t="s">
-        <v>434</v>
-      </c>
-      <c r="D187" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>189</v>
-      </c>
-      <c r="B188" t="s">
-        <v>269</v>
-      </c>
-      <c r="C188" t="s">
-        <v>409</v>
-      </c>
-      <c r="D188" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>190</v>
-      </c>
-      <c r="B189" t="s">
-        <v>269</v>
-      </c>
-      <c r="C189" t="s">
-        <v>389</v>
-      </c>
-      <c r="D189" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>191</v>
-      </c>
-      <c r="B190" t="s">
-        <v>301</v>
-      </c>
-      <c r="C190" t="s">
-        <v>351</v>
-      </c>
-      <c r="D190" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>192</v>
-      </c>
-      <c r="B191" t="s">
-        <v>331</v>
-      </c>
-      <c r="C191" t="s">
-        <v>393</v>
-      </c>
-      <c r="D191" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>193</v>
-      </c>
-      <c r="B192" t="s">
-        <v>259</v>
-      </c>
-      <c r="C192" t="s">
-        <v>406</v>
-      </c>
-      <c r="D192" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>194</v>
-      </c>
-      <c r="B193" t="s">
-        <v>258</v>
-      </c>
-      <c r="C193" t="s">
-        <v>356</v>
-      </c>
-      <c r="D193" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>195</v>
-      </c>
-      <c r="B194" t="s">
-        <v>314</v>
-      </c>
-      <c r="C194" t="s">
-        <v>411</v>
-      </c>
-      <c r="D194" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>196</v>
-      </c>
-      <c r="B195" t="s">
-        <v>328</v>
-      </c>
-      <c r="C195" t="s">
-        <v>395</v>
-      </c>
-      <c r="D195" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>197</v>
-      </c>
-      <c r="B196" t="s">
-        <v>269</v>
-      </c>
-      <c r="C196" t="s">
-        <v>394</v>
-      </c>
-      <c r="D196" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>198</v>
-      </c>
-      <c r="B197" t="s">
-        <v>332</v>
-      </c>
-      <c r="C197" t="s">
-        <v>435</v>
-      </c>
-      <c r="D197" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>199</v>
-      </c>
-      <c r="B198" t="s">
-        <v>333</v>
-      </c>
-      <c r="C198" t="s">
-        <v>436</v>
-      </c>
-      <c r="D198" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" t="s">
-        <v>272</v>
-      </c>
-      <c r="C199" t="s">
-        <v>407</v>
-      </c>
-      <c r="D199" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>201</v>
-      </c>
-      <c r="B200" t="s">
-        <v>260</v>
-      </c>
-      <c r="C200" t="s">
-        <v>437</v>
-      </c>
-      <c r="D200" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>202</v>
-      </c>
-      <c r="B201" t="s">
-        <v>334</v>
-      </c>
-      <c r="C201" t="s">
-        <v>438</v>
-      </c>
-      <c r="D201" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>203</v>
-      </c>
-      <c r="B202" t="s">
-        <v>335</v>
-      </c>
-      <c r="C202" t="s">
-        <v>416</v>
-      </c>
-      <c r="D202" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>204</v>
-      </c>
-      <c r="B203" t="s">
-        <v>267</v>
-      </c>
-      <c r="C203" t="s">
-        <v>353</v>
-      </c>
-      <c r="D203" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>205</v>
-      </c>
-      <c r="B204" t="s">
-        <v>264</v>
-      </c>
-      <c r="C204" t="s">
-        <v>387</v>
-      </c>
-      <c r="D204" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>206</v>
-      </c>
-      <c r="B205" t="s">
-        <v>257</v>
-      </c>
-      <c r="C205" t="s">
-        <v>425</v>
-      </c>
-      <c r="D205" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>207</v>
-      </c>
-      <c r="B206" t="s">
-        <v>336</v>
-      </c>
-      <c r="C206" t="s">
-        <v>406</v>
-      </c>
-      <c r="D206" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>208</v>
-      </c>
-      <c r="B207" t="s">
-        <v>297</v>
-      </c>
-      <c r="C207" t="s">
-        <v>437</v>
-      </c>
-      <c r="D207" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>209</v>
-      </c>
-      <c r="B208" t="s">
-        <v>327</v>
-      </c>
-      <c r="C208" t="s">
-        <v>413</v>
-      </c>
-      <c r="D208" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>210</v>
-      </c>
-      <c r="B209" t="s">
-        <v>316</v>
-      </c>
-      <c r="C209" t="s">
-        <v>424</v>
-      </c>
-      <c r="D209" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>211</v>
-      </c>
-      <c r="B210" t="s">
-        <v>278</v>
-      </c>
-      <c r="C210" t="s">
-        <v>342</v>
-      </c>
-      <c r="D210" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>212</v>
-      </c>
-      <c r="B211" t="s">
-        <v>336</v>
-      </c>
-      <c r="C211" t="s">
-        <v>354</v>
-      </c>
-      <c r="D211" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
-        <v>213</v>
-      </c>
-      <c r="B212" t="s">
-        <v>274</v>
-      </c>
-      <c r="C212" t="s">
-        <v>383</v>
-      </c>
-      <c r="D212" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
-        <v>214</v>
-      </c>
-      <c r="B213" t="s">
-        <v>328</v>
-      </c>
-      <c r="C213" t="s">
-        <v>362</v>
-      </c>
-      <c r="D213" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>215</v>
-      </c>
-      <c r="B214" t="s">
-        <v>257</v>
-      </c>
-      <c r="C214" t="s">
-        <v>344</v>
-      </c>
-      <c r="D214" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>216</v>
-      </c>
-      <c r="B215" t="s">
-        <v>319</v>
-      </c>
-      <c r="C215" t="s">
-        <v>395</v>
-      </c>
-      <c r="D215" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>217</v>
-      </c>
-      <c r="B216" t="s">
-        <v>299</v>
-      </c>
-      <c r="C216" t="s">
-        <v>365</v>
-      </c>
-      <c r="D216" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>218</v>
-      </c>
-      <c r="B217" t="s">
-        <v>328</v>
-      </c>
-      <c r="C217" t="s">
-        <v>413</v>
-      </c>
-      <c r="D217" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>219</v>
-      </c>
-      <c r="B218" t="s">
-        <v>305</v>
-      </c>
-      <c r="C218" t="s">
-        <v>366</v>
-      </c>
-      <c r="D218" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
-        <v>220</v>
-      </c>
-      <c r="B219" t="s">
-        <v>300</v>
-      </c>
-      <c r="C219" t="s">
-        <v>412</v>
-      </c>
-      <c r="D219" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>221</v>
-      </c>
-      <c r="B220" t="s">
-        <v>296</v>
-      </c>
-      <c r="C220" t="s">
-        <v>395</v>
-      </c>
-      <c r="D220" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
-        <v>222</v>
-      </c>
-      <c r="B221" t="s">
-        <v>337</v>
-      </c>
-      <c r="C221" t="s">
-        <v>374</v>
-      </c>
-      <c r="D221" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>223</v>
-      </c>
-      <c r="B222" t="s">
-        <v>268</v>
-      </c>
-      <c r="C222" t="s">
-        <v>387</v>
-      </c>
-      <c r="D222" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>224</v>
-      </c>
-      <c r="B223" t="s">
-        <v>305</v>
-      </c>
-      <c r="C223" t="s">
-        <v>439</v>
-      </c>
-      <c r="D223" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>225</v>
-      </c>
-      <c r="B224" t="s">
-        <v>270</v>
-      </c>
-      <c r="C224" t="s">
-        <v>404</v>
-      </c>
-      <c r="D224" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>226</v>
-      </c>
-      <c r="B225" t="s">
-        <v>259</v>
-      </c>
-      <c r="C225" t="s">
-        <v>403</v>
-      </c>
-      <c r="D225" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>227</v>
-      </c>
-      <c r="B226" t="s">
-        <v>313</v>
-      </c>
-      <c r="C226" t="s">
-        <v>394</v>
-      </c>
-      <c r="D226" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>228</v>
-      </c>
-      <c r="B227" t="s">
-        <v>322</v>
-      </c>
-      <c r="C227" t="s">
-        <v>414</v>
-      </c>
-      <c r="D227" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>229</v>
-      </c>
-      <c r="B228" t="s">
-        <v>319</v>
-      </c>
-      <c r="C228" t="s">
-        <v>366</v>
-      </c>
-      <c r="D228" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>230</v>
-      </c>
-      <c r="B229" t="s">
-        <v>330</v>
-      </c>
-      <c r="C229" t="s">
-        <v>392</v>
-      </c>
-      <c r="D229" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>231</v>
-      </c>
-      <c r="B230" t="s">
-        <v>296</v>
-      </c>
-      <c r="C230" t="s">
-        <v>378</v>
-      </c>
-      <c r="D230" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
-        <v>232</v>
-      </c>
-      <c r="B231" t="s">
-        <v>327</v>
-      </c>
-      <c r="C231" t="s">
-        <v>379</v>
-      </c>
-      <c r="D231" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>233</v>
-      </c>
-      <c r="B232" t="s">
-        <v>280</v>
-      </c>
-      <c r="C232" t="s">
-        <v>353</v>
-      </c>
-      <c r="D232" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
-        <v>234</v>
-      </c>
-      <c r="B233" t="s">
-        <v>305</v>
-      </c>
-      <c r="C233" t="s">
-        <v>388</v>
-      </c>
-      <c r="D233" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
-        <v>235</v>
-      </c>
-      <c r="B234" t="s">
-        <v>297</v>
-      </c>
-      <c r="C234" t="s">
-        <v>429</v>
-      </c>
-      <c r="D234" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
-        <v>236</v>
-      </c>
-      <c r="B235" t="s">
-        <v>301</v>
-      </c>
-      <c r="C235" t="s">
-        <v>355</v>
-      </c>
-      <c r="D235" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
-        <v>237</v>
-      </c>
-      <c r="B236" t="s">
-        <v>316</v>
-      </c>
-      <c r="C236" t="s">
-        <v>352</v>
-      </c>
-      <c r="D236" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
-        <v>238</v>
-      </c>
-      <c r="B237" t="s">
-        <v>321</v>
-      </c>
-      <c r="C237" t="s">
-        <v>380</v>
-      </c>
-      <c r="D237" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
-        <v>239</v>
-      </c>
-      <c r="B238" t="s">
-        <v>320</v>
-      </c>
-      <c r="C238" t="s">
-        <v>426</v>
-      </c>
-      <c r="D238" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
-        <v>240</v>
-      </c>
-      <c r="B239" t="s">
-        <v>295</v>
-      </c>
-      <c r="C239" t="s">
-        <v>413</v>
-      </c>
-      <c r="D239" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
-        <v>241</v>
-      </c>
-      <c r="B240" t="s">
-        <v>285</v>
-      </c>
-      <c r="C240" t="s">
-        <v>409</v>
-      </c>
-      <c r="D240" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>242</v>
-      </c>
-      <c r="B241" t="s">
-        <v>261</v>
-      </c>
-      <c r="C241" t="s">
-        <v>366</v>
-      </c>
-      <c r="D241" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>243</v>
-      </c>
-      <c r="B242" t="s">
-        <v>258</v>
-      </c>
-      <c r="C242" t="s">
-        <v>432</v>
-      </c>
-      <c r="D242" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>244</v>
-      </c>
-      <c r="B243" t="s">
-        <v>281</v>
-      </c>
-      <c r="C243" t="s">
-        <v>347</v>
-      </c>
-      <c r="D243" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
-        <v>245</v>
-      </c>
-      <c r="B244" t="s">
-        <v>295</v>
-      </c>
-      <c r="C244" t="s">
-        <v>359</v>
-      </c>
-      <c r="D244" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
-        <v>246</v>
-      </c>
-      <c r="B245" t="s">
-        <v>263</v>
-      </c>
-      <c r="C245" t="s">
-        <v>431</v>
-      </c>
-      <c r="D245" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>247</v>
-      </c>
-      <c r="B246" t="s">
-        <v>338</v>
-      </c>
-      <c r="C246" t="s">
-        <v>357</v>
-      </c>
-      <c r="D246" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
-        <v>248</v>
-      </c>
-      <c r="B247" t="s">
-        <v>286</v>
-      </c>
-      <c r="C247" t="s">
-        <v>390</v>
-      </c>
-      <c r="D247" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
-        <v>249</v>
-      </c>
-      <c r="B248" t="s">
-        <v>339</v>
-      </c>
-      <c r="C248" t="s">
-        <v>396</v>
-      </c>
-      <c r="D248" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
-        <v>250</v>
-      </c>
-      <c r="B249" t="s">
-        <v>306</v>
-      </c>
-      <c r="C249" t="s">
-        <v>440</v>
-      </c>
-      <c r="D249" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
-        <v>251</v>
-      </c>
-      <c r="B250" t="s">
-        <v>266</v>
-      </c>
-      <c r="C250" t="s">
-        <v>399</v>
-      </c>
-      <c r="D250" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
-        <v>252</v>
-      </c>
-      <c r="B251" t="s">
-        <v>300</v>
-      </c>
-      <c r="C251" t="s">
-        <v>355</v>
-      </c>
-      <c r="D251" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="455">
   <si>
     <t>film_name</t>
   </si>
@@ -116,33 +116,33 @@
     <t>Star Wars: Episódio IV - Uma Nova Esperança</t>
   </si>
   <si>
+    <t>De Volta para o Futuro</t>
+  </si>
+  <si>
+    <t>A Viagem de Chihiro</t>
+  </si>
+  <si>
+    <t>O Pianista</t>
+  </si>
+  <si>
+    <t>Parasita</t>
+  </si>
+  <si>
+    <t>Psicose</t>
+  </si>
+  <si>
     <t>Duna: Parte 2</t>
   </si>
   <si>
-    <t>De Volta para o Futuro</t>
-  </si>
-  <si>
-    <t>A Viagem de Chihiro</t>
-  </si>
-  <si>
-    <t>O Pianista</t>
-  </si>
-  <si>
-    <t>Parasita</t>
-  </si>
-  <si>
-    <t>Psicose</t>
-  </si>
-  <si>
     <t>Gladiador</t>
   </si>
   <si>
+    <t>O Rei Leão</t>
+  </si>
+  <si>
     <t>Homem-Aranha: Através do Aranhaverso</t>
   </si>
   <si>
-    <t>O Rei Leão</t>
-  </si>
-  <si>
     <t>Os Infiltrados</t>
   </si>
   <si>
@@ -203,12 +203,12 @@
     <t>WALL·E</t>
   </si>
   <si>
+    <t>Os Caçadores da Arca Perdida</t>
+  </si>
+  <si>
     <t>Repetente</t>
   </si>
   <si>
-    <t>Os Caçadores da Arca Perdida</t>
-  </si>
-  <si>
     <t>A Vida dos Outros</t>
   </si>
   <si>
@@ -242,10 +242,13 @@
     <t>Batman: O Cavaleiro das Trevas Ressurge</t>
   </si>
   <si>
+    <t>Viva: A Vida é uma Festa</t>
+  </si>
+  <si>
     <t>Dr. Fantástico</t>
   </si>
   <si>
-    <t>Viva - A Vida é uma Festa</t>
+    <t>Amadeus</t>
   </si>
   <si>
     <t>Oldboy</t>
@@ -254,10 +257,7 @@
     <t>Beleza Americana</t>
   </si>
   <si>
-    <t>Amadeus</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
+    <t>Toy Story: Um Mundo de Aventuras</t>
   </si>
   <si>
     <t>Vingadores: Ultimato</t>
@@ -284,12 +284,12 @@
     <t>Céu e Inferno</t>
   </si>
   <si>
+    <t>3 Idiotas</t>
+  </si>
+  <si>
     <t>Era uma Vez na América</t>
   </si>
   <si>
-    <t>3 Idiotas</t>
-  </si>
-  <si>
     <t>Cantando na Chuva</t>
   </si>
   <si>
@@ -323,12 +323,12 @@
     <t>Viver</t>
   </si>
   <si>
+    <t>Lawrence da Arábia</t>
+  </si>
+  <si>
     <t>Oppenheimer</t>
   </si>
   <si>
-    <t>Lawrence da Arábia</t>
-  </si>
-  <si>
     <t>Se Meu Apartamento Falasse</t>
   </si>
   <si>
@@ -341,12 +341,12 @@
     <t>Cidadão Kane</t>
   </si>
   <si>
+    <t>Scarface</t>
+  </si>
+  <si>
     <t>M, o Vampiro de Dusseldorf</t>
   </si>
   <si>
-    <t>Scarface</t>
-  </si>
-  <si>
     <t>Pacto de Sangue</t>
   </si>
   <si>
@@ -392,18 +392,18 @@
     <t>Snatch - Porcos e Diamantes</t>
   </si>
   <si>
+    <t>1917</t>
+  </si>
+  <si>
     <t>Los Angeles: Cidade Proibida</t>
   </si>
   <si>
-    <t>1917</t>
+    <t>Ladrões de Bicicletas</t>
   </si>
   <si>
     <t>Hamilton</t>
   </si>
   <si>
-    <t>Ladrões de Bicicletas</t>
-  </si>
-  <si>
     <t>Taxi Driver: Motorista de Táxi</t>
   </si>
   <si>
@@ -455,7 +455,7 @@
     <t>Cassino</t>
   </si>
   <si>
-    <t>Jurassic Park: O Parque dos Dinossauros</t>
+    <t>Jurassic Park - O Parque dos Dinossauros</t>
   </si>
   <si>
     <t>Ran</t>
@@ -557,12 +557,12 @@
     <t>Gran Torino</t>
   </si>
   <si>
+    <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
+  </si>
+  <si>
     <t>Menina de Ouro</t>
   </si>
   <si>
-    <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
-  </si>
-  <si>
     <t>Meu Amigo Totoro</t>
   </si>
   <si>
@@ -581,42 +581,42 @@
     <t>Antes do Amanhecer</t>
   </si>
   <si>
+    <t>Barry Lyndon</t>
+  </si>
+  <si>
+    <t>Mad Max: Estrada da Fúria</t>
+  </si>
+  <si>
     <t>O Grande Hotel Budapeste</t>
   </si>
   <si>
-    <t>Barry Lyndon</t>
-  </si>
-  <si>
-    <t>Mad Max: Estrada da Fúria</t>
-  </si>
-  <si>
     <t>Garota Exemplar</t>
   </si>
   <si>
     <t>Até o Último Homem</t>
   </si>
   <si>
+    <t>Sociedade dos Poetas Mortos</t>
+  </si>
+  <si>
     <t>Em Busca do Ouro</t>
   </si>
   <si>
-    <t>Sociedade dos Poetas Mortos</t>
-  </si>
-  <si>
     <t>Memórias de um Assassino</t>
   </si>
   <si>
     <t>Em Nome do Pai</t>
   </si>
   <si>
+    <t>Monstros S.A.</t>
+  </si>
+  <si>
     <t>Relatos Selvagens</t>
   </si>
   <si>
     <t>O Franco Atirador</t>
   </si>
   <si>
-    <t>Monstros S.A.</t>
-  </si>
-  <si>
     <t>A General</t>
   </si>
   <si>
@@ -626,10 +626,16 @@
     <t>Bancando o Águia</t>
   </si>
   <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
     <t>Como Treinar o Seu Dragão</t>
   </si>
   <si>
-    <t>Tubarão</t>
+    <t>Mary e Max - Uma Amizade Diferente</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
   </si>
   <si>
     <t>O 3º Homem</t>
@@ -638,15 +644,9 @@
     <t>O Salário do Medo</t>
   </si>
   <si>
-    <t>Mary e Max - Uma Amizade Diferente</t>
-  </si>
-  <si>
     <t>Morangos Silvestres</t>
   </si>
   <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
     <t>A Mulher Faz o Homem</t>
   </si>
   <si>
@@ -659,15 +659,15 @@
     <t>O Grande Lebowski</t>
   </si>
   <si>
+    <t>Rocky, um Lutador</t>
+  </si>
+  <si>
+    <t>O Sétimo Selo</t>
+  </si>
+  <si>
     <t>O Quarto de Jack</t>
   </si>
   <si>
-    <t>O Sétimo Selo</t>
-  </si>
-  <si>
-    <t>Rocky, um Lutador</t>
-  </si>
-  <si>
     <t>Logan</t>
   </si>
   <si>
@@ -692,18 +692,18 @@
     <t>Antes do Pôr do Sol</t>
   </si>
   <si>
+    <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
+  </si>
+  <si>
     <t>Os Melhores Anos de Nossa Vida</t>
   </si>
   <si>
-    <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
+    <t>Jai Bhim</t>
   </si>
   <si>
     <t>O Exorcista</t>
   </si>
   <si>
-    <t>Jai Bhim</t>
-  </si>
-  <si>
     <t>Rush: No Limite da Emoção</t>
   </si>
   <si>
@@ -722,15 +722,15 @@
     <t>Sempre ao Seu Lado</t>
   </si>
   <si>
+    <t>A Noviça Rebelde</t>
+  </si>
+  <si>
+    <t>A Criada</t>
+  </si>
+  <si>
     <t>Meu Pai e Meu Filho</t>
   </si>
   <si>
-    <t>A Criada</t>
-  </si>
-  <si>
-    <t>A Noviça Rebelde</t>
-  </si>
-  <si>
     <t>Na Natureza Selvagem</t>
   </si>
   <si>
@@ -740,12 +740,12 @@
     <t>A Batalha de Argel</t>
   </si>
   <si>
+    <t>Feitiço do Tempo</t>
+  </si>
+  <si>
     <t>As Vinhas da Ira</t>
   </si>
   <si>
-    <t>Feitiço do Tempo</t>
-  </si>
-  <si>
     <t>Amores Brutos</t>
   </si>
   <si>
@@ -764,16 +764,16 @@
     <t>Aconteceu Naquela Noite</t>
   </si>
   <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
     <t>A Chantagem</t>
   </si>
   <si>
     <t>Dança com Lobos</t>
   </si>
   <si>
-    <t>Aladdin</t>
-  </si>
-  <si>
-    <t>Gangues de Wasseypur</t>
+    <t>Paris, Texas</t>
   </si>
   <si>
     <t>1994</t>
@@ -845,18 +845,18 @@
     <t>1977</t>
   </si>
   <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -911,12 +911,12 @@
     <t>2009</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>1964</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>1984</t>
   </si>
   <si>
@@ -968,12 +968,12 @@
     <t>1927</t>
   </si>
   <si>
+    <t>1948</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>1948</t>
-  </si>
-  <si>
     <t>1976</t>
   </si>
   <si>
@@ -1115,30 +1115,30 @@
     <t>2h 1m</t>
   </si>
   <si>
+    <t>2h 5m</t>
+  </si>
+  <si>
+    <t>2h 30m</t>
+  </si>
+  <si>
+    <t>2h 12m</t>
+  </si>
+  <si>
+    <t>1h 49m</t>
+  </si>
+  <si>
     <t>2h 46m</t>
   </si>
   <si>
-    <t>2h 5m</t>
-  </si>
-  <si>
-    <t>2h 30m</t>
-  </si>
-  <si>
-    <t>2h 12m</t>
-  </si>
-  <si>
-    <t>1h 49m</t>
-  </si>
-  <si>
     <t>2h 35m</t>
   </si>
   <si>
+    <t>1h 28m</t>
+  </si>
+  <si>
     <t>2h 20m</t>
   </si>
   <si>
-    <t>1h 28m</t>
-  </si>
-  <si>
     <t>2h 31m</t>
   </si>
   <si>
@@ -1196,10 +1196,13 @@
     <t>2h 44m</t>
   </si>
   <si>
+    <t>1h 45m</t>
+  </si>
+  <si>
     <t>1h 35m</t>
   </si>
   <si>
-    <t>1h 45m</t>
+    <t>2h 40m</t>
   </si>
   <si>
     <t>2h</t>
@@ -1208,9 +1211,6 @@
     <t>2h 2m</t>
   </si>
   <si>
-    <t>2h 40m</t>
-  </si>
-  <si>
     <t>1h 21m</t>
   </si>
   <si>
@@ -1226,12 +1226,12 @@
     <t>2h 23m</t>
   </si>
   <si>
+    <t>2h 50m</t>
+  </si>
+  <si>
     <t>3h 49m</t>
   </si>
   <si>
-    <t>2h 50m</t>
-  </si>
-  <si>
     <t>1h 43m</t>
   </si>
   <si>
@@ -1244,12 +1244,12 @@
     <t>1h 39m</t>
   </si>
   <si>
+    <t>3h 38m</t>
+  </si>
+  <si>
     <t>3h</t>
   </si>
   <si>
-    <t>3h 38m</t>
-  </si>
-  <si>
     <t>1h 47m</t>
   </si>
   <si>
@@ -1322,12 +1322,12 @@
     <t>3h 5m</t>
   </si>
   <si>
+    <t>1h 32m</t>
+  </si>
+  <si>
     <t>3h 3m</t>
   </si>
   <si>
-    <t>1h 32m</t>
-  </si>
-  <si>
     <t>1h 18m</t>
   </si>
   <si>
@@ -1337,13 +1337,10 @@
     <t>1h 20m</t>
   </si>
   <si>
+    <t>1h 30m</t>
+  </si>
+  <si>
     <t>2h 43m</t>
-  </si>
-  <si>
-    <t>1h 30m</t>
-  </si>
-  <si>
-    <t>5h 21m</t>
   </si>
   <si>
     <t>9.3</t>
@@ -1771,7 +1768,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1785,7 +1782,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1799,7 +1796,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1813,7 +1810,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1827,7 +1824,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1841,7 +1838,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1855,7 +1852,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1869,7 +1866,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1883,7 +1880,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1897,7 +1894,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1911,7 +1908,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1925,7 +1922,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1939,7 +1936,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1953,7 +1950,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1967,7 +1964,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1981,7 +1978,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1995,7 +1992,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2009,7 +2006,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2023,7 +2020,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2037,7 +2034,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2051,7 +2048,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2065,7 +2062,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2079,7 +2076,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2093,7 +2090,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2107,7 +2104,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2121,7 +2118,7 @@
         <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2135,7 +2132,7 @@
         <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2149,7 +2146,7 @@
         <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2163,7 +2160,7 @@
         <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2174,7 +2171,7 @@
         <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D31" t="s">
         <v>449</v>
@@ -2185,13 +2182,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2199,7 +2196,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C33" t="s">
         <v>367</v>
@@ -2213,13 +2210,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C34" t="s">
         <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2233,7 +2230,7 @@
         <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2247,7 +2244,7 @@
         <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2261,7 +2258,7 @@
         <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2269,7 +2266,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="C38" t="s">
         <v>372</v>
@@ -2283,13 +2280,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
         <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2303,7 +2300,7 @@
         <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2317,7 +2314,7 @@
         <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2331,7 +2328,7 @@
         <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2345,7 +2342,7 @@
         <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2359,7 +2356,7 @@
         <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2373,7 +2370,7 @@
         <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2387,7 +2384,7 @@
         <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2401,7 +2398,7 @@
         <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2415,7 +2412,7 @@
         <v>379</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2429,7 +2426,7 @@
         <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2443,7 +2440,7 @@
         <v>381</v>
       </c>
       <c r="D50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2457,7 +2454,7 @@
         <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2471,7 +2468,7 @@
         <v>380</v>
       </c>
       <c r="D52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2482,10 +2479,10 @@
         <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2499,7 +2496,7 @@
         <v>383</v>
       </c>
       <c r="D54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2513,7 +2510,7 @@
         <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2527,7 +2524,7 @@
         <v>384</v>
       </c>
       <c r="D56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2541,7 +2538,7 @@
         <v>385</v>
       </c>
       <c r="D57" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2555,7 +2552,7 @@
         <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2569,7 +2566,7 @@
         <v>387</v>
       </c>
       <c r="D59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2577,13 +2574,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D60" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2591,13 +2588,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D61" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2611,7 +2608,7 @@
         <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2625,7 +2622,7 @@
         <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2639,7 +2636,7 @@
         <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2650,10 +2647,10 @@
         <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2667,7 +2664,7 @@
         <v>383</v>
       </c>
       <c r="D66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2681,7 +2678,7 @@
         <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2695,7 +2692,7 @@
         <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2706,10 +2703,10 @@
         <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2723,7 +2720,7 @@
         <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2737,7 +2734,7 @@
         <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2751,7 +2748,7 @@
         <v>392</v>
       </c>
       <c r="D72" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2765,7 +2762,7 @@
         <v>393</v>
       </c>
       <c r="D73" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2787,13 +2784,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
         <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2801,13 +2798,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
         <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2815,7 +2812,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s">
         <v>397</v>
@@ -2835,7 +2832,7 @@
         <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2843,13 +2840,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C79" t="s">
         <v>399</v>
       </c>
       <c r="D79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2863,7 +2860,7 @@
         <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2877,7 +2874,7 @@
         <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2891,7 +2888,7 @@
         <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2905,7 +2902,7 @@
         <v>401</v>
       </c>
       <c r="D83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2913,13 +2910,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D84" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2933,7 +2930,7 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2947,7 +2944,7 @@
         <v>402</v>
       </c>
       <c r="D86" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2955,13 +2952,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C87" t="s">
         <v>403</v>
       </c>
       <c r="D87" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2969,7 +2966,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C88" t="s">
         <v>404</v>
@@ -2989,7 +2986,7 @@
         <v>405</v>
       </c>
       <c r="D89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3003,7 +3000,7 @@
         <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3011,13 +3008,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C91" t="s">
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3031,7 +3028,7 @@
         <v>379</v>
       </c>
       <c r="D92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3045,7 +3042,7 @@
         <v>405</v>
       </c>
       <c r="D93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3059,7 +3056,7 @@
         <v>406</v>
       </c>
       <c r="D94" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3073,7 +3070,7 @@
         <v>407</v>
       </c>
       <c r="D95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3087,7 +3084,7 @@
         <v>388</v>
       </c>
       <c r="D96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3101,7 +3098,7 @@
         <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3115,7 +3112,7 @@
         <v>408</v>
       </c>
       <c r="D98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3129,7 +3126,7 @@
         <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3137,13 +3134,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C100" t="s">
         <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3151,13 +3148,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C101" t="s">
         <v>410</v>
       </c>
       <c r="D101" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3165,13 +3162,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D102" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3185,7 +3182,7 @@
         <v>406</v>
       </c>
       <c r="D103" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3199,7 +3196,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3213,7 +3210,7 @@
         <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3221,13 +3218,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C106" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3235,13 +3232,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C107" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D107" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3255,7 +3252,7 @@
         <v>411</v>
       </c>
       <c r="D108" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3269,7 +3266,7 @@
         <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3283,7 +3280,7 @@
         <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3294,10 +3291,10 @@
         <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3308,10 +3305,10 @@
         <v>268</v>
       </c>
       <c r="C112" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3325,7 +3322,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3339,7 +3336,7 @@
         <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3353,7 +3350,7 @@
         <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3367,7 +3364,7 @@
         <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3381,7 +3378,7 @@
         <v>413</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3395,7 +3392,7 @@
         <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3406,10 +3403,10 @@
         <v>283</v>
       </c>
       <c r="C119" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3423,7 +3420,7 @@
         <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3437,7 +3434,7 @@
         <v>391</v>
       </c>
       <c r="D121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3451,7 +3448,7 @@
         <v>416</v>
       </c>
       <c r="D122" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3459,13 +3456,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3473,13 +3470,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3490,10 +3487,10 @@
         <v>317</v>
       </c>
       <c r="C125" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D125" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3504,10 +3501,10 @@
         <v>318</v>
       </c>
       <c r="C126" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="D126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3521,7 +3518,7 @@
         <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3535,7 +3532,7 @@
         <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3549,7 +3546,7 @@
         <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3560,10 +3557,10 @@
         <v>320</v>
       </c>
       <c r="C130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3574,10 +3571,10 @@
         <v>321</v>
       </c>
       <c r="C131" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3588,10 +3585,10 @@
         <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D132" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3605,7 +3602,7 @@
         <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3619,7 +3616,7 @@
         <v>359</v>
       </c>
       <c r="D134" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3633,7 +3630,7 @@
         <v>420</v>
       </c>
       <c r="D135" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3641,13 +3638,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C136" t="s">
         <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3661,7 +3658,7 @@
         <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3675,7 +3672,7 @@
         <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3689,7 +3686,7 @@
         <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3703,7 +3700,7 @@
         <v>417</v>
       </c>
       <c r="D140" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3717,7 +3714,7 @@
         <v>359</v>
       </c>
       <c r="D141" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3731,7 +3728,7 @@
         <v>422</v>
       </c>
       <c r="D142" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3745,7 +3742,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3759,7 +3756,7 @@
         <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3767,13 +3764,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C145" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D145" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3787,7 +3784,7 @@
         <v>411</v>
       </c>
       <c r="D146" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3801,7 +3798,7 @@
         <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3815,7 +3812,7 @@
         <v>359</v>
       </c>
       <c r="D148" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3826,10 +3823,10 @@
         <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3843,7 +3840,7 @@
         <v>423</v>
       </c>
       <c r="D150" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3854,10 +3851,10 @@
         <v>326</v>
       </c>
       <c r="C151" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D151" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3871,7 +3868,7 @@
         <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3879,13 +3876,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C153" t="s">
         <v>400</v>
       </c>
       <c r="D153" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3899,7 +3896,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3913,7 +3910,7 @@
         <v>425</v>
       </c>
       <c r="D155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3927,7 +3924,7 @@
         <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3941,7 +3938,7 @@
         <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3955,7 +3952,7 @@
         <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3969,7 +3966,7 @@
         <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3980,10 +3977,10 @@
         <v>293</v>
       </c>
       <c r="C160" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D160" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3997,7 +3994,7 @@
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4008,10 +4005,10 @@
         <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D162" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4025,7 +4022,7 @@
         <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4039,7 +4036,7 @@
         <v>428</v>
       </c>
       <c r="D164" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4053,7 +4050,7 @@
         <v>411</v>
       </c>
       <c r="D165" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4064,10 +4061,10 @@
         <v>321</v>
       </c>
       <c r="C166" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D166" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4081,7 +4078,7 @@
         <v>413</v>
       </c>
       <c r="D167" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4092,10 +4089,10 @@
         <v>328</v>
       </c>
       <c r="C168" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D168" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4109,7 +4106,7 @@
         <v>413</v>
       </c>
       <c r="D169" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4117,13 +4114,13 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C170" t="s">
         <v>388</v>
       </c>
       <c r="D170" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4137,7 +4134,7 @@
         <v>429</v>
       </c>
       <c r="D171" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4151,7 +4148,7 @@
         <v>349</v>
       </c>
       <c r="D172" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4159,13 +4156,13 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C173" t="s">
         <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4179,7 +4176,7 @@
         <v>387</v>
       </c>
       <c r="D174" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4193,7 +4190,7 @@
         <v>430</v>
       </c>
       <c r="D175" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4207,7 +4204,7 @@
         <v>352</v>
       </c>
       <c r="D176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4218,10 +4215,10 @@
         <v>286</v>
       </c>
       <c r="C177" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D177" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4235,7 +4232,7 @@
         <v>362</v>
       </c>
       <c r="D178" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4243,13 +4240,13 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C179" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4257,13 +4254,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C180" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D180" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4277,7 +4274,7 @@
         <v>431</v>
       </c>
       <c r="D181" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4291,7 +4288,7 @@
         <v>378</v>
       </c>
       <c r="D182" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4305,7 +4302,7 @@
         <v>401</v>
       </c>
       <c r="D183" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4319,7 +4316,7 @@
         <v>432</v>
       </c>
       <c r="D184" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4333,7 +4330,7 @@
         <v>383</v>
       </c>
       <c r="D185" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4347,7 +4344,7 @@
         <v>433</v>
       </c>
       <c r="D186" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4355,13 +4352,13 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C187" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="D187" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4369,13 +4366,13 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C188" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="D188" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4383,13 +4380,13 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>328</v>
+        <v>269</v>
       </c>
       <c r="C189" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D189" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4403,7 +4400,7 @@
         <v>389</v>
       </c>
       <c r="D190" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4417,7 +4414,7 @@
         <v>351</v>
       </c>
       <c r="D191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4425,13 +4422,13 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C192" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="D192" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4439,13 +4436,13 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D193" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4459,7 +4456,7 @@
         <v>406</v>
       </c>
       <c r="D194" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4473,7 +4470,7 @@
         <v>356</v>
       </c>
       <c r="D195" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4481,13 +4478,13 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C196" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="D196" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4495,13 +4492,13 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="C197" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="D197" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4509,13 +4506,13 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s">
         <v>436</v>
       </c>
       <c r="D198" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4529,7 +4526,7 @@
         <v>437</v>
       </c>
       <c r="D199" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4543,7 +4540,7 @@
         <v>407</v>
       </c>
       <c r="D200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4557,7 +4554,7 @@
         <v>438</v>
       </c>
       <c r="D201" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4565,13 +4562,13 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C202" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="D202" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4579,13 +4576,13 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C203" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="D203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4593,13 +4590,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C204" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D204" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4607,13 +4604,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C205" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="D205" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4621,13 +4618,13 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="C206" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="D206" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4635,13 +4632,13 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C207" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D207" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4649,13 +4646,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="C208" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4669,7 +4666,7 @@
         <v>413</v>
       </c>
       <c r="D209" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4677,13 +4674,13 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C210" t="s">
         <v>342</v>
       </c>
       <c r="D210" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4697,7 +4694,7 @@
         <v>354</v>
       </c>
       <c r="D211" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4711,7 +4708,7 @@
         <v>383</v>
       </c>
       <c r="D212" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4719,13 +4716,13 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C213" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="D213" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4739,7 +4736,7 @@
         <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4747,13 +4744,13 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C215" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="D215" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4761,13 +4758,13 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
         <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4781,7 +4778,7 @@
         <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4795,7 +4792,7 @@
         <v>365</v>
       </c>
       <c r="D218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4809,7 +4806,7 @@
         <v>411</v>
       </c>
       <c r="D219" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4820,10 +4817,10 @@
         <v>296</v>
       </c>
       <c r="C220" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D220" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4837,7 +4834,7 @@
         <v>387</v>
       </c>
       <c r="D221" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4851,7 +4848,7 @@
         <v>375</v>
       </c>
       <c r="D222" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4865,7 +4862,7 @@
         <v>439</v>
       </c>
       <c r="D223" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4873,13 +4870,13 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C224" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D224" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4887,13 +4884,13 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C225" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4901,13 +4898,13 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C226" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D226" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4915,13 +4912,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D227" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4935,7 +4932,7 @@
         <v>414</v>
       </c>
       <c r="D228" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4949,7 +4946,7 @@
         <v>365</v>
       </c>
       <c r="D229" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4963,7 +4960,7 @@
         <v>379</v>
       </c>
       <c r="D230" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4977,7 +4974,7 @@
         <v>378</v>
       </c>
       <c r="D231" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4991,7 +4988,7 @@
         <v>388</v>
       </c>
       <c r="D232" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5005,7 +5002,7 @@
         <v>429</v>
       </c>
       <c r="D233" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5013,10 +5010,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C234" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="D234" t="s">
         <v>453</v>
@@ -5033,7 +5030,7 @@
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5041,13 +5038,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C236" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="D236" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5061,7 +5058,7 @@
         <v>352</v>
       </c>
       <c r="D237" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5075,7 +5072,7 @@
         <v>408</v>
       </c>
       <c r="D238" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5089,7 +5086,7 @@
         <v>365</v>
       </c>
       <c r="D239" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5097,10 +5094,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C240" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D240" t="s">
         <v>454</v>
@@ -5111,13 +5108,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C241" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D241" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5131,7 +5128,7 @@
         <v>347</v>
       </c>
       <c r="D242" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5145,7 +5142,7 @@
         <v>431</v>
       </c>
       <c r="D243" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5159,7 +5156,7 @@
         <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5173,7 +5170,7 @@
         <v>357</v>
       </c>
       <c r="D245" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5187,7 +5184,7 @@
         <v>390</v>
       </c>
       <c r="D246" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5198,10 +5195,10 @@
         <v>339</v>
       </c>
       <c r="C247" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D247" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5209,13 +5206,13 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C248" t="s">
         <v>440</v>
       </c>
       <c r="D248" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5223,13 +5220,13 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="C249" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="D249" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5237,13 +5234,13 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="C250" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="D250" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5251,10 +5248,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C251" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="D251" t="s">
         <v>453</v>
@@ -5298,7 +5295,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5312,7 +5309,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5326,7 +5323,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5340,7 +5337,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5354,7 +5351,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5368,7 +5365,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5382,7 +5379,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5396,7 +5393,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5410,7 +5407,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5424,7 +5421,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5438,7 +5435,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5452,7 +5449,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5466,7 +5463,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5480,7 +5477,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5494,7 +5491,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5508,7 +5505,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5522,7 +5519,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5536,7 +5533,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5550,7 +5547,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5564,7 +5561,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5578,7 +5575,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5592,7 +5589,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5606,7 +5603,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5620,7 +5617,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5634,7 +5631,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -581,12 +581,12 @@
     <t>Antes do Amanhecer</t>
   </si>
   <si>
+    <t>Mad Max: Estrada da Fúria</t>
+  </si>
+  <si>
     <t>Barry Lyndon</t>
   </si>
   <si>
-    <t>Mad Max: Estrada da Fúria</t>
-  </si>
-  <si>
     <t>O Grande Hotel Budapeste</t>
   </si>
   <si>
@@ -599,12 +599,12 @@
     <t>Sociedade dos Poetas Mortos</t>
   </si>
   <si>
+    <t>Memórias de um Assassino</t>
+  </si>
+  <si>
     <t>Em Busca do Ouro</t>
   </si>
   <si>
-    <t>Memórias de um Assassino</t>
-  </si>
-  <si>
     <t>Em Nome do Pai</t>
   </si>
   <si>
@@ -620,12 +620,12 @@
     <t>A General</t>
   </si>
   <si>
+    <t>Bancando o Águia</t>
+  </si>
+  <si>
     <t>Sindicato de Ladrões</t>
   </si>
   <si>
-    <t>Bancando o Águia</t>
-  </si>
-  <si>
     <t>Tubarão</t>
   </si>
   <si>
@@ -686,12 +686,12 @@
     <t>O Ódio</t>
   </si>
   <si>
+    <t>Antes do Pôr do Sol</t>
+  </si>
+  <si>
     <t>O Martírio de Joana D'Arc</t>
   </si>
   <si>
-    <t>Antes do Pôr do Sol</t>
-  </si>
-  <si>
     <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
   </si>
   <si>
@@ -740,12 +740,12 @@
     <t>A Batalha de Argel</t>
   </si>
   <si>
+    <t>As Vinhas da Ira</t>
+  </si>
+  <si>
     <t>Feitiço do Tempo</t>
   </si>
   <si>
-    <t>As Vinhas da Ira</t>
-  </si>
-  <si>
     <t>Amores Brutos</t>
   </si>
   <si>
@@ -767,13 +767,13 @@
     <t>Aladdin</t>
   </si>
   <si>
+    <t>Dança com Lobos</t>
+  </si>
+  <si>
+    <t>Demon Slayer: Mugen Train - O Filme</t>
+  </si>
+  <si>
     <t>A Chantagem</t>
-  </si>
-  <si>
-    <t>Dança com Lobos</t>
-  </si>
-  <si>
-    <t>Paris, Texas</t>
   </si>
   <si>
     <t>1994</t>
@@ -4352,10 +4352,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C187" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="D187" t="s">
         <v>453</v>
@@ -4366,10 +4366,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C188" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="D188" t="s">
         <v>453</v>
@@ -4436,10 +4436,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="C193" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="D193" t="s">
         <v>453</v>
@@ -4450,10 +4450,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="C194" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D194" t="s">
         <v>453</v>
@@ -4534,13 +4534,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C200" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="D200" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,13 +4548,13 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C201" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="D201" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4842,10 +4842,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="D222" t="s">
         <v>453</v>
@@ -4856,10 +4856,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="C223" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="D223" t="s">
         <v>453</v>
@@ -5094,13 +5094,13 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C240" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D240" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5108,13 +5108,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C241" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D241" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5220,13 +5220,13 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="C249" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="D249" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5234,13 +5234,13 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="C250" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D250" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5248,13 +5248,13 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="C251" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="D251" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="454">
   <si>
     <t>film_name</t>
   </si>
@@ -131,12 +131,12 @@
     <t>Psicose</t>
   </si>
   <si>
+    <t>Gladiador</t>
+  </si>
+  <si>
     <t>Duna: Parte 2</t>
   </si>
   <si>
-    <t>Gladiador</t>
-  </si>
-  <si>
     <t>O Rei Leão</t>
   </si>
   <si>
@@ -326,12 +326,12 @@
     <t>Lawrence da Arábia</t>
   </si>
   <si>
+    <t>Se Meu Apartamento Falasse</t>
+  </si>
+  <si>
     <t>Oppenheimer</t>
   </si>
   <si>
-    <t>Se Meu Apartamento Falasse</t>
-  </si>
-  <si>
     <t>Incêndios</t>
   </si>
   <si>
@@ -344,12 +344,12 @@
     <t>Scarface</t>
   </si>
   <si>
+    <t>Pacto de Sangue</t>
+  </si>
+  <si>
     <t>M, o Vampiro de Dusseldorf</t>
   </si>
   <si>
-    <t>Pacto de Sangue</t>
-  </si>
-  <si>
     <t>Um Corpo que Cai</t>
   </si>
   <si>
@@ -632,12 +632,12 @@
     <t>Como Treinar o Seu Dragão</t>
   </si>
   <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
     <t>Mary e Max - Uma Amizade Diferente</t>
   </si>
   <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
     <t>O 3º Homem</t>
   </si>
   <si>
@@ -740,18 +740,18 @@
     <t>A Batalha de Argel</t>
   </si>
   <si>
+    <t>Feitiço do Tempo</t>
+  </si>
+  <si>
     <t>As Vinhas da Ira</t>
   </si>
   <si>
-    <t>Feitiço do Tempo</t>
+    <t>O Gigante de Ferro</t>
   </si>
   <si>
     <t>Amores Brutos</t>
   </si>
   <si>
-    <t>O Gigante de Ferro</t>
-  </si>
-  <si>
     <t>Rebecca, a Mulher Inesquecível</t>
   </si>
   <si>
@@ -773,7 +773,7 @@
     <t>Demon Slayer: Mugen Train - O Filme</t>
   </si>
   <si>
-    <t>A Chantagem</t>
+    <t>Assassinato às Cegas</t>
   </si>
   <si>
     <t>1994</t>
@@ -854,12 +854,12 @@
     <t>1960</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -1127,12 +1127,12 @@
     <t>1h 49m</t>
   </si>
   <si>
+    <t>2h 35m</t>
+  </si>
+  <si>
     <t>2h 46m</t>
   </si>
   <si>
-    <t>2h 35m</t>
-  </si>
-  <si>
     <t>1h 28m</t>
   </si>
   <si>
@@ -1338,9 +1338,6 @@
   </si>
   <si>
     <t>1h 30m</t>
-  </si>
-  <si>
-    <t>2h 43m</t>
   </si>
   <si>
     <t>9.3</t>
@@ -1768,7 +1765,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1782,7 +1779,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1796,7 +1793,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1810,7 +1807,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1824,7 +1821,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1838,7 +1835,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1852,7 +1849,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1866,7 +1863,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1880,7 +1877,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1894,7 +1891,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1908,7 +1905,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1922,7 +1919,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1936,7 +1933,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1950,7 +1947,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1964,7 +1961,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1978,7 +1975,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1992,7 +1989,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2006,7 +2003,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2020,7 +2017,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2034,7 +2031,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2048,7 +2045,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2062,7 +2059,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2076,7 +2073,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2090,7 +2087,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2104,7 +2101,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2118,7 +2115,7 @@
         <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2132,7 +2129,7 @@
         <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2146,7 +2143,7 @@
         <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2160,7 +2157,7 @@
         <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2174,7 +2171,7 @@
         <v>362</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2188,7 +2185,7 @@
         <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2202,7 +2199,7 @@
         <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2216,7 +2213,7 @@
         <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2230,7 +2227,7 @@
         <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2258,7 +2255,7 @@
         <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2272,7 +2269,7 @@
         <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2286,7 +2283,7 @@
         <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2300,7 +2297,7 @@
         <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2314,7 +2311,7 @@
         <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2328,7 +2325,7 @@
         <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2342,7 +2339,7 @@
         <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2356,7 +2353,7 @@
         <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2370,7 +2367,7 @@
         <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2384,7 +2381,7 @@
         <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2398,7 +2395,7 @@
         <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2412,7 +2409,7 @@
         <v>379</v>
       </c>
       <c r="D48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2426,7 +2423,7 @@
         <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2440,7 +2437,7 @@
         <v>381</v>
       </c>
       <c r="D50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2454,7 +2451,7 @@
         <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2468,7 +2465,7 @@
         <v>380</v>
       </c>
       <c r="D52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2479,10 +2476,10 @@
         <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2496,7 +2493,7 @@
         <v>383</v>
       </c>
       <c r="D54" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2510,7 +2507,7 @@
         <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2524,7 +2521,7 @@
         <v>384</v>
       </c>
       <c r="D56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2538,7 +2535,7 @@
         <v>385</v>
       </c>
       <c r="D57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2546,13 +2543,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
         <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2566,7 +2563,7 @@
         <v>387</v>
       </c>
       <c r="D59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2580,7 +2577,7 @@
         <v>388</v>
       </c>
       <c r="D60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2594,7 +2591,7 @@
         <v>385</v>
       </c>
       <c r="D61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2608,7 +2605,7 @@
         <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2622,7 +2619,7 @@
         <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2636,7 +2633,7 @@
         <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2650,7 +2647,7 @@
         <v>372</v>
       </c>
       <c r="D65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2664,7 +2661,7 @@
         <v>383</v>
       </c>
       <c r="D66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2678,7 +2675,7 @@
         <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2692,7 +2689,7 @@
         <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2706,7 +2703,7 @@
         <v>366</v>
       </c>
       <c r="D69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2720,7 +2717,7 @@
         <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2734,7 +2731,7 @@
         <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2748,7 +2745,7 @@
         <v>392</v>
       </c>
       <c r="D72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2762,7 +2759,7 @@
         <v>393</v>
       </c>
       <c r="D73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2776,7 +2773,7 @@
         <v>394</v>
       </c>
       <c r="D74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2790,7 +2787,7 @@
         <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2804,7 +2801,7 @@
         <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2818,7 +2815,7 @@
         <v>397</v>
       </c>
       <c r="D77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2832,7 +2829,7 @@
         <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2846,7 +2843,7 @@
         <v>399</v>
       </c>
       <c r="D79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2860,7 +2857,7 @@
         <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2874,7 +2871,7 @@
         <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2888,7 +2885,7 @@
         <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2902,7 +2899,7 @@
         <v>401</v>
       </c>
       <c r="D83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2916,7 +2913,7 @@
         <v>397</v>
       </c>
       <c r="D84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2930,7 +2927,7 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2944,7 +2941,7 @@
         <v>402</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2958,7 +2955,7 @@
         <v>403</v>
       </c>
       <c r="D87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2972,7 +2969,7 @@
         <v>404</v>
       </c>
       <c r="D88" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2986,7 +2983,7 @@
         <v>405</v>
       </c>
       <c r="D89" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3000,7 +2997,7 @@
         <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3014,7 +3011,7 @@
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3022,13 +3019,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C92" t="s">
         <v>379</v>
       </c>
       <c r="D92" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3042,7 +3039,7 @@
         <v>405</v>
       </c>
       <c r="D93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3056,7 +3053,7 @@
         <v>406</v>
       </c>
       <c r="D94" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3070,7 +3067,7 @@
         <v>407</v>
       </c>
       <c r="D95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3084,7 +3081,7 @@
         <v>388</v>
       </c>
       <c r="D96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3098,7 +3095,7 @@
         <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3112,7 +3109,7 @@
         <v>408</v>
       </c>
       <c r="D98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3126,7 +3123,7 @@
         <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3140,7 +3137,7 @@
         <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3148,13 +3145,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C101" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3162,13 +3159,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C102" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="D102" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3182,7 +3179,7 @@
         <v>406</v>
       </c>
       <c r="D103" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3196,7 +3193,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3210,7 +3207,7 @@
         <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3224,7 +3221,7 @@
         <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3232,13 +3229,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C107" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="D107" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3246,13 +3243,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C108" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D108" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3266,7 +3263,7 @@
         <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3280,7 +3277,7 @@
         <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3294,7 +3291,7 @@
         <v>397</v>
       </c>
       <c r="D111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3308,7 +3305,7 @@
         <v>403</v>
       </c>
       <c r="D112" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3322,7 +3319,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3336,7 +3333,7 @@
         <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3350,7 +3347,7 @@
         <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3364,7 +3361,7 @@
         <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3378,7 +3375,7 @@
         <v>413</v>
       </c>
       <c r="D117" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3392,7 +3389,7 @@
         <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3406,7 +3403,7 @@
         <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3420,7 +3417,7 @@
         <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3434,7 +3431,7 @@
         <v>391</v>
       </c>
       <c r="D121" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3442,13 +3439,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C122" t="s">
         <v>416</v>
       </c>
       <c r="D122" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3462,7 +3459,7 @@
         <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3476,7 +3473,7 @@
         <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3490,7 +3487,7 @@
         <v>378</v>
       </c>
       <c r="D125" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3504,7 +3501,7 @@
         <v>395</v>
       </c>
       <c r="D126" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3518,7 +3515,7 @@
         <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3532,7 +3529,7 @@
         <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3546,7 +3543,7 @@
         <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3560,7 +3557,7 @@
         <v>368</v>
       </c>
       <c r="D130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3574,7 +3571,7 @@
         <v>373</v>
       </c>
       <c r="D131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3588,7 +3585,7 @@
         <v>410</v>
       </c>
       <c r="D132" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3602,7 +3599,7 @@
         <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3616,7 +3613,7 @@
         <v>359</v>
       </c>
       <c r="D134" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3630,7 +3627,7 @@
         <v>420</v>
       </c>
       <c r="D135" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3644,7 +3641,7 @@
         <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3658,7 +3655,7 @@
         <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3672,7 +3669,7 @@
         <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3686,7 +3683,7 @@
         <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3700,7 +3697,7 @@
         <v>417</v>
       </c>
       <c r="D140" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3714,7 +3711,7 @@
         <v>359</v>
       </c>
       <c r="D141" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3728,7 +3725,7 @@
         <v>422</v>
       </c>
       <c r="D142" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3742,7 +3739,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3756,7 +3753,7 @@
         <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3770,7 +3767,7 @@
         <v>395</v>
       </c>
       <c r="D145" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3784,7 +3781,7 @@
         <v>411</v>
       </c>
       <c r="D146" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3798,7 +3795,7 @@
         <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3812,7 +3809,7 @@
         <v>359</v>
       </c>
       <c r="D148" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3826,7 +3823,7 @@
         <v>397</v>
       </c>
       <c r="D149" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3840,7 +3837,7 @@
         <v>423</v>
       </c>
       <c r="D150" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3854,7 +3851,7 @@
         <v>369</v>
       </c>
       <c r="D151" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3868,7 +3865,7 @@
         <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3882,7 +3879,7 @@
         <v>400</v>
       </c>
       <c r="D153" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3896,7 +3893,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3910,7 +3907,7 @@
         <v>425</v>
       </c>
       <c r="D155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3924,7 +3921,7 @@
         <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3938,7 +3935,7 @@
         <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3952,7 +3949,7 @@
         <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3966,7 +3963,7 @@
         <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3980,7 +3977,7 @@
         <v>372</v>
       </c>
       <c r="D160" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3994,7 +3991,7 @@
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4008,7 +4005,7 @@
         <v>393</v>
       </c>
       <c r="D162" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4022,7 +4019,7 @@
         <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4036,7 +4033,7 @@
         <v>428</v>
       </c>
       <c r="D164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4050,7 +4047,7 @@
         <v>411</v>
       </c>
       <c r="D165" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4064,7 +4061,7 @@
         <v>368</v>
       </c>
       <c r="D166" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4078,7 +4075,7 @@
         <v>413</v>
       </c>
       <c r="D167" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4092,7 +4089,7 @@
         <v>394</v>
       </c>
       <c r="D168" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4106,7 +4103,7 @@
         <v>413</v>
       </c>
       <c r="D169" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4120,7 +4117,7 @@
         <v>388</v>
       </c>
       <c r="D170" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4134,7 +4131,7 @@
         <v>429</v>
       </c>
       <c r="D171" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4148,7 +4145,7 @@
         <v>349</v>
       </c>
       <c r="D172" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4162,7 +4159,7 @@
         <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4176,7 +4173,7 @@
         <v>387</v>
       </c>
       <c r="D174" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4190,7 +4187,7 @@
         <v>430</v>
       </c>
       <c r="D175" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4204,7 +4201,7 @@
         <v>352</v>
       </c>
       <c r="D176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4218,7 +4215,7 @@
         <v>373</v>
       </c>
       <c r="D177" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4232,7 +4229,7 @@
         <v>362</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4246,7 +4243,7 @@
         <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4260,7 +4257,7 @@
         <v>368</v>
       </c>
       <c r="D180" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4274,7 +4271,7 @@
         <v>431</v>
       </c>
       <c r="D181" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4288,7 +4285,7 @@
         <v>378</v>
       </c>
       <c r="D182" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4302,7 +4299,7 @@
         <v>401</v>
       </c>
       <c r="D183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4316,7 +4313,7 @@
         <v>432</v>
       </c>
       <c r="D184" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4330,7 +4327,7 @@
         <v>383</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4344,7 +4341,7 @@
         <v>433</v>
       </c>
       <c r="D186" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4358,7 +4355,7 @@
         <v>396</v>
       </c>
       <c r="D187" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4372,7 +4369,7 @@
         <v>434</v>
       </c>
       <c r="D188" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4386,7 +4383,7 @@
         <v>408</v>
       </c>
       <c r="D189" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4400,7 +4397,7 @@
         <v>389</v>
       </c>
       <c r="D190" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4414,7 +4411,7 @@
         <v>351</v>
       </c>
       <c r="D191" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4428,7 +4425,7 @@
         <v>412</v>
       </c>
       <c r="D192" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4442,7 +4439,7 @@
         <v>406</v>
       </c>
       <c r="D193" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4456,7 +4453,7 @@
         <v>394</v>
       </c>
       <c r="D194" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4470,7 +4467,7 @@
         <v>356</v>
       </c>
       <c r="D195" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4484,7 +4481,7 @@
         <v>435</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4498,7 +4495,7 @@
         <v>397</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4512,7 +4509,7 @@
         <v>436</v>
       </c>
       <c r="D198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4526,7 +4523,7 @@
         <v>437</v>
       </c>
       <c r="D199" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4540,7 +4537,7 @@
         <v>438</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4554,7 +4551,7 @@
         <v>407</v>
       </c>
       <c r="D201" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4568,7 +4565,7 @@
         <v>353</v>
       </c>
       <c r="D202" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4582,7 +4579,7 @@
         <v>387</v>
       </c>
       <c r="D203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4590,13 +4587,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C204" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4604,13 +4601,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C205" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D205" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4624,7 +4621,7 @@
         <v>416</v>
       </c>
       <c r="D206" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4638,7 +4635,7 @@
         <v>406</v>
       </c>
       <c r="D207" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4652,7 +4649,7 @@
         <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4666,7 +4663,7 @@
         <v>413</v>
       </c>
       <c r="D209" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4680,7 +4677,7 @@
         <v>342</v>
       </c>
       <c r="D210" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4694,7 +4691,7 @@
         <v>354</v>
       </c>
       <c r="D211" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4708,7 +4705,7 @@
         <v>383</v>
       </c>
       <c r="D212" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4722,7 +4719,7 @@
         <v>396</v>
       </c>
       <c r="D213" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4736,7 +4733,7 @@
         <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4750,7 +4747,7 @@
         <v>361</v>
       </c>
       <c r="D215" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4764,7 +4761,7 @@
         <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4778,7 +4775,7 @@
         <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4792,7 +4789,7 @@
         <v>365</v>
       </c>
       <c r="D218" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4806,7 +4803,7 @@
         <v>411</v>
       </c>
       <c r="D219" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4820,7 +4817,7 @@
         <v>396</v>
       </c>
       <c r="D220" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4834,7 +4831,7 @@
         <v>387</v>
       </c>
       <c r="D221" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4848,7 +4845,7 @@
         <v>439</v>
       </c>
       <c r="D222" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4862,7 +4859,7 @@
         <v>375</v>
       </c>
       <c r="D223" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4876,7 +4873,7 @@
         <v>402</v>
       </c>
       <c r="D224" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4890,7 +4887,7 @@
         <v>403</v>
       </c>
       <c r="D225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4904,7 +4901,7 @@
         <v>392</v>
       </c>
       <c r="D226" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4918,7 +4915,7 @@
         <v>397</v>
       </c>
       <c r="D227" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4932,7 +4929,7 @@
         <v>414</v>
       </c>
       <c r="D228" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4946,7 +4943,7 @@
         <v>365</v>
       </c>
       <c r="D229" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4960,7 +4957,7 @@
         <v>379</v>
       </c>
       <c r="D230" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4974,7 +4971,7 @@
         <v>378</v>
       </c>
       <c r="D231" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4988,7 +4985,7 @@
         <v>388</v>
       </c>
       <c r="D232" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5002,7 +4999,7 @@
         <v>429</v>
       </c>
       <c r="D233" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5016,7 +5013,7 @@
         <v>426</v>
       </c>
       <c r="D234" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5030,7 +5027,7 @@
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5044,7 +5041,7 @@
         <v>380</v>
       </c>
       <c r="D236" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5058,7 +5055,7 @@
         <v>352</v>
       </c>
       <c r="D237" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5072,7 +5069,7 @@
         <v>408</v>
       </c>
       <c r="D238" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5086,7 +5083,7 @@
         <v>365</v>
       </c>
       <c r="D239" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5094,10 +5091,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C240" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D240" t="s">
         <v>453</v>
@@ -5108,13 +5105,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C241" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D241" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5122,13 +5119,13 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C242" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="D242" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5136,13 +5133,13 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C243" t="s">
-        <v>431</v>
+        <v>347</v>
       </c>
       <c r="D243" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5156,7 +5153,7 @@
         <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5170,7 +5167,7 @@
         <v>357</v>
       </c>
       <c r="D245" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5184,7 +5181,7 @@
         <v>390</v>
       </c>
       <c r="D246" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5198,7 +5195,7 @@
         <v>393</v>
       </c>
       <c r="D247" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5212,7 +5209,7 @@
         <v>440</v>
       </c>
       <c r="D248" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5226,7 +5223,7 @@
         <v>399</v>
       </c>
       <c r="D249" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5240,7 +5237,7 @@
         <v>383</v>
       </c>
       <c r="D250" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5248,13 +5245,13 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C251" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="D251" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5295,7 +5292,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5309,7 +5306,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5323,7 +5320,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5337,7 +5334,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5351,7 +5348,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5365,7 +5362,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5379,7 +5376,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5393,7 +5390,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5407,7 +5404,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5421,7 +5418,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5435,7 +5432,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5449,7 +5446,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5463,7 +5460,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5477,7 +5474,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5491,7 +5488,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5505,7 +5502,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5519,7 +5516,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5533,7 +5530,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5547,7 +5544,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5561,7 +5558,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5575,7 +5572,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5589,7 +5586,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5603,7 +5600,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5617,7 +5614,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5631,7 +5628,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="456">
   <si>
     <t>film_name</t>
   </si>
@@ -134,12 +134,12 @@
     <t>Gladiador</t>
   </si>
   <si>
+    <t>O Rei Leão</t>
+  </si>
+  <si>
     <t>Duna: Parte 2</t>
   </si>
   <si>
-    <t>O Rei Leão</t>
-  </si>
-  <si>
     <t>Homem-Aranha: Através do Aranhaverso</t>
   </si>
   <si>
@@ -245,12 +245,12 @@
     <t>Viva: A Vida é uma Festa</t>
   </si>
   <si>
+    <t>Amadeus</t>
+  </si>
+  <si>
     <t>Dr. Fantástico</t>
   </si>
   <si>
-    <t>Amadeus</t>
-  </si>
-  <si>
     <t>Oldboy</t>
   </si>
   <si>
@@ -371,12 +371,12 @@
     <t>O Sol é para Todos</t>
   </si>
   <si>
+    <t>Golpe de Mestre</t>
+  </si>
+  <si>
     <t>A Separação</t>
   </si>
   <si>
-    <t>Golpe de Mestre</t>
-  </si>
-  <si>
     <t>Indiana Jones e a Última Cruzada</t>
   </si>
   <si>
@@ -413,12 +413,12 @@
     <t>Dangal</t>
   </si>
   <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
     <t>Por uns Dólares a Mais</t>
   </si>
   <si>
-    <t>Batman Begins</t>
-  </si>
-  <si>
     <t>O Lobo de Wall Street</t>
   </si>
   <si>
@@ -521,12 +521,12 @@
     <t>V de Vingança</t>
   </si>
   <si>
+    <t>Divertida Mente</t>
+  </si>
+  <si>
     <t>O Segredo dos Seus Olhos</t>
   </si>
   <si>
-    <t>Divertida Mente</t>
-  </si>
-  <si>
     <t>Touro Indomável</t>
   </si>
   <si>
@@ -548,12 +548,12 @@
     <t>Prenda-Me se for Capaz</t>
   </si>
   <si>
+    <t>Guerreiro</t>
+  </si>
+  <si>
     <t>Homem-Aranha: Sem Volta para Casa</t>
   </si>
   <si>
-    <t>Guerreiro</t>
-  </si>
-  <si>
     <t>Gran Torino</t>
   </si>
   <si>
@@ -575,15 +575,15 @@
     <t>Ben-Hur</t>
   </si>
   <si>
+    <t>Mad Max: Estrada da Fúria</t>
+  </si>
+  <si>
     <t>Blade Runner - O Caçador de Androides</t>
   </si>
   <si>
     <t>Antes do Amanhecer</t>
   </si>
   <si>
-    <t>Mad Max: Estrada da Fúria</t>
-  </si>
-  <si>
     <t>Barry Lyndon</t>
   </si>
   <si>
@@ -620,12 +620,12 @@
     <t>A General</t>
   </si>
   <si>
+    <t>Sindicato de Ladrões</t>
+  </si>
+  <si>
     <t>Bancando o Águia</t>
   </si>
   <si>
-    <t>Sindicato de Ladrões</t>
-  </si>
-  <si>
     <t>Tubarão</t>
   </si>
   <si>
@@ -707,12 +707,12 @@
     <t>Rush: No Limite da Emoção</t>
   </si>
   <si>
+    <t>O Mágico de Oz</t>
+  </si>
+  <si>
     <t>Rede de Intrigas</t>
   </si>
   <si>
-    <t>O Mágico de Oz</t>
-  </si>
-  <si>
     <t>Conta Comigo</t>
   </si>
   <si>
@@ -731,12 +731,12 @@
     <t>Meu Pai e Meu Filho</t>
   </si>
   <si>
+    <t>Ser ou Não Ser</t>
+  </si>
+  <si>
     <t>Na Natureza Selvagem</t>
   </si>
   <si>
-    <t>Ser ou Não Ser</t>
-  </si>
-  <si>
     <t>A Batalha de Argel</t>
   </si>
   <si>
@@ -767,15 +767,15 @@
     <t>Aladdin</t>
   </si>
   <si>
-    <t>Dança com Lobos</t>
-  </si>
-  <si>
-    <t>Demon Slayer: Mugen Train - O Filme</t>
-  </si>
-  <si>
     <t>Assassinato às Cegas</t>
   </si>
   <si>
+    <t>A Chantagem</t>
+  </si>
+  <si>
+    <t>Gangues de Wasseypur</t>
+  </si>
+  <si>
     <t>1994</t>
   </si>
   <si>
@@ -914,12 +914,12 @@
     <t>2017</t>
   </si>
   <si>
+    <t>1984</t>
+  </si>
+  <si>
     <t>1964</t>
   </si>
   <si>
-    <t>1984</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -977,12 +977,12 @@
     <t>1976</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>1965</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
@@ -1130,12 +1130,12 @@
     <t>2h 35m</t>
   </si>
   <si>
+    <t>1h 28m</t>
+  </si>
+  <si>
     <t>2h 46m</t>
   </si>
   <si>
-    <t>1h 28m</t>
-  </si>
-  <si>
     <t>2h 20m</t>
   </si>
   <si>
@@ -1199,12 +1199,12 @@
     <t>1h 45m</t>
   </si>
   <si>
+    <t>2h 40m</t>
+  </si>
+  <si>
     <t>1h 35m</t>
   </si>
   <si>
-    <t>2h 40m</t>
-  </si>
-  <si>
     <t>2h</t>
   </si>
   <si>
@@ -1338,6 +1338,12 @@
   </si>
   <si>
     <t>1h 30m</t>
+  </si>
+  <si>
+    <t>2h 43m</t>
+  </si>
+  <si>
+    <t>5h 21m</t>
   </si>
   <si>
     <t>9.3</t>
@@ -1765,7 +1771,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1779,7 +1785,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1793,7 +1799,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1807,7 +1813,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1821,7 +1827,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1835,7 +1841,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1849,7 +1855,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1863,7 +1869,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1877,7 +1883,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1891,7 +1897,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1905,7 +1911,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1919,7 +1925,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1933,7 +1939,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1947,7 +1953,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1961,7 +1967,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1975,7 +1981,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1989,7 +1995,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2003,7 +2009,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2017,7 +2023,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2031,7 +2037,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2045,7 +2051,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2059,7 +2065,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2073,7 +2079,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2087,7 +2093,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2101,7 +2107,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2115,7 +2121,7 @@
         <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2129,7 +2135,7 @@
         <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2143,7 +2149,7 @@
         <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2157,7 +2163,7 @@
         <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2171,7 +2177,7 @@
         <v>362</v>
       </c>
       <c r="D31" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2185,7 +2191,7 @@
         <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2199,7 +2205,7 @@
         <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2213,7 +2219,7 @@
         <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2227,7 +2233,7 @@
         <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2241,7 +2247,7 @@
         <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2249,13 +2255,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
         <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2263,13 +2269,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
         <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2283,7 +2289,7 @@
         <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2297,7 +2303,7 @@
         <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2311,7 +2317,7 @@
         <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2325,7 +2331,7 @@
         <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2339,7 +2345,7 @@
         <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2353,7 +2359,7 @@
         <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2367,7 +2373,7 @@
         <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2381,7 +2387,7 @@
         <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2395,7 +2401,7 @@
         <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2409,7 +2415,7 @@
         <v>379</v>
       </c>
       <c r="D48" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2423,7 +2429,7 @@
         <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2437,7 +2443,7 @@
         <v>381</v>
       </c>
       <c r="D50" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2451,7 +2457,7 @@
         <v>382</v>
       </c>
       <c r="D51" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2465,7 +2471,7 @@
         <v>380</v>
       </c>
       <c r="D52" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2476,10 +2482,10 @@
         <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D53" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2493,7 +2499,7 @@
         <v>383</v>
       </c>
       <c r="D54" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2507,7 +2513,7 @@
         <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2521,7 +2527,7 @@
         <v>384</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2535,7 +2541,7 @@
         <v>385</v>
       </c>
       <c r="D57" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2549,7 +2555,7 @@
         <v>386</v>
       </c>
       <c r="D58" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2563,7 +2569,7 @@
         <v>387</v>
       </c>
       <c r="D59" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2577,7 +2583,7 @@
         <v>388</v>
       </c>
       <c r="D60" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2591,7 +2597,7 @@
         <v>385</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2605,7 +2611,7 @@
         <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2619,7 +2625,7 @@
         <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2633,7 +2639,7 @@
         <v>389</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2644,10 +2650,10 @@
         <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D65" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2661,7 +2667,7 @@
         <v>383</v>
       </c>
       <c r="D66" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2675,7 +2681,7 @@
         <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2689,7 +2695,7 @@
         <v>390</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2703,7 +2709,7 @@
         <v>366</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2717,7 +2723,7 @@
         <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2731,7 +2737,7 @@
         <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2745,7 +2751,7 @@
         <v>392</v>
       </c>
       <c r="D72" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2759,7 +2765,7 @@
         <v>393</v>
       </c>
       <c r="D73" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2773,7 +2779,7 @@
         <v>394</v>
       </c>
       <c r="D74" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2787,7 +2793,7 @@
         <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2801,7 +2807,7 @@
         <v>396</v>
       </c>
       <c r="D76" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2815,7 +2821,7 @@
         <v>397</v>
       </c>
       <c r="D77" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2829,7 +2835,7 @@
         <v>398</v>
       </c>
       <c r="D78" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2843,7 +2849,7 @@
         <v>399</v>
       </c>
       <c r="D79" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2857,7 +2863,7 @@
         <v>389</v>
       </c>
       <c r="D80" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2871,7 +2877,7 @@
         <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2885,7 +2891,7 @@
         <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2899,7 +2905,7 @@
         <v>401</v>
       </c>
       <c r="D83" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2913,7 +2919,7 @@
         <v>397</v>
       </c>
       <c r="D84" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2927,7 +2933,7 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2941,7 +2947,7 @@
         <v>402</v>
       </c>
       <c r="D86" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2955,7 +2961,7 @@
         <v>403</v>
       </c>
       <c r="D87" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2963,13 +2969,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C88" t="s">
         <v>404</v>
       </c>
       <c r="D88" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2983,7 +2989,7 @@
         <v>405</v>
       </c>
       <c r="D89" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2997,7 +3003,7 @@
         <v>400</v>
       </c>
       <c r="D90" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3011,7 +3017,7 @@
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3025,7 +3031,7 @@
         <v>379</v>
       </c>
       <c r="D92" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3039,7 +3045,7 @@
         <v>405</v>
       </c>
       <c r="D93" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3053,7 +3059,7 @@
         <v>406</v>
       </c>
       <c r="D94" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3067,7 +3073,7 @@
         <v>407</v>
       </c>
       <c r="D95" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3081,7 +3087,7 @@
         <v>388</v>
       </c>
       <c r="D96" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3095,7 +3101,7 @@
         <v>389</v>
       </c>
       <c r="D97" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3109,7 +3115,7 @@
         <v>408</v>
       </c>
       <c r="D98" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3123,7 +3129,7 @@
         <v>402</v>
       </c>
       <c r="D99" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3137,7 +3143,7 @@
         <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3151,7 +3157,7 @@
         <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3165,7 +3171,7 @@
         <v>410</v>
       </c>
       <c r="D102" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3179,7 +3185,7 @@
         <v>406</v>
       </c>
       <c r="D103" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3193,7 +3199,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3207,7 +3213,7 @@
         <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3221,7 +3227,7 @@
         <v>403</v>
       </c>
       <c r="D106" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3235,7 +3241,7 @@
         <v>411</v>
       </c>
       <c r="D107" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3249,7 +3255,7 @@
         <v>383</v>
       </c>
       <c r="D108" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3263,7 +3269,7 @@
         <v>412</v>
       </c>
       <c r="D109" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3277,7 +3283,7 @@
         <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3291,7 +3297,7 @@
         <v>397</v>
       </c>
       <c r="D111" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3305,7 +3311,7 @@
         <v>403</v>
       </c>
       <c r="D112" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3319,7 +3325,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3333,7 +3339,7 @@
         <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3347,7 +3353,7 @@
         <v>413</v>
       </c>
       <c r="D115" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3355,13 +3361,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C116" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D116" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3369,13 +3375,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C117" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D117" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3389,7 +3395,7 @@
         <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3403,7 +3409,7 @@
         <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3417,7 +3423,7 @@
         <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3431,7 +3437,7 @@
         <v>391</v>
       </c>
       <c r="D121" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3445,7 +3451,7 @@
         <v>416</v>
       </c>
       <c r="D122" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3459,7 +3465,7 @@
         <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3473,7 +3479,7 @@
         <v>417</v>
       </c>
       <c r="D124" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3487,7 +3493,7 @@
         <v>378</v>
       </c>
       <c r="D125" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3498,10 +3504,10 @@
         <v>318</v>
       </c>
       <c r="C126" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D126" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3515,7 +3521,7 @@
         <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3529,7 +3535,7 @@
         <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3543,7 +3549,7 @@
         <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3554,10 +3560,10 @@
         <v>320</v>
       </c>
       <c r="C130" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D130" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3568,10 +3574,10 @@
         <v>321</v>
       </c>
       <c r="C131" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3585,7 +3591,7 @@
         <v>410</v>
       </c>
       <c r="D132" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3599,7 +3605,7 @@
         <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3613,7 +3619,7 @@
         <v>359</v>
       </c>
       <c r="D134" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3627,7 +3633,7 @@
         <v>420</v>
       </c>
       <c r="D135" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3641,7 +3647,7 @@
         <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3655,7 +3661,7 @@
         <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3669,7 +3675,7 @@
         <v>405</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3683,7 +3689,7 @@
         <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3697,7 +3703,7 @@
         <v>417</v>
       </c>
       <c r="D140" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3711,7 +3717,7 @@
         <v>359</v>
       </c>
       <c r="D141" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3725,7 +3731,7 @@
         <v>422</v>
       </c>
       <c r="D142" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3739,7 +3745,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3753,7 +3759,7 @@
         <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3764,10 +3770,10 @@
         <v>276</v>
       </c>
       <c r="C145" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D145" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3781,7 +3787,7 @@
         <v>411</v>
       </c>
       <c r="D146" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3795,7 +3801,7 @@
         <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3809,7 +3815,7 @@
         <v>359</v>
       </c>
       <c r="D148" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3823,7 +3829,7 @@
         <v>397</v>
       </c>
       <c r="D149" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3837,7 +3843,7 @@
         <v>423</v>
       </c>
       <c r="D150" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3851,7 +3857,7 @@
         <v>369</v>
       </c>
       <c r="D151" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3865,7 +3871,7 @@
         <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3879,7 +3885,7 @@
         <v>400</v>
       </c>
       <c r="D153" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3893,7 +3899,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3907,7 +3913,7 @@
         <v>425</v>
       </c>
       <c r="D155" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3921,7 +3927,7 @@
         <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3935,7 +3941,7 @@
         <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3949,7 +3955,7 @@
         <v>391</v>
       </c>
       <c r="D158" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3963,7 +3969,7 @@
         <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3974,10 +3980,10 @@
         <v>293</v>
       </c>
       <c r="C160" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D160" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3991,7 +3997,7 @@
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4005,7 +4011,7 @@
         <v>393</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4019,7 +4025,7 @@
         <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4033,7 +4039,7 @@
         <v>428</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4047,7 +4053,7 @@
         <v>411</v>
       </c>
       <c r="D165" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4055,13 +4061,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C166" t="s">
         <v>368</v>
       </c>
       <c r="D166" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4069,13 +4075,13 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C167" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D167" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4083,13 +4089,13 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="C168" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="D168" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4103,7 +4109,7 @@
         <v>413</v>
       </c>
       <c r="D169" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4117,7 +4123,7 @@
         <v>388</v>
       </c>
       <c r="D170" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4131,7 +4137,7 @@
         <v>429</v>
       </c>
       <c r="D171" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4145,7 +4151,7 @@
         <v>349</v>
       </c>
       <c r="D172" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4159,7 +4165,7 @@
         <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4173,7 +4179,7 @@
         <v>387</v>
       </c>
       <c r="D174" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4187,7 +4193,7 @@
         <v>430</v>
       </c>
       <c r="D175" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4195,13 +4201,13 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C176" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="D176" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4209,13 +4215,13 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="C177" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="D177" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4229,7 +4235,7 @@
         <v>362</v>
       </c>
       <c r="D178" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4243,7 +4249,7 @@
         <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4257,7 +4263,7 @@
         <v>368</v>
       </c>
       <c r="D180" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4271,7 +4277,7 @@
         <v>431</v>
       </c>
       <c r="D181" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4285,7 +4291,7 @@
         <v>378</v>
       </c>
       <c r="D182" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4299,7 +4305,7 @@
         <v>401</v>
       </c>
       <c r="D183" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4313,7 +4319,7 @@
         <v>432</v>
       </c>
       <c r="D184" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4321,13 +4327,13 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C185" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D185" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4335,13 +4341,13 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C186" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="D186" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4349,13 +4355,13 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4369,7 +4375,7 @@
         <v>434</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4383,7 +4389,7 @@
         <v>408</v>
       </c>
       <c r="D189" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4397,7 +4403,7 @@
         <v>389</v>
       </c>
       <c r="D190" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4411,7 +4417,7 @@
         <v>351</v>
       </c>
       <c r="D191" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4425,7 +4431,7 @@
         <v>412</v>
       </c>
       <c r="D192" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4439,7 +4445,7 @@
         <v>406</v>
       </c>
       <c r="D193" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4450,10 +4456,10 @@
         <v>331</v>
       </c>
       <c r="C194" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D194" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4467,7 +4473,7 @@
         <v>356</v>
       </c>
       <c r="D195" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4481,7 +4487,7 @@
         <v>435</v>
       </c>
       <c r="D196" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4495,7 +4501,7 @@
         <v>397</v>
       </c>
       <c r="D197" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4509,7 +4515,7 @@
         <v>436</v>
       </c>
       <c r="D198" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4523,7 +4529,7 @@
         <v>437</v>
       </c>
       <c r="D199" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4531,13 +4537,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C200" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="D200" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4545,13 +4551,13 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C201" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="D201" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4565,7 +4571,7 @@
         <v>353</v>
       </c>
       <c r="D202" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4579,7 +4585,7 @@
         <v>387</v>
       </c>
       <c r="D203" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4593,7 +4599,7 @@
         <v>424</v>
       </c>
       <c r="D204" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4607,7 +4613,7 @@
         <v>435</v>
       </c>
       <c r="D205" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4621,7 +4627,7 @@
         <v>416</v>
       </c>
       <c r="D206" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4635,7 +4641,7 @@
         <v>406</v>
       </c>
       <c r="D207" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4649,7 +4655,7 @@
         <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4663,7 +4669,7 @@
         <v>413</v>
       </c>
       <c r="D209" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4677,7 +4683,7 @@
         <v>342</v>
       </c>
       <c r="D210" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4691,7 +4697,7 @@
         <v>354</v>
       </c>
       <c r="D211" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4705,7 +4711,7 @@
         <v>383</v>
       </c>
       <c r="D212" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4719,7 +4725,7 @@
         <v>396</v>
       </c>
       <c r="D213" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4733,7 +4739,7 @@
         <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4747,7 +4753,7 @@
         <v>361</v>
       </c>
       <c r="D215" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4761,7 +4767,7 @@
         <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4775,7 +4781,7 @@
         <v>413</v>
       </c>
       <c r="D217" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4789,7 +4795,7 @@
         <v>365</v>
       </c>
       <c r="D218" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4797,13 +4803,13 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C219" t="s">
         <v>411</v>
       </c>
       <c r="D219" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4817,7 +4823,7 @@
         <v>396</v>
       </c>
       <c r="D220" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4831,7 +4837,7 @@
         <v>387</v>
       </c>
       <c r="D221" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4845,7 +4851,7 @@
         <v>439</v>
       </c>
       <c r="D222" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4859,7 +4865,7 @@
         <v>375</v>
       </c>
       <c r="D223" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4873,7 +4879,7 @@
         <v>402</v>
       </c>
       <c r="D224" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4887,7 +4893,7 @@
         <v>403</v>
       </c>
       <c r="D225" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4901,7 +4907,7 @@
         <v>392</v>
       </c>
       <c r="D226" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4915,7 +4921,7 @@
         <v>397</v>
       </c>
       <c r="D227" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4929,7 +4935,7 @@
         <v>414</v>
       </c>
       <c r="D228" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4937,13 +4943,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C229" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D229" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4951,13 +4957,13 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C230" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D230" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4971,7 +4977,7 @@
         <v>378</v>
       </c>
       <c r="D231" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4985,7 +4991,7 @@
         <v>388</v>
       </c>
       <c r="D232" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4999,7 +5005,7 @@
         <v>429</v>
       </c>
       <c r="D233" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5007,13 +5013,13 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C234" t="s">
         <v>426</v>
       </c>
       <c r="D234" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5027,7 +5033,7 @@
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5035,13 +5041,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C236" t="s">
         <v>380</v>
       </c>
       <c r="D236" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5049,13 +5055,13 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C237" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="D237" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5063,13 +5069,13 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="C238" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
       <c r="D238" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5083,7 +5089,7 @@
         <v>365</v>
       </c>
       <c r="D239" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5097,7 +5103,7 @@
         <v>433</v>
       </c>
       <c r="D240" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5111,7 +5117,7 @@
         <v>413</v>
       </c>
       <c r="D241" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5125,7 +5131,7 @@
         <v>431</v>
       </c>
       <c r="D242" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5139,7 +5145,7 @@
         <v>347</v>
       </c>
       <c r="D243" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5153,7 +5159,7 @@
         <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5167,7 +5173,7 @@
         <v>357</v>
       </c>
       <c r="D245" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5181,7 +5187,7 @@
         <v>390</v>
       </c>
       <c r="D246" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5195,7 +5201,7 @@
         <v>393</v>
       </c>
       <c r="D247" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5209,7 +5215,7 @@
         <v>440</v>
       </c>
       <c r="D248" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5217,10 +5223,10 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="C249" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="D249" t="s">
         <v>453</v>
@@ -5231,13 +5237,13 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C250" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="D250" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5245,13 +5251,13 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C251" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="D251" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5292,7 +5298,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5306,7 +5312,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5320,7 +5326,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5334,7 +5340,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5348,7 +5354,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5362,7 +5368,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5376,7 +5382,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5390,7 +5396,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5404,7 +5410,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5418,7 +5424,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5432,7 +5438,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5446,7 +5452,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5460,7 +5466,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5474,7 +5480,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5488,7 +5494,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5502,7 +5508,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5516,7 +5522,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5530,7 +5536,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5544,7 +5550,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5558,7 +5564,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5572,7 +5578,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5586,7 +5592,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5600,7 +5606,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5614,7 +5620,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5628,7 +5634,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="455">
   <si>
     <t>film_name</t>
   </si>
@@ -137,12 +137,12 @@
     <t>O Rei Leão</t>
   </si>
   <si>
+    <t>Homem-Aranha: Através do Aranhaverso</t>
+  </si>
+  <si>
     <t>Duna: Parte 2</t>
   </si>
   <si>
-    <t>Homem-Aranha: Através do Aranhaverso</t>
-  </si>
-  <si>
     <t>Os Infiltrados</t>
   </si>
   <si>
@@ -233,7 +233,7 @@
     <t>O Grande Ditador</t>
   </si>
   <si>
-    <t>Aliens, O Resgate</t>
+    <t>Aliens: O Resgate</t>
   </si>
   <si>
     <t>Bastardos Inglórios</t>
@@ -257,7 +257,7 @@
     <t>Beleza Americana</t>
   </si>
   <si>
-    <t>Toy Story: Um Mundo de Aventuras</t>
+    <t>Toy Story</t>
   </si>
   <si>
     <t>Vingadores: Ultimato</t>
@@ -518,12 +518,12 @@
     <t>Jogos, Trapaças e Dois Canos Fumegantes</t>
   </si>
   <si>
+    <t>Divertida Mente</t>
+  </si>
+  <si>
     <t>V de Vingança</t>
   </si>
   <si>
-    <t>Divertida Mente</t>
-  </si>
-  <si>
     <t>O Segredo dos Seus Olhos</t>
   </si>
   <si>
@@ -581,21 +581,21 @@
     <t>Blade Runner - O Caçador de Androides</t>
   </si>
   <si>
+    <t>Barry Lyndon</t>
+  </si>
+  <si>
     <t>Antes do Amanhecer</t>
   </si>
   <si>
-    <t>Barry Lyndon</t>
-  </si>
-  <si>
     <t>O Grande Hotel Budapeste</t>
   </si>
   <si>
+    <t>Até o Último Homem</t>
+  </si>
+  <si>
     <t>Garota Exemplar</t>
   </si>
   <si>
-    <t>Até o Último Homem</t>
-  </si>
-  <si>
     <t>Sociedade dos Poetas Mortos</t>
   </si>
   <si>
@@ -707,18 +707,18 @@
     <t>Rush: No Limite da Emoção</t>
   </si>
   <si>
+    <t>Rede de Intrigas</t>
+  </si>
+  <si>
     <t>O Mágico de Oz</t>
   </si>
   <si>
-    <t>Rede de Intrigas</t>
+    <t>Os Incríveis</t>
   </si>
   <si>
     <t>Conta Comigo</t>
   </si>
   <si>
-    <t>Os Incríveis</t>
-  </si>
-  <si>
     <t>Sempre ao Seu Lado</t>
   </si>
   <si>
@@ -761,19 +761,19 @@
     <t>Histórias Cruzadas</t>
   </si>
   <si>
+    <t>Deadpool &amp; Wolverine</t>
+  </si>
+  <si>
     <t>Aconteceu Naquela Noite</t>
   </si>
   <si>
     <t>Aladdin</t>
   </si>
   <si>
-    <t>Assassinato às Cegas</t>
-  </si>
-  <si>
     <t>A Chantagem</t>
   </si>
   <si>
-    <t>Gangues de Wasseypur</t>
+    <t>Demon Slayer: Mugen Train - O Filme</t>
   </si>
   <si>
     <t>1994</t>
@@ -857,12 +857,12 @@
     <t>2000</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
@@ -1133,12 +1133,12 @@
     <t>1h 28m</t>
   </si>
   <si>
+    <t>2h 20m</t>
+  </si>
+  <si>
     <t>2h 46m</t>
   </si>
   <si>
-    <t>2h 20m</t>
-  </si>
-  <si>
     <t>2h 31m</t>
   </si>
   <si>
@@ -1151,126 +1151,126 @@
     <t>1h 46m</t>
   </si>
   <si>
+    <t>1h 42m</t>
+  </si>
+  <si>
+    <t>1h 52m</t>
+  </si>
+  <si>
+    <t>2h 54m</t>
+  </si>
+  <si>
+    <t>1h 27m</t>
+  </si>
+  <si>
+    <t>1h 57m</t>
+  </si>
+  <si>
+    <t>2h 45m</t>
+  </si>
+  <si>
+    <t>2h 27m</t>
+  </si>
+  <si>
+    <t>1h 53m</t>
+  </si>
+  <si>
+    <t>1h 38m</t>
+  </si>
+  <si>
+    <t>1h 55m</t>
+  </si>
+  <si>
+    <t>2h 29m</t>
+  </si>
+  <si>
+    <t>2h 26m</t>
+  </si>
+  <si>
+    <t>2h 33m</t>
+  </si>
+  <si>
+    <t>2h 44m</t>
+  </si>
+  <si>
+    <t>1h 45m</t>
+  </si>
+  <si>
+    <t>2h 40m</t>
+  </si>
+  <si>
+    <t>1h 35m</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2h 2m</t>
+  </si>
+  <si>
+    <t>1h 21m</t>
+  </si>
+  <si>
+    <t>3h 1m</t>
+  </si>
+  <si>
+    <t>2h 6m</t>
+  </si>
+  <si>
+    <t>2h 14m</t>
+  </si>
+  <si>
+    <t>2h 23m</t>
+  </si>
+  <si>
+    <t>2h 50m</t>
+  </si>
+  <si>
+    <t>3h 49m</t>
+  </si>
+  <si>
+    <t>1h 43m</t>
+  </si>
+  <si>
+    <t>2h 11m</t>
+  </si>
+  <si>
+    <t>1h 48m</t>
+  </si>
+  <si>
+    <t>1h 39m</t>
+  </si>
+  <si>
+    <t>3h 38m</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>1h 47m</t>
+  </si>
+  <si>
+    <t>2h 8m</t>
+  </si>
+  <si>
+    <t>2h 9m</t>
+  </si>
+  <si>
+    <t>2h 3m</t>
+  </si>
+  <si>
+    <t>2h 42m</t>
+  </si>
+  <si>
+    <t>1h 44m</t>
+  </si>
+  <si>
+    <t>2h 18m</t>
+  </si>
+  <si>
     <t>1h 29m</t>
   </si>
   <si>
-    <t>1h 42m</t>
-  </si>
-  <si>
-    <t>1h 52m</t>
-  </si>
-  <si>
-    <t>2h 54m</t>
-  </si>
-  <si>
-    <t>1h 27m</t>
-  </si>
-  <si>
-    <t>1h 57m</t>
-  </si>
-  <si>
-    <t>2h 45m</t>
-  </si>
-  <si>
-    <t>2h 27m</t>
-  </si>
-  <si>
-    <t>1h 53m</t>
-  </si>
-  <si>
-    <t>1h 38m</t>
-  </si>
-  <si>
-    <t>1h 55m</t>
-  </si>
-  <si>
-    <t>2h 29m</t>
-  </si>
-  <si>
-    <t>2h 26m</t>
-  </si>
-  <si>
-    <t>2h 33m</t>
-  </si>
-  <si>
-    <t>2h 44m</t>
-  </si>
-  <si>
-    <t>1h 45m</t>
-  </si>
-  <si>
-    <t>2h 40m</t>
-  </si>
-  <si>
-    <t>1h 35m</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>2h 2m</t>
-  </si>
-  <si>
-    <t>1h 21m</t>
-  </si>
-  <si>
-    <t>3h 1m</t>
-  </si>
-  <si>
-    <t>2h 6m</t>
-  </si>
-  <si>
-    <t>2h 14m</t>
-  </si>
-  <si>
-    <t>2h 23m</t>
-  </si>
-  <si>
-    <t>2h 50m</t>
-  </si>
-  <si>
-    <t>3h 49m</t>
-  </si>
-  <si>
-    <t>1h 43m</t>
-  </si>
-  <si>
-    <t>2h 11m</t>
-  </si>
-  <si>
-    <t>1h 48m</t>
-  </si>
-  <si>
-    <t>1h 39m</t>
-  </si>
-  <si>
-    <t>3h 38m</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>1h 47m</t>
-  </si>
-  <si>
-    <t>2h 8m</t>
-  </si>
-  <si>
-    <t>2h 9m</t>
-  </si>
-  <si>
-    <t>2h 3m</t>
-  </si>
-  <si>
-    <t>2h 42m</t>
-  </si>
-  <si>
-    <t>1h 44m</t>
-  </si>
-  <si>
-    <t>2h 18m</t>
-  </si>
-  <si>
     <t>1h 54m</t>
   </si>
   <si>
@@ -1316,12 +1316,12 @@
     <t>3h 32m</t>
   </si>
   <si>
+    <t>3h 5m</t>
+  </si>
+  <si>
     <t>1h 41m</t>
   </si>
   <si>
-    <t>3h 5m</t>
-  </si>
-  <si>
     <t>1h 32m</t>
   </si>
   <si>
@@ -1341,9 +1341,6 @@
   </si>
   <si>
     <t>2h 43m</t>
-  </si>
-  <si>
-    <t>5h 21m</t>
   </si>
   <si>
     <t>9.3</t>
@@ -1771,7 +1768,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1785,7 +1782,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1799,7 +1796,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1813,7 +1810,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1827,7 +1824,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1841,7 +1838,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1855,7 +1852,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1869,7 +1866,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1883,7 +1880,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1897,7 +1894,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1911,7 +1908,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1925,7 +1922,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1939,7 +1936,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1953,7 +1950,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1967,7 +1964,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1981,7 +1978,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1995,7 +1992,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2009,7 +2006,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2023,7 +2020,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2037,7 +2034,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2051,7 +2048,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2065,7 +2062,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2079,7 +2076,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2093,7 +2090,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2107,7 +2104,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2121,7 +2118,7 @@
         <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2135,7 +2132,7 @@
         <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2149,7 +2146,7 @@
         <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2163,7 +2160,7 @@
         <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2177,7 +2174,7 @@
         <v>362</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2191,7 +2188,7 @@
         <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2205,7 +2202,7 @@
         <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2219,7 +2216,7 @@
         <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2233,7 +2230,7 @@
         <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2247,7 +2244,7 @@
         <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2261,7 +2258,7 @@
         <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2275,7 +2272,7 @@
         <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2289,7 +2286,7 @@
         <v>373</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2303,7 +2300,7 @@
         <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2317,7 +2314,7 @@
         <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2331,7 +2328,7 @@
         <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2345,7 +2342,7 @@
         <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2359,7 +2356,7 @@
         <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2370,10 +2367,10 @@
         <v>283</v>
       </c>
       <c r="C45" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D45" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2387,7 +2384,7 @@
         <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2401,7 +2398,7 @@
         <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2412,10 +2409,10 @@
         <v>285</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2426,10 +2423,10 @@
         <v>286</v>
       </c>
       <c r="C49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D49" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2440,10 +2437,10 @@
         <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2454,10 +2451,10 @@
         <v>287</v>
       </c>
       <c r="C51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2468,10 +2465,10 @@
         <v>271</v>
       </c>
       <c r="C52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2482,10 +2479,10 @@
         <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2496,10 +2493,10 @@
         <v>289</v>
       </c>
       <c r="C54" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2510,10 +2507,10 @@
         <v>290</v>
       </c>
       <c r="C55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D55" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2524,10 +2521,10 @@
         <v>291</v>
       </c>
       <c r="C56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2538,10 +2535,10 @@
         <v>289</v>
       </c>
       <c r="C57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D57" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2552,10 +2549,10 @@
         <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2566,10 +2563,10 @@
         <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2580,10 +2577,10 @@
         <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2591,13 +2588,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2611,7 +2608,7 @@
         <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2625,7 +2622,7 @@
         <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2636,10 +2633,10 @@
         <v>294</v>
       </c>
       <c r="C64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2653,7 +2650,7 @@
         <v>371</v>
       </c>
       <c r="D65" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2664,10 +2661,10 @@
         <v>294</v>
       </c>
       <c r="C66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2681,7 +2678,7 @@
         <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2692,10 +2689,10 @@
         <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2709,7 +2706,7 @@
         <v>366</v>
       </c>
       <c r="D69" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2723,7 +2720,7 @@
         <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2734,10 +2731,10 @@
         <v>297</v>
       </c>
       <c r="C71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D71" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2748,10 +2745,10 @@
         <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D72" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2762,10 +2759,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D73" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2776,10 +2773,10 @@
         <v>299</v>
       </c>
       <c r="C74" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2790,10 +2787,10 @@
         <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2804,10 +2801,10 @@
         <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2818,10 +2815,10 @@
         <v>263</v>
       </c>
       <c r="C77" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2832,10 +2829,10 @@
         <v>268</v>
       </c>
       <c r="C78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D78" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2846,10 +2843,10 @@
         <v>277</v>
       </c>
       <c r="C79" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2860,10 +2857,10 @@
         <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2877,7 +2874,7 @@
         <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2888,10 +2885,10 @@
         <v>274</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2902,10 +2899,10 @@
         <v>274</v>
       </c>
       <c r="C83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2916,10 +2913,10 @@
         <v>277</v>
       </c>
       <c r="C84" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D84" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2933,7 +2930,7 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2944,10 +2941,10 @@
         <v>302</v>
       </c>
       <c r="C86" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D86" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2958,10 +2955,10 @@
         <v>297</v>
       </c>
       <c r="C87" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2972,10 +2969,10 @@
         <v>299</v>
       </c>
       <c r="C88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D88" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2986,10 +2983,10 @@
         <v>303</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3000,10 +2997,10 @@
         <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3017,7 +3014,7 @@
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3028,10 +3025,10 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D92" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3042,10 +3039,10 @@
         <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3056,10 +3053,10 @@
         <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D94" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3070,10 +3067,10 @@
         <v>305</v>
       </c>
       <c r="C95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3084,10 +3081,10 @@
         <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3098,10 +3095,10 @@
         <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D97" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3112,10 +3109,10 @@
         <v>306</v>
       </c>
       <c r="C98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D98" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3126,10 +3123,10 @@
         <v>303</v>
       </c>
       <c r="C99" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3140,10 +3137,10 @@
         <v>284</v>
       </c>
       <c r="C100" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3157,7 +3154,7 @@
         <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3165,13 +3162,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D102" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3182,10 +3179,10 @@
         <v>264</v>
       </c>
       <c r="C103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D103" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3199,7 +3196,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3213,7 +3210,7 @@
         <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3224,10 +3221,10 @@
         <v>304</v>
       </c>
       <c r="C106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D106" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3238,10 +3235,10 @@
         <v>309</v>
       </c>
       <c r="C107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3252,10 +3249,10 @@
         <v>290</v>
       </c>
       <c r="C108" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D108" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3266,10 +3263,10 @@
         <v>310</v>
       </c>
       <c r="C109" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D109" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3283,7 +3280,7 @@
         <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3294,10 +3291,10 @@
         <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D111" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3308,10 +3305,10 @@
         <v>268</v>
       </c>
       <c r="C112" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3325,7 +3322,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3339,7 +3336,7 @@
         <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3350,10 +3347,10 @@
         <v>284</v>
       </c>
       <c r="C115" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3364,10 +3361,10 @@
         <v>313</v>
       </c>
       <c r="C116" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D116" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3378,10 +3375,10 @@
         <v>286</v>
       </c>
       <c r="C117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3395,7 +3392,7 @@
         <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3409,7 +3406,7 @@
         <v>368</v>
       </c>
       <c r="D119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3420,10 +3417,10 @@
         <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D120" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3434,10 +3431,10 @@
         <v>316</v>
       </c>
       <c r="C121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3448,10 +3445,10 @@
         <v>279</v>
       </c>
       <c r="C122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3465,7 +3462,7 @@
         <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3476,10 +3473,10 @@
         <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3490,10 +3487,10 @@
         <v>317</v>
       </c>
       <c r="C125" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="D125" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3504,10 +3501,10 @@
         <v>318</v>
       </c>
       <c r="C126" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3521,7 +3518,7 @@
         <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3535,7 +3532,7 @@
         <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3549,7 +3546,7 @@
         <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3560,10 +3557,10 @@
         <v>320</v>
       </c>
       <c r="C130" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D130" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3577,7 +3574,7 @@
         <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3588,10 +3585,10 @@
         <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D132" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3605,7 +3602,7 @@
         <v>365</v>
       </c>
       <c r="D133" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3619,7 +3616,7 @@
         <v>359</v>
       </c>
       <c r="D134" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3633,7 +3630,7 @@
         <v>420</v>
       </c>
       <c r="D135" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3647,7 +3644,7 @@
         <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3661,7 +3658,7 @@
         <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3672,10 +3669,10 @@
         <v>273</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D138" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3686,10 +3683,10 @@
         <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D139" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3700,10 +3697,10 @@
         <v>264</v>
       </c>
       <c r="C140" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D140" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3717,7 +3714,7 @@
         <v>359</v>
       </c>
       <c r="D141" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3731,7 +3728,7 @@
         <v>422</v>
       </c>
       <c r="D142" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3745,7 +3742,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3759,7 +3756,7 @@
         <v>357</v>
       </c>
       <c r="D144" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3770,10 +3767,10 @@
         <v>276</v>
       </c>
       <c r="C145" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D145" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3784,10 +3781,10 @@
         <v>263</v>
       </c>
       <c r="C146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D146" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3801,7 +3798,7 @@
         <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3815,7 +3812,7 @@
         <v>359</v>
       </c>
       <c r="D148" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3826,10 +3823,10 @@
         <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3843,7 +3840,7 @@
         <v>423</v>
       </c>
       <c r="D150" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3857,7 +3854,7 @@
         <v>369</v>
       </c>
       <c r="D151" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3871,7 +3868,7 @@
         <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3882,10 +3879,10 @@
         <v>317</v>
       </c>
       <c r="C153" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D153" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3899,7 +3896,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3913,7 +3910,7 @@
         <v>425</v>
       </c>
       <c r="D155" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3927,7 +3924,7 @@
         <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3941,7 +3938,7 @@
         <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3952,10 +3949,10 @@
         <v>322</v>
       </c>
       <c r="C158" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D158" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3969,7 +3966,7 @@
         <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3983,7 +3980,7 @@
         <v>371</v>
       </c>
       <c r="D160" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3997,7 +3994,7 @@
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4008,10 +4005,10 @@
         <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D162" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4025,7 +4022,7 @@
         <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4039,7 +4036,7 @@
         <v>428</v>
       </c>
       <c r="D164" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4050,10 +4047,10 @@
         <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D165" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4061,13 +4058,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C166" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D166" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4075,13 +4072,13 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C167" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="D167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4092,10 +4089,10 @@
         <v>297</v>
       </c>
       <c r="C168" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D168" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4106,10 +4103,10 @@
         <v>265</v>
       </c>
       <c r="C169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4120,10 +4117,10 @@
         <v>298</v>
       </c>
       <c r="C170" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D170" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4137,7 +4134,7 @@
         <v>429</v>
       </c>
       <c r="D171" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4151,7 +4148,7 @@
         <v>349</v>
       </c>
       <c r="D172" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4165,7 +4162,7 @@
         <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4176,10 +4173,10 @@
         <v>329</v>
       </c>
       <c r="C174" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D174" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4193,7 +4190,7 @@
         <v>430</v>
       </c>
       <c r="D175" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4204,10 +4201,10 @@
         <v>286</v>
       </c>
       <c r="C176" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4221,7 +4218,7 @@
         <v>352</v>
       </c>
       <c r="D177" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4235,7 +4232,7 @@
         <v>362</v>
       </c>
       <c r="D178" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4249,7 +4246,7 @@
         <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4263,7 +4260,7 @@
         <v>368</v>
       </c>
       <c r="D180" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4277,7 +4274,7 @@
         <v>431</v>
       </c>
       <c r="D181" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4288,10 +4285,10 @@
         <v>274</v>
       </c>
       <c r="C182" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="D182" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4302,10 +4299,10 @@
         <v>322</v>
       </c>
       <c r="C183" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D183" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4319,7 +4316,7 @@
         <v>432</v>
       </c>
       <c r="D184" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4330,10 +4327,10 @@
         <v>328</v>
       </c>
       <c r="C185" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D185" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4344,10 +4341,10 @@
         <v>326</v>
       </c>
       <c r="C186" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D186" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4355,13 +4352,13 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C187" t="s">
         <v>433</v>
       </c>
       <c r="D187" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4369,13 +4366,13 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C188" t="s">
         <v>434</v>
       </c>
       <c r="D188" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4386,10 +4383,10 @@
         <v>269</v>
       </c>
       <c r="C189" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D189" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4397,13 +4394,13 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="C190" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="D190" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4411,13 +4408,13 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C191" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="D191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4428,10 +4425,10 @@
         <v>314</v>
       </c>
       <c r="C192" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4442,10 +4439,10 @@
         <v>259</v>
       </c>
       <c r="C193" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D193" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4456,10 +4453,10 @@
         <v>331</v>
       </c>
       <c r="C194" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D194" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4473,7 +4470,7 @@
         <v>356</v>
       </c>
       <c r="D195" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4487,7 +4484,7 @@
         <v>435</v>
       </c>
       <c r="D196" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4498,10 +4495,10 @@
         <v>269</v>
       </c>
       <c r="C197" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D197" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4515,7 +4512,7 @@
         <v>436</v>
       </c>
       <c r="D198" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4529,7 +4526,7 @@
         <v>437</v>
       </c>
       <c r="D199" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4540,10 +4537,10 @@
         <v>271</v>
       </c>
       <c r="C200" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4557,7 +4554,7 @@
         <v>438</v>
       </c>
       <c r="D201" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4571,7 +4568,7 @@
         <v>353</v>
       </c>
       <c r="D202" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4582,10 +4579,10 @@
         <v>264</v>
       </c>
       <c r="C203" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4599,7 +4596,7 @@
         <v>424</v>
       </c>
       <c r="D204" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4613,7 +4610,7 @@
         <v>435</v>
       </c>
       <c r="D205" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4624,10 +4621,10 @@
         <v>335</v>
       </c>
       <c r="C206" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D206" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4638,10 +4635,10 @@
         <v>336</v>
       </c>
       <c r="C207" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D207" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4655,7 +4652,7 @@
         <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4666,10 +4663,10 @@
         <v>327</v>
       </c>
       <c r="C209" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D209" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4683,7 +4680,7 @@
         <v>342</v>
       </c>
       <c r="D210" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4697,7 +4694,7 @@
         <v>354</v>
       </c>
       <c r="D211" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4708,10 +4705,10 @@
         <v>273</v>
       </c>
       <c r="C212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D212" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4722,10 +4719,10 @@
         <v>319</v>
       </c>
       <c r="C213" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D213" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4739,7 +4736,7 @@
         <v>344</v>
       </c>
       <c r="D214" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4753,7 +4750,7 @@
         <v>361</v>
       </c>
       <c r="D215" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4767,7 +4764,7 @@
         <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4778,10 +4775,10 @@
         <v>328</v>
       </c>
       <c r="C217" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D217" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4795,7 +4792,7 @@
         <v>365</v>
       </c>
       <c r="D218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4806,10 +4803,10 @@
         <v>299</v>
       </c>
       <c r="C219" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D219" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4820,10 +4817,10 @@
         <v>296</v>
       </c>
       <c r="C220" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D220" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4834,10 +4831,10 @@
         <v>268</v>
       </c>
       <c r="C221" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D221" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4851,7 +4848,7 @@
         <v>439</v>
       </c>
       <c r="D222" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4865,7 +4862,7 @@
         <v>375</v>
       </c>
       <c r="D223" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4876,10 +4873,10 @@
         <v>259</v>
       </c>
       <c r="C224" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D224" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4890,10 +4887,10 @@
         <v>270</v>
       </c>
       <c r="C225" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4904,10 +4901,10 @@
         <v>330</v>
       </c>
       <c r="C226" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D226" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4918,10 +4915,10 @@
         <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D227" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4932,10 +4929,10 @@
         <v>322</v>
       </c>
       <c r="C228" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D228" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4943,13 +4940,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C229" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D229" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4957,13 +4954,13 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C230" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="D230" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4971,10 +4968,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C231" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D231" t="s">
         <v>454</v>
@@ -4985,13 +4982,13 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C232" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="D232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5005,7 +5002,7 @@
         <v>429</v>
       </c>
       <c r="D233" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5019,7 +5016,7 @@
         <v>426</v>
       </c>
       <c r="D234" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5033,7 +5030,7 @@
         <v>355</v>
       </c>
       <c r="D235" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5044,10 +5041,10 @@
         <v>320</v>
       </c>
       <c r="C236" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D236" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5058,10 +5055,10 @@
         <v>285</v>
       </c>
       <c r="C237" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D237" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5075,7 +5072,7 @@
         <v>352</v>
       </c>
       <c r="D238" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5089,7 +5086,7 @@
         <v>365</v>
       </c>
       <c r="D239" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5100,10 +5097,10 @@
         <v>258</v>
       </c>
       <c r="C240" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D240" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5114,10 +5111,10 @@
         <v>295</v>
       </c>
       <c r="C241" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D241" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5131,7 +5128,7 @@
         <v>431</v>
       </c>
       <c r="D242" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5145,7 +5142,7 @@
         <v>347</v>
       </c>
       <c r="D243" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5159,7 +5156,7 @@
         <v>359</v>
       </c>
       <c r="D244" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5173,7 +5170,7 @@
         <v>357</v>
       </c>
       <c r="D245" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5184,10 +5181,10 @@
         <v>286</v>
       </c>
       <c r="C246" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D246" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5195,13 +5192,13 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="C247" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="D247" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5209,13 +5206,13 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="C248" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="D248" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5223,13 +5220,13 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C249" t="s">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="D249" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5243,7 +5240,7 @@
         <v>441</v>
       </c>
       <c r="D250" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5251,13 +5248,13 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C251" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="D251" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5298,7 +5295,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5312,7 +5309,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5326,7 +5323,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5340,7 +5337,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5354,7 +5351,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5368,7 +5365,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5382,7 +5379,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5396,7 +5393,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5410,7 +5407,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5424,7 +5421,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5438,7 +5435,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5452,7 +5449,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5466,7 +5463,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5480,7 +5477,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5494,7 +5491,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5508,7 +5505,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5522,7 +5519,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5536,7 +5533,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5550,7 +5547,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5564,7 +5561,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5578,7 +5575,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5592,7 +5589,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5606,7 +5603,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5620,7 +5617,7 @@
         <v>358</v>
       </c>
       <c r="D25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5634,7 +5631,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -83,12 +83,12 @@
     <t>Um Estranho no Ninho</t>
   </si>
   <si>
+    <t>Interestelar</t>
+  </si>
+  <si>
     <t>Seven: Os Sete Crimes Capitais</t>
   </si>
   <si>
-    <t>Interestelar</t>
-  </si>
-  <si>
     <t>A Felicidade Não se Compra</t>
   </si>
   <si>
@@ -446,12 +446,12 @@
     <t>Ilha do Medo</t>
   </si>
   <si>
+    <t>Sangue Negro</t>
+  </si>
+  <si>
     <t>Top Gun: Maverick</t>
   </si>
   <si>
-    <t>Sangue Negro</t>
-  </si>
-  <si>
     <t>Cassino</t>
   </si>
   <si>
@@ -488,12 +488,12 @@
     <t>Yojimbo, o Guarda-Costas</t>
   </si>
   <si>
+    <t>Fugindo do Inferno</t>
+  </si>
+  <si>
     <t>Monty Python em Busca do Cálice Sagrado</t>
   </si>
   <si>
-    <t>Fugindo do Inferno</t>
-  </si>
-  <si>
     <t>Procurando Nemo</t>
   </si>
   <si>
@@ -542,12 +542,12 @@
     <t>Klaus</t>
   </si>
   <si>
+    <t>Prenda-Me se for Capaz</t>
+  </si>
+  <si>
     <t>Fargo: Uma Comédia de Erros</t>
   </si>
   <si>
-    <t>Prenda-Me se for Capaz</t>
-  </si>
-  <si>
     <t>Guerreiro</t>
   </si>
   <si>
@@ -560,6 +560,9 @@
     <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
   </si>
   <si>
+    <t>Deadpool &amp; Wolverine</t>
+  </si>
+  <si>
     <t>Menina de Ouro</t>
   </si>
   <si>
@@ -581,12 +584,12 @@
     <t>Blade Runner - O Caçador de Androides</t>
   </si>
   <si>
+    <t>Antes do Amanhecer</t>
+  </si>
+  <si>
     <t>Barry Lyndon</t>
   </si>
   <si>
-    <t>Antes do Amanhecer</t>
-  </si>
-  <si>
     <t>O Grande Hotel Budapeste</t>
   </si>
   <si>
@@ -656,12 +659,12 @@
     <t>Era uma Vez em Tóquio</t>
   </si>
   <si>
+    <t>Rocky, um Lutador</t>
+  </si>
+  <si>
     <t>O Grande Lebowski</t>
   </si>
   <si>
-    <t>Rocky, um Lutador</t>
-  </si>
-  <si>
     <t>O Sétimo Selo</t>
   </si>
   <si>
@@ -674,12 +677,12 @@
     <t>Spotlight: Segredos Revelados</t>
   </si>
   <si>
+    <t>O Exterminador do Futuro</t>
+  </si>
+  <si>
     <t>Hotel Ruanda</t>
   </si>
   <si>
-    <t>O Exterminador do Futuro</t>
-  </si>
-  <si>
     <t>Platoon</t>
   </si>
   <si>
@@ -689,12 +692,12 @@
     <t>Antes do Pôr do Sol</t>
   </si>
   <si>
+    <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
+  </si>
+  <si>
     <t>O Martírio de Joana D'Arc</t>
   </si>
   <si>
-    <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
-  </si>
-  <si>
     <t>Os Melhores Anos de Nossa Vida</t>
   </si>
   <si>
@@ -761,7 +764,7 @@
     <t>Histórias Cruzadas</t>
   </si>
   <si>
-    <t>Deadpool &amp; Wolverine</t>
+    <t>Maharaja</t>
   </si>
   <si>
     <t>Aconteceu Naquela Noite</t>
@@ -773,9 +776,6 @@
     <t>A Chantagem</t>
   </si>
   <si>
-    <t>Demon Slayer: Mugen Train - O Filme</t>
-  </si>
-  <si>
     <t>1994</t>
   </si>
   <si>
@@ -821,12 +821,12 @@
     <t>1975</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>1995</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>1946</t>
   </si>
   <si>
@@ -1088,12 +1088,12 @@
     <t>2h 13m</t>
   </si>
   <si>
+    <t>2h 49m</t>
+  </si>
+  <si>
     <t>2h 7m</t>
   </si>
   <si>
-    <t>2h 49m</t>
-  </si>
-  <si>
     <t>2h 10m</t>
   </si>
   <si>
@@ -1292,12 +1292,12 @@
     <t>1h 51m</t>
   </si>
   <si>
+    <t>2h 52m</t>
+  </si>
+  <si>
     <t>1h 31m</t>
   </si>
   <si>
-    <t>2h 52m</t>
-  </si>
-  <si>
     <t>1h 40m</t>
   </si>
   <si>
@@ -1316,10 +1316,10 @@
     <t>3h 32m</t>
   </si>
   <si>
+    <t>1h 41m</t>
+  </si>
+  <si>
     <t>3h 5m</t>
-  </si>
-  <si>
-    <t>1h 41m</t>
   </si>
   <si>
     <t>1h 32m</t>
@@ -2020,7 +2020,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2034,7 +2034,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2087,7 +2087,7 @@
         <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D25" t="s">
         <v>448</v>
@@ -2336,7 +2336,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
         <v>377</v>
@@ -2392,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C47" t="s">
         <v>377</v>
@@ -2826,7 +2826,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C78" t="s">
         <v>397</v>
@@ -2868,7 +2868,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
         <v>348</v>
@@ -3302,7 +3302,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s">
         <v>402</v>
@@ -3389,7 +3389,7 @@
         <v>314</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D118" t="s">
         <v>452</v>
@@ -3708,10 +3708,10 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C141" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="D141" t="s">
         <v>452</v>
@@ -3722,10 +3722,10 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="D142" t="s">
         <v>452</v>
@@ -3736,7 +3736,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s">
         <v>348</v>
@@ -3753,7 +3753,7 @@
         <v>258</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D144" t="s">
         <v>452</v>
@@ -3904,7 +3904,7 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C155" t="s">
         <v>425</v>
@@ -3918,7 +3918,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="C156" t="s">
         <v>426</v>
@@ -4170,10 +4170,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C174" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="D174" t="s">
         <v>453</v>
@@ -4184,10 +4184,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="C175" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="D175" t="s">
         <v>453</v>
@@ -4254,13 +4254,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C180" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D180" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4268,10 +4268,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s">
-        <v>431</v>
+        <v>368</v>
       </c>
       <c r="D181" t="s">
         <v>453</v>
@@ -4282,13 +4282,13 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="D182" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4296,13 +4296,13 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C183" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4310,10 +4310,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C184" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="D184" t="s">
         <v>453</v>
@@ -4324,10 +4324,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="D185" t="s">
         <v>453</v>
@@ -4338,10 +4338,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C186" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D186" t="s">
         <v>453</v>
@@ -4352,10 +4352,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>267</v>
+        <v>326</v>
       </c>
       <c r="C187" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="D187" t="s">
         <v>453</v>
@@ -4366,10 +4366,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D188" t="s">
         <v>453</v>
@@ -4380,10 +4380,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C189" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="D189" t="s">
         <v>453</v>
@@ -4394,10 +4394,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="C190" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="D190" t="s">
         <v>453</v>
@@ -4408,10 +4408,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="C191" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="D191" t="s">
         <v>453</v>
@@ -4422,10 +4422,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C192" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D192" t="s">
         <v>453</v>
@@ -4436,10 +4436,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C193" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D193" t="s">
         <v>453</v>
@@ -4450,10 +4450,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="C194" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="D194" t="s">
         <v>453</v>
@@ -4464,10 +4464,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="C195" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="D195" t="s">
         <v>453</v>
@@ -4478,10 +4478,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C196" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
       <c r="D196" t="s">
         <v>453</v>
@@ -4492,10 +4492,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C197" t="s">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="D197" t="s">
         <v>453</v>
@@ -4506,10 +4506,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="C198" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="D198" t="s">
         <v>453</v>
@@ -4520,10 +4520,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D199" t="s">
         <v>453</v>
@@ -4534,10 +4534,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="C200" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="D200" t="s">
         <v>453</v>
@@ -4548,13 +4548,13 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C201" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D201" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4562,13 +4562,13 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="C202" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="D202" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4576,10 +4576,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C203" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="D203" t="s">
         <v>453</v>
@@ -4590,10 +4590,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="C204" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="D204" t="s">
         <v>453</v>
@@ -4604,10 +4604,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C205" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="D205" t="s">
         <v>453</v>
@@ -4618,10 +4618,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="D206" t="s">
         <v>453</v>
@@ -4632,10 +4632,10 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C207" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D207" t="s">
         <v>453</v>
@@ -4646,10 +4646,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C208" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="D208" t="s">
         <v>453</v>
@@ -4660,10 +4660,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="C209" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="D209" t="s">
         <v>453</v>
@@ -4674,10 +4674,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="C210" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="D210" t="s">
         <v>453</v>
@@ -4688,10 +4688,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="C211" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D211" t="s">
         <v>453</v>
@@ -4702,10 +4702,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="C212" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D212" t="s">
         <v>453</v>
@@ -4730,10 +4730,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C214" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="D214" t="s">
         <v>453</v>
@@ -4744,10 +4744,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="C215" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D215" t="s">
         <v>453</v>
@@ -4758,10 +4758,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C216" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D216" t="s">
         <v>453</v>
@@ -4772,10 +4772,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C217" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="D217" t="s">
         <v>453</v>
@@ -4786,10 +4786,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="C218" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="D218" t="s">
         <v>453</v>
@@ -4814,10 +4814,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C220" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="D220" t="s">
         <v>453</v>
@@ -4828,10 +4828,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C221" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D221" t="s">
         <v>453</v>
@@ -4842,10 +4842,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="C222" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="D222" t="s">
         <v>453</v>
@@ -4856,10 +4856,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="C223" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="D223" t="s">
         <v>453</v>
@@ -4884,10 +4884,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="C225" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="D225" t="s">
         <v>453</v>
@@ -4898,13 +4898,13 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="C226" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D226" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4912,13 +4912,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C227" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D227" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4926,10 +4926,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C228" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="D228" t="s">
         <v>453</v>
@@ -4940,10 +4940,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C229" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="D229" t="s">
         <v>453</v>
@@ -4954,10 +4954,10 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C230" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D230" t="s">
         <v>453</v>
@@ -4968,13 +4968,13 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="C231" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D231" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4982,13 +4982,13 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C232" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="D232" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4996,10 +4996,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C233" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D233" t="s">
         <v>453</v>
@@ -5010,10 +5010,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C234" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D234" t="s">
         <v>453</v>
@@ -5024,10 +5024,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C235" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="D235" t="s">
         <v>453</v>
@@ -5038,13 +5038,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C236" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5052,13 +5052,13 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C237" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="D237" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5066,10 +5066,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C238" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D238" t="s">
         <v>453</v>
@@ -5080,10 +5080,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C239" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D239" t="s">
         <v>453</v>
@@ -5094,13 +5094,13 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C240" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="D240" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5108,13 +5108,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C241" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="D241" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5122,10 +5122,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C242" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D242" t="s">
         <v>453</v>
@@ -5136,10 +5136,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C243" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="D243" t="s">
         <v>453</v>
@@ -5150,10 +5150,10 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C244" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D244" t="s">
         <v>453</v>
@@ -5164,10 +5164,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="C245" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D245" t="s">
         <v>453</v>
@@ -5178,10 +5178,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C246" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="D246" t="s">
         <v>453</v>
@@ -5192,13 +5192,13 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C247" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="D247" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5206,13 +5206,13 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="C248" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D248" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5220,13 +5220,13 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="C249" t="s">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="D249" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5234,13 +5234,13 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C250" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D250" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5248,10 +5248,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C251" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="D251" t="s">
         <v>452</v>
@@ -5547,7 +5547,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5561,7 +5561,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5614,7 +5614,7 @@
         <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D25" t="s">
         <v>448</v>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="454">
   <si>
     <t>film_name</t>
   </si>
@@ -263,12 +263,12 @@
     <t>Vingadores: Ultimato</t>
   </si>
   <si>
+    <t>Coração Valente</t>
+  </si>
+  <si>
     <t>O Barco: Inferno no Mar</t>
   </si>
   <si>
-    <t>Coração Valente</t>
-  </si>
-  <si>
     <t>Gênio Indomável</t>
   </si>
   <si>
@@ -377,12 +377,12 @@
     <t>A Separação</t>
   </si>
   <si>
+    <t>Duro de Matar</t>
+  </si>
+  <si>
     <t>Indiana Jones e a Última Cruzada</t>
   </si>
   <si>
-    <t>Duro de Matar</t>
-  </si>
-  <si>
     <t>Como Estrelas na Terra</t>
   </si>
   <si>
@@ -422,12 +422,12 @@
     <t>O Lobo de Wall Street</t>
   </si>
   <si>
+    <t>Green Book: O Guia</t>
+  </si>
+  <si>
     <t>Quanto Mais Quente Melhor</t>
   </si>
   <si>
-    <t>Green Book: O Guia</t>
-  </si>
-  <si>
     <t>O Garoto</t>
   </si>
   <si>
@@ -518,12 +518,12 @@
     <t>Jogos, Trapaças e Dois Canos Fumegantes</t>
   </si>
   <si>
+    <t>V de Vingança</t>
+  </si>
+  <si>
     <t>Divertida Mente</t>
   </si>
   <si>
-    <t>V de Vingança</t>
-  </si>
-  <si>
     <t>O Segredo dos Seus Olhos</t>
   </si>
   <si>
@@ -560,102 +560,102 @@
     <t>Harry Potter e as Relíquias da Morte - Parte 2</t>
   </si>
   <si>
+    <t>Menina de Ouro</t>
+  </si>
+  <si>
+    <t>Meu Amigo Totoro</t>
+  </si>
+  <si>
+    <t>Filhos do Paraíso</t>
+  </si>
+  <si>
+    <t>12 Anos de Escravidão</t>
+  </si>
+  <si>
+    <t>Ben-Hur</t>
+  </si>
+  <si>
+    <t>Mad Max: Estrada da Fúria</t>
+  </si>
+  <si>
+    <t>Barry Lyndon</t>
+  </si>
+  <si>
+    <t>Blade Runner - O Caçador de Androides</t>
+  </si>
+  <si>
+    <t>Antes do Amanhecer</t>
+  </si>
+  <si>
+    <t>O Grande Hotel Budapeste</t>
+  </si>
+  <si>
+    <t>Até o Último Homem</t>
+  </si>
+  <si>
+    <t>Garota Exemplar</t>
+  </si>
+  <si>
+    <t>Sociedade dos Poetas Mortos</t>
+  </si>
+  <si>
+    <t>Memórias de um Assassino</t>
+  </si>
+  <si>
+    <t>Em Busca do Ouro</t>
+  </si>
+  <si>
+    <t>Em Nome do Pai</t>
+  </si>
+  <si>
+    <t>Monstros S.A.</t>
+  </si>
+  <si>
+    <t>Relatos Selvagens</t>
+  </si>
+  <si>
+    <t>O Franco Atirador</t>
+  </si>
+  <si>
+    <t>A General</t>
+  </si>
+  <si>
+    <t>Sindicato de Ladrões</t>
+  </si>
+  <si>
+    <t>Bancando o Águia</t>
+  </si>
+  <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
+    <t>Como Treinar o Seu Dragão</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Mary e Max - Uma Amizade Diferente</t>
+  </si>
+  <si>
+    <t>O 3º Homem</t>
+  </si>
+  <si>
+    <t>O Salário do Medo</t>
+  </si>
+  <si>
+    <t>Morangos Silvestres</t>
+  </si>
+  <si>
+    <t>A Mulher Faz o Homem</t>
+  </si>
+  <si>
+    <t>Ford vs. Ferrari</t>
+  </si>
+  <si>
     <t>Deadpool &amp; Wolverine</t>
   </si>
   <si>
-    <t>Menina de Ouro</t>
-  </si>
-  <si>
-    <t>Meu Amigo Totoro</t>
-  </si>
-  <si>
-    <t>Filhos do Paraíso</t>
-  </si>
-  <si>
-    <t>12 Anos de Escravidão</t>
-  </si>
-  <si>
-    <t>Ben-Hur</t>
-  </si>
-  <si>
-    <t>Mad Max: Estrada da Fúria</t>
-  </si>
-  <si>
-    <t>Blade Runner - O Caçador de Androides</t>
-  </si>
-  <si>
-    <t>Antes do Amanhecer</t>
-  </si>
-  <si>
-    <t>Barry Lyndon</t>
-  </si>
-  <si>
-    <t>O Grande Hotel Budapeste</t>
-  </si>
-  <si>
-    <t>Até o Último Homem</t>
-  </si>
-  <si>
-    <t>Garota Exemplar</t>
-  </si>
-  <si>
-    <t>Sociedade dos Poetas Mortos</t>
-  </si>
-  <si>
-    <t>Memórias de um Assassino</t>
-  </si>
-  <si>
-    <t>Em Busca do Ouro</t>
-  </si>
-  <si>
-    <t>Em Nome do Pai</t>
-  </si>
-  <si>
-    <t>Monstros S.A.</t>
-  </si>
-  <si>
-    <t>Relatos Selvagens</t>
-  </si>
-  <si>
-    <t>O Franco Atirador</t>
-  </si>
-  <si>
-    <t>A General</t>
-  </si>
-  <si>
-    <t>Sindicato de Ladrões</t>
-  </si>
-  <si>
-    <t>Bancando o Águia</t>
-  </si>
-  <si>
-    <t>Tubarão</t>
-  </si>
-  <si>
-    <t>Como Treinar o Seu Dragão</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Mary e Max - Uma Amizade Diferente</t>
-  </si>
-  <si>
-    <t>O 3º Homem</t>
-  </si>
-  <si>
-    <t>O Salário do Medo</t>
-  </si>
-  <si>
-    <t>Morangos Silvestres</t>
-  </si>
-  <si>
-    <t>A Mulher Faz o Homem</t>
-  </si>
-  <si>
-    <t>Ford vs. Ferrari</t>
-  </si>
-  <si>
     <t>Era uma Vez em Tóquio</t>
   </si>
   <si>
@@ -668,12 +668,12 @@
     <t>O Sétimo Selo</t>
   </si>
   <si>
+    <t>Logan</t>
+  </si>
+  <si>
     <t>O Quarto de Jack</t>
   </si>
   <si>
-    <t>Logan</t>
-  </si>
-  <si>
     <t>Spotlight: Segredos Revelados</t>
   </si>
   <si>
@@ -698,12 +698,12 @@
     <t>O Martírio de Joana D'Arc</t>
   </si>
   <si>
+    <t>Jai Bhim</t>
+  </si>
+  <si>
     <t>Os Melhores Anos de Nossa Vida</t>
   </si>
   <si>
-    <t>Jai Bhim</t>
-  </si>
-  <si>
     <t>O Exorcista</t>
   </si>
   <si>
@@ -725,15 +725,18 @@
     <t>Sempre ao Seu Lado</t>
   </si>
   <si>
+    <t>Maharaja</t>
+  </si>
+  <si>
     <t>A Noviça Rebelde</t>
   </si>
   <si>
+    <t>Meu Pai e Meu Filho</t>
+  </si>
+  <si>
     <t>A Criada</t>
   </si>
   <si>
-    <t>Meu Pai e Meu Filho</t>
-  </si>
-  <si>
     <t>Ser ou Não Ser</t>
   </si>
   <si>
@@ -764,16 +767,13 @@
     <t>Histórias Cruzadas</t>
   </si>
   <si>
-    <t>Maharaja</t>
-  </si>
-  <si>
     <t>Aconteceu Naquela Noite</t>
   </si>
   <si>
     <t>Aladdin</t>
   </si>
   <si>
-    <t>A Chantagem</t>
+    <t>Paris, Texas</t>
   </si>
   <si>
     <t>1994</t>
@@ -1316,12 +1316,12 @@
     <t>3h 32m</t>
   </si>
   <si>
+    <t>3h 5m</t>
+  </si>
+  <si>
     <t>1h 41m</t>
   </si>
   <si>
-    <t>3h 5m</t>
-  </si>
-  <si>
     <t>1h 32m</t>
   </si>
   <si>
@@ -1338,9 +1338,6 @@
   </si>
   <si>
     <t>1h 30m</t>
-  </si>
-  <si>
-    <t>2h 43m</t>
   </si>
   <si>
     <t>9.3</t>
@@ -1768,7 +1765,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1782,7 +1779,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1796,7 +1793,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1810,7 +1807,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1824,7 +1821,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1838,7 +1835,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1852,7 +1849,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1866,7 +1863,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1880,7 +1877,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1894,7 +1891,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1908,7 +1905,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1922,7 +1919,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1936,7 +1933,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1950,7 +1947,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1964,7 +1961,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1978,7 +1975,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1992,7 +1989,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2006,7 +2003,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2020,7 +2017,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2034,7 +2031,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2048,7 +2045,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2062,7 +2059,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2076,7 +2073,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2090,7 +2087,7 @@
         <v>357</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2104,7 +2101,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2118,7 +2115,7 @@
         <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2132,7 +2129,7 @@
         <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2146,7 +2143,7 @@
         <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2160,7 +2157,7 @@
         <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2174,7 +2171,7 @@
         <v>362</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2188,7 +2185,7 @@
         <v>366</v>
       </c>
       <c r="D32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2202,7 +2199,7 @@
         <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2216,7 +2213,7 @@
         <v>368</v>
       </c>
       <c r="D34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2230,7 +2227,7 @@
         <v>369</v>
       </c>
       <c r="D35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2244,7 +2241,7 @@
         <v>370</v>
       </c>
       <c r="D36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2258,7 +2255,7 @@
         <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2272,7 +2269,7 @@
         <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2300,7 +2297,7 @@
         <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2314,7 +2311,7 @@
         <v>375</v>
       </c>
       <c r="D41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2328,7 +2325,7 @@
         <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2342,7 +2339,7 @@
         <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2356,7 +2353,7 @@
         <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2370,7 +2367,7 @@
         <v>371</v>
       </c>
       <c r="D45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2384,7 +2381,7 @@
         <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2398,7 +2395,7 @@
         <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2412,7 +2409,7 @@
         <v>378</v>
       </c>
       <c r="D48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2426,7 +2423,7 @@
         <v>379</v>
       </c>
       <c r="D49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2440,7 +2437,7 @@
         <v>380</v>
       </c>
       <c r="D50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2454,7 +2451,7 @@
         <v>381</v>
       </c>
       <c r="D51" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2468,7 +2465,7 @@
         <v>379</v>
       </c>
       <c r="D52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2482,7 +2479,7 @@
         <v>373</v>
       </c>
       <c r="D53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2496,7 +2493,7 @@
         <v>382</v>
       </c>
       <c r="D54" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2510,7 +2507,7 @@
         <v>381</v>
       </c>
       <c r="D55" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2524,7 +2521,7 @@
         <v>383</v>
       </c>
       <c r="D56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2538,7 +2535,7 @@
         <v>384</v>
       </c>
       <c r="D57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2552,7 +2549,7 @@
         <v>385</v>
       </c>
       <c r="D58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2566,7 +2563,7 @@
         <v>386</v>
       </c>
       <c r="D59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2580,7 +2577,7 @@
         <v>387</v>
       </c>
       <c r="D60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2594,7 +2591,7 @@
         <v>384</v>
       </c>
       <c r="D61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2608,7 +2605,7 @@
         <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2622,7 +2619,7 @@
         <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2636,7 +2633,7 @@
         <v>388</v>
       </c>
       <c r="D64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2650,7 +2647,7 @@
         <v>371</v>
       </c>
       <c r="D65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2664,7 +2661,7 @@
         <v>382</v>
       </c>
       <c r="D66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2678,7 +2675,7 @@
         <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2692,7 +2689,7 @@
         <v>389</v>
       </c>
       <c r="D68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2706,7 +2703,7 @@
         <v>366</v>
       </c>
       <c r="D69" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2720,7 +2717,7 @@
         <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2734,7 +2731,7 @@
         <v>390</v>
       </c>
       <c r="D71" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2748,7 +2745,7 @@
         <v>391</v>
       </c>
       <c r="D72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2762,7 +2759,7 @@
         <v>392</v>
       </c>
       <c r="D73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2776,7 +2773,7 @@
         <v>393</v>
       </c>
       <c r="D74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2790,7 +2787,7 @@
         <v>394</v>
       </c>
       <c r="D75" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2804,7 +2801,7 @@
         <v>395</v>
       </c>
       <c r="D76" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2818,7 +2815,7 @@
         <v>396</v>
       </c>
       <c r="D77" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2832,7 +2829,7 @@
         <v>397</v>
       </c>
       <c r="D78" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2846,7 +2843,7 @@
         <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2854,10 +2851,10 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C80" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="D80" t="s">
         <v>450</v>
@@ -2868,13 +2865,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="D81" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2888,7 +2885,7 @@
         <v>399</v>
       </c>
       <c r="D82" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2902,7 +2899,7 @@
         <v>400</v>
       </c>
       <c r="D83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2916,7 +2913,7 @@
         <v>396</v>
       </c>
       <c r="D84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2930,7 +2927,7 @@
         <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2944,7 +2941,7 @@
         <v>401</v>
       </c>
       <c r="D86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2958,7 +2955,7 @@
         <v>402</v>
       </c>
       <c r="D87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2972,7 +2969,7 @@
         <v>403</v>
       </c>
       <c r="D88" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2986,7 +2983,7 @@
         <v>404</v>
       </c>
       <c r="D89" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3000,7 +2997,7 @@
         <v>399</v>
       </c>
       <c r="D90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3014,7 +3011,7 @@
         <v>340</v>
       </c>
       <c r="D91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3028,7 +3025,7 @@
         <v>378</v>
       </c>
       <c r="D92" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3042,7 +3039,7 @@
         <v>404</v>
       </c>
       <c r="D93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3056,7 +3053,7 @@
         <v>405</v>
       </c>
       <c r="D94" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3070,7 +3067,7 @@
         <v>406</v>
       </c>
       <c r="D95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3084,7 +3081,7 @@
         <v>387</v>
       </c>
       <c r="D96" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3098,7 +3095,7 @@
         <v>388</v>
       </c>
       <c r="D97" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3112,7 +3109,7 @@
         <v>407</v>
       </c>
       <c r="D98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3126,7 +3123,7 @@
         <v>401</v>
       </c>
       <c r="D99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3140,7 +3137,7 @@
         <v>408</v>
       </c>
       <c r="D100" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3154,7 +3151,7 @@
         <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3168,7 +3165,7 @@
         <v>409</v>
       </c>
       <c r="D102" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3182,7 +3179,7 @@
         <v>405</v>
       </c>
       <c r="D103" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3196,7 +3193,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3210,7 +3207,7 @@
         <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3224,7 +3221,7 @@
         <v>402</v>
       </c>
       <c r="D106" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3238,7 +3235,7 @@
         <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3252,7 +3249,7 @@
         <v>382</v>
       </c>
       <c r="D108" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3266,7 +3263,7 @@
         <v>411</v>
       </c>
       <c r="D109" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3280,7 +3277,7 @@
         <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3294,7 +3291,7 @@
         <v>396</v>
       </c>
       <c r="D111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3308,7 +3305,7 @@
         <v>402</v>
       </c>
       <c r="D112" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3322,7 +3319,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3336,7 +3333,7 @@
         <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3350,7 +3347,7 @@
         <v>412</v>
       </c>
       <c r="D115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3364,7 +3361,7 @@
         <v>412</v>
       </c>
       <c r="D116" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3378,7 +3375,7 @@
         <v>413</v>
       </c>
       <c r="D117" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3386,13 +3383,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D118" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3400,13 +3397,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D119" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3420,7 +3417,7 @@
         <v>414</v>
       </c>
       <c r="D120" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3434,7 +3431,7 @@
         <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3448,7 +3445,7 @@
         <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3462,7 +3459,7 @@
         <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3476,7 +3473,7 @@
         <v>416</v>
       </c>
       <c r="D124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3490,7 +3487,7 @@
         <v>417</v>
       </c>
       <c r="D125" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3504,7 +3501,7 @@
         <v>393</v>
       </c>
       <c r="D126" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3518,7 +3515,7 @@
         <v>418</v>
       </c>
       <c r="D127" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3532,7 +3529,7 @@
         <v>419</v>
       </c>
       <c r="D128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3546,7 +3543,7 @@
         <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3560,7 +3557,7 @@
         <v>372</v>
       </c>
       <c r="D130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3574,7 +3571,7 @@
         <v>368</v>
       </c>
       <c r="D131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3588,7 +3585,7 @@
         <v>409</v>
       </c>
       <c r="D132" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3596,13 +3593,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C133" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3610,13 +3607,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C134" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D134" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3630,7 +3627,7 @@
         <v>420</v>
       </c>
       <c r="D135" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3644,7 +3641,7 @@
         <v>421</v>
       </c>
       <c r="D136" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3658,7 +3655,7 @@
         <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3672,7 +3669,7 @@
         <v>404</v>
       </c>
       <c r="D138" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3686,7 +3683,7 @@
         <v>416</v>
       </c>
       <c r="D139" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3700,7 +3697,7 @@
         <v>416</v>
       </c>
       <c r="D140" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3714,7 +3711,7 @@
         <v>422</v>
       </c>
       <c r="D141" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3728,7 +3725,7 @@
         <v>359</v>
       </c>
       <c r="D142" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3742,7 +3739,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3756,7 +3753,7 @@
         <v>358</v>
       </c>
       <c r="D144" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3770,7 +3767,7 @@
         <v>393</v>
       </c>
       <c r="D145" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3784,7 +3781,7 @@
         <v>410</v>
       </c>
       <c r="D146" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3798,7 +3795,7 @@
         <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3812,7 +3809,7 @@
         <v>359</v>
       </c>
       <c r="D148" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3826,7 +3823,7 @@
         <v>396</v>
       </c>
       <c r="D149" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3840,7 +3837,7 @@
         <v>423</v>
       </c>
       <c r="D150" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3854,7 +3851,7 @@
         <v>369</v>
       </c>
       <c r="D151" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3868,7 +3865,7 @@
         <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3882,7 +3879,7 @@
         <v>399</v>
       </c>
       <c r="D153" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3896,7 +3893,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3910,7 +3907,7 @@
         <v>425</v>
       </c>
       <c r="D155" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3924,7 +3921,7 @@
         <v>426</v>
       </c>
       <c r="D156" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3938,7 +3935,7 @@
         <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3952,7 +3949,7 @@
         <v>390</v>
       </c>
       <c r="D158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3966,7 +3963,7 @@
         <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3980,7 +3977,7 @@
         <v>371</v>
       </c>
       <c r="D160" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3994,7 +3991,7 @@
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4008,7 +4005,7 @@
         <v>392</v>
       </c>
       <c r="D162" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4022,7 +4019,7 @@
         <v>359</v>
       </c>
       <c r="D163" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4036,7 +4033,7 @@
         <v>428</v>
       </c>
       <c r="D164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4050,7 +4047,7 @@
         <v>410</v>
       </c>
       <c r="D165" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4058,13 +4055,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C166" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="D166" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4072,13 +4069,13 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C167" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D167" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4092,7 +4089,7 @@
         <v>412</v>
       </c>
       <c r="D168" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4106,7 +4103,7 @@
         <v>412</v>
       </c>
       <c r="D169" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4120,7 +4117,7 @@
         <v>387</v>
       </c>
       <c r="D170" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4134,7 +4131,7 @@
         <v>429</v>
       </c>
       <c r="D171" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4148,7 +4145,7 @@
         <v>349</v>
       </c>
       <c r="D172" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4162,7 +4159,7 @@
         <v>344</v>
       </c>
       <c r="D173" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4176,7 +4173,7 @@
         <v>430</v>
       </c>
       <c r="D174" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4190,7 +4187,7 @@
         <v>386</v>
       </c>
       <c r="D175" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4204,7 +4201,7 @@
         <v>372</v>
       </c>
       <c r="D176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4218,7 +4215,7 @@
         <v>352</v>
       </c>
       <c r="D177" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4232,7 +4229,7 @@
         <v>362</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4246,7 +4243,7 @@
         <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4254,13 +4251,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="C180" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="D180" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4268,13 +4265,13 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C181" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="D181" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4282,13 +4279,13 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C182" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D182" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4296,10 +4293,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D183" t="s">
         <v>452</v>
@@ -4310,13 +4307,13 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C184" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="D184" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4324,13 +4321,13 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C185" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4338,13 +4335,13 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C186" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="D186" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4358,7 +4355,7 @@
         <v>382</v>
       </c>
       <c r="D187" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4369,10 +4366,10 @@
         <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D188" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4380,13 +4377,13 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C189" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="D189" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4394,13 +4391,13 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C190" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="D190" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4408,13 +4405,13 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="C191" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="D191" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4422,13 +4419,13 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="C192" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="D192" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4436,13 +4433,13 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C193" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D193" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4450,13 +4447,13 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="C194" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D194" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4464,13 +4461,13 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="C195" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="D195" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4478,13 +4475,13 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C196" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4492,13 +4489,13 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C197" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4506,13 +4503,13 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="D198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4520,13 +4517,13 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C199" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D199" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4534,13 +4531,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="C200" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="D200" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4548,13 +4545,13 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C201" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="D201" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4562,10 +4559,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>334</v>
+        <v>267</v>
       </c>
       <c r="C202" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
       <c r="D202" t="s">
         <v>452</v>
@@ -4576,13 +4573,13 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C203" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="D203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4590,13 +4587,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="C204" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="D204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4604,13 +4601,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C205" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D205" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4618,13 +4615,13 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="C206" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="D206" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4632,13 +4629,13 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C207" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D207" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4646,13 +4643,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="C208" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D208" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4660,13 +4657,13 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="C209" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="D209" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4674,13 +4671,13 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="C210" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="D210" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4688,13 +4685,13 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C211" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="D211" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4708,7 +4705,7 @@
         <v>354</v>
       </c>
       <c r="D212" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4722,7 +4719,7 @@
         <v>395</v>
       </c>
       <c r="D213" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4736,7 +4733,7 @@
         <v>382</v>
       </c>
       <c r="D214" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4750,7 +4747,7 @@
         <v>344</v>
       </c>
       <c r="D215" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4758,13 +4755,13 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D216" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4772,13 +4769,13 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C217" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4792,7 +4789,7 @@
         <v>412</v>
       </c>
       <c r="D218" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4806,7 +4803,7 @@
         <v>410</v>
       </c>
       <c r="D219" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4820,7 +4817,7 @@
         <v>365</v>
       </c>
       <c r="D220" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4834,7 +4831,7 @@
         <v>395</v>
       </c>
       <c r="D221" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4848,7 +4845,7 @@
         <v>386</v>
       </c>
       <c r="D222" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4862,7 +4859,7 @@
         <v>439</v>
       </c>
       <c r="D223" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4876,7 +4873,7 @@
         <v>401</v>
       </c>
       <c r="D224" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4890,7 +4887,7 @@
         <v>375</v>
       </c>
       <c r="D225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4898,13 +4895,13 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C226" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D226" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4912,13 +4909,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="C227" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D227" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4932,7 +4929,7 @@
         <v>396</v>
       </c>
       <c r="D228" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4946,7 +4943,7 @@
         <v>413</v>
       </c>
       <c r="D229" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4960,7 +4957,7 @@
         <v>365</v>
       </c>
       <c r="D230" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4974,7 +4971,7 @@
         <v>378</v>
       </c>
       <c r="D231" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4988,7 +4985,7 @@
         <v>387</v>
       </c>
       <c r="D232" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5002,7 +4999,7 @@
         <v>417</v>
       </c>
       <c r="D233" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5016,7 +5013,7 @@
         <v>429</v>
       </c>
       <c r="D234" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5024,13 +5021,13 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="C235" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="D235" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5038,13 +5035,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C236" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="D236" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5058,7 +5055,7 @@
         <v>379</v>
       </c>
       <c r="D237" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5066,13 +5063,13 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C238" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5080,13 +5077,13 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C239" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="D239" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5094,13 +5091,13 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C240" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D240" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5108,13 +5105,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C241" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="D241" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5122,10 +5119,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C242" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="D242" t="s">
         <v>453</v>
@@ -5136,13 +5133,13 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C243" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D243" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5150,13 +5147,13 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C244" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="D244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5164,13 +5161,13 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C245" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D245" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5178,13 +5175,13 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="C246" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D246" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5192,13 +5189,13 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="C247" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="D247" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5206,13 +5203,13 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C248" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D248" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5226,7 +5223,7 @@
         <v>392</v>
       </c>
       <c r="D249" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5240,7 +5237,7 @@
         <v>440</v>
       </c>
       <c r="D250" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5248,10 +5245,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C251" t="s">
-        <v>441</v>
+        <v>355</v>
       </c>
       <c r="D251" t="s">
         <v>452</v>
@@ -5295,7 +5292,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5309,7 +5306,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5323,7 +5320,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5337,7 +5334,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5351,7 +5348,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5365,7 +5362,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5379,7 +5376,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5393,7 +5390,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5407,7 +5404,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5421,7 +5418,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5435,7 +5432,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5449,7 +5446,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5463,7 +5460,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5477,7 +5474,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5491,7 +5488,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5505,7 +5502,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5519,7 +5516,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5533,7 +5530,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5547,7 +5544,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5561,7 +5558,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5575,7 +5572,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5589,7 +5586,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5603,7 +5600,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5617,7 +5614,7 @@
         <v>357</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5631,7 +5628,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/TMP/films_scraping/films_scraping.xlsx
+++ b/TMP/films_scraping/films_scraping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="453">
   <si>
     <t>film_name</t>
   </si>
@@ -38,18 +38,18 @@
     <t>Batman: O Cavaleiro das Trevas</t>
   </si>
   <si>
-    <t>O Poderoso Chefão II</t>
+    <t>O Poderoso Chefão: Parte II</t>
   </si>
   <si>
     <t>12 Homens e uma Sentença</t>
   </si>
   <si>
+    <t>O Senhor dos Anéis: O Retorno do Rei</t>
+  </si>
+  <si>
     <t>A Lista de Schindler</t>
   </si>
   <si>
-    <t>O Senhor dos Anéis: O Retorno do Rei</t>
-  </si>
-  <si>
     <t>Pulp Fiction: Tempo de Violência</t>
   </si>
   <si>
@@ -140,60 +140,60 @@
     <t>Homem-Aranha: Através do Aranhaverso</t>
   </si>
   <si>
+    <t>Os Infiltrados</t>
+  </si>
+  <si>
+    <t>Whiplash: Em Busca da Perfeição</t>
+  </si>
+  <si>
+    <t>Túmulo dos Vagalumes</t>
+  </si>
+  <si>
+    <t>A Outra História Americana</t>
+  </si>
+  <si>
+    <t>O Profissional</t>
+  </si>
+  <si>
+    <t>O Grande Truque</t>
+  </si>
+  <si>
+    <t>Harakiri</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>Os Suspeitos</t>
+  </si>
+  <si>
+    <t>Intocáveis</t>
+  </si>
+  <si>
     <t>Duna: Parte 2</t>
   </si>
   <si>
-    <t>Os Infiltrados</t>
-  </si>
-  <si>
-    <t>O Profissional</t>
-  </si>
-  <si>
-    <t>A Outra História Americana</t>
-  </si>
-  <si>
-    <t>Whiplash: Em Busca da Perfeição</t>
-  </si>
-  <si>
-    <t>O Grande Truque</t>
-  </si>
-  <si>
-    <t>Túmulo dos Vagalumes</t>
-  </si>
-  <si>
-    <t>Harakiri</t>
-  </si>
-  <si>
-    <t>Os Suspeitos</t>
-  </si>
-  <si>
-    <t>Casablanca</t>
-  </si>
-  <si>
-    <t>Intocáveis</t>
-  </si>
-  <si>
     <t>Cinema Paradiso</t>
   </si>
   <si>
     <t>Tempos Modernos</t>
   </si>
   <si>
+    <t>Alien - O 8º Passageiro</t>
+  </si>
+  <si>
     <t>Janela Indiscreta</t>
   </si>
   <si>
     <t>Era uma Vez no Oeste</t>
   </si>
   <si>
-    <t>Alien - O 8º Passageiro</t>
+    <t>Django Livre</t>
   </si>
   <si>
     <t>Luzes da Cidade</t>
   </si>
   <si>
-    <t>Django Livre</t>
-  </si>
-  <si>
     <t>Apocalypse Now</t>
   </si>
   <si>
@@ -248,6 +248,9 @@
     <t>Amadeus</t>
   </si>
   <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
     <t>Dr. Fantástico</t>
   </si>
   <si>
@@ -257,30 +260,27 @@
     <t>Beleza Americana</t>
   </si>
   <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
     <t>Vingadores: Ultimato</t>
   </si>
   <si>
+    <t>O Barco: Inferno no Mar</t>
+  </si>
+  <si>
     <t>Coração Valente</t>
   </si>
   <si>
-    <t>O Barco: Inferno no Mar</t>
-  </si>
-  <si>
     <t>Gênio Indomável</t>
   </si>
   <si>
     <t>Princesa Mononoke</t>
   </si>
   <si>
+    <t>Seu Nome</t>
+  </si>
+  <si>
     <t>Coringa</t>
   </si>
   <si>
-    <t>Your Name</t>
-  </si>
-  <si>
     <t>Céu e Inferno</t>
   </si>
   <si>
@@ -308,49 +308,52 @@
     <t>Star Wars: Episódio VI - O Retorno de Jedi</t>
   </si>
   <si>
+    <t>A Caça</t>
+  </si>
+  <si>
     <t>Brilho Eterno de uma Mente sem Lembranças</t>
   </si>
   <si>
-    <t>A Caça</t>
-  </si>
-  <si>
     <t>2001: Uma Odisséia no Espaço</t>
   </si>
   <si>
+    <t>Viver</t>
+  </si>
+  <si>
     <t>Cães de Aluguel</t>
   </si>
   <si>
-    <t>Viver</t>
-  </si>
-  <si>
     <t>Lawrence da Arábia</t>
   </si>
   <si>
     <t>Se Meu Apartamento Falasse</t>
   </si>
   <si>
+    <t>Incêndios</t>
+  </si>
+  <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>Intriga Internacional</t>
+  </si>
+  <si>
+    <t>Pacto de Sangue</t>
+  </si>
+  <si>
+    <t>Cidadão Kane</t>
+  </si>
+  <si>
+    <t>M, o Vampiro de Dusseldorf</t>
+  </si>
+  <si>
+    <t>Um Corpo que Cai</t>
+  </si>
+  <si>
     <t>Oppenheimer</t>
   </si>
   <si>
-    <t>Incêndios</t>
-  </si>
-  <si>
-    <t>Intriga Internacional</t>
-  </si>
-  <si>
-    <t>Cidadão Kane</t>
-  </si>
-  <si>
-    <t>Scarface</t>
-  </si>
-  <si>
-    <t>Pacto de Sangue</t>
-  </si>
-  <si>
-    <t>M, o Vampiro de Dusseldorf</t>
-  </si>
-  <si>
-    <t>Um Corpo que Cai</t>
+    <t>Fogo contra Fogo</t>
   </si>
   <si>
     <t>Nascido para Matar</t>
@@ -359,10 +362,7 @@
     <t>O Fabuloso Destino de Amélie Poulain</t>
   </si>
   <si>
-    <t>Fogo contra Fogo</t>
-  </si>
-  <si>
-    <t>Up: Altas Aventuras</t>
+    <t>Up - Altas Aventuras</t>
   </si>
   <si>
     <t>Laranja Mecânica</t>
@@ -371,12 +371,12 @@
     <t>O Sol é para Todos</t>
   </si>
   <si>
+    <t>A Separação</t>
+  </si>
+  <si>
     <t>Golpe de Mestre</t>
   </si>
   <si>
-    <t>A Separação</t>
-  </si>
-  <si>
     <t>Duro de Matar</t>
   </si>
   <si>
@@ -401,45 +401,45 @@
     <t>Ladrões de Bicicletas</t>
   </si>
   <si>
+    <t>A Queda! As Últimas Horas de Hitler</t>
+  </si>
+  <si>
     <t>Hamilton</t>
   </si>
   <si>
     <t>Taxi Driver: Motorista de Táxi</t>
   </si>
   <si>
-    <t>A Queda! As Últimas Horas de Hitler</t>
-  </si>
-  <si>
     <t>Dangal</t>
   </si>
   <si>
     <t>Batman Begins</t>
   </si>
   <si>
+    <t>O Lobo de Wall Street</t>
+  </si>
+  <si>
     <t>Por uns Dólares a Mais</t>
   </si>
   <si>
-    <t>O Lobo de Wall Street</t>
-  </si>
-  <si>
     <t>Green Book: O Guia</t>
   </si>
   <si>
     <t>Quanto Mais Quente Melhor</t>
   </si>
   <si>
+    <t>O Show de Truman: O Show da Vida</t>
+  </si>
+  <si>
+    <t>Julgamento em Nuremberg</t>
+  </si>
+  <si>
     <t>O Garoto</t>
   </si>
   <si>
     <t>Meu Pai</t>
   </si>
   <si>
-    <t>Julgamento em Nuremberg</t>
-  </si>
-  <si>
-    <t>O Show de Truman: O Show da Vida</t>
-  </si>
-  <si>
     <t>A Malvada</t>
   </si>
   <si>
@@ -449,36 +449,39 @@
     <t>Sangue Negro</t>
   </si>
   <si>
+    <t>Jurassic Park - O Parque dos Dinossauros</t>
+  </si>
+  <si>
+    <t>Cassino</t>
+  </si>
+  <si>
     <t>Top Gun: Maverick</t>
   </si>
   <si>
-    <t>Cassino</t>
-  </si>
-  <si>
-    <t>Jurassic Park - O Parque dos Dinossauros</t>
+    <t>O Sexto Sentido</t>
   </si>
   <si>
     <t>Ran</t>
   </si>
   <si>
-    <t>O Sexto Sentido</t>
-  </si>
-  <si>
     <t>O Labirinto do Fauno</t>
   </si>
   <si>
+    <t>Onde os Fracos Não Têm Vez</t>
+  </si>
+  <si>
     <t>Os Imperdoáveis</t>
   </si>
   <si>
-    <t>Onde os Fracos Não Têm Vez</t>
+    <t>O Enigma de Outro Mundo</t>
+  </si>
+  <si>
+    <t>Robô Selvagem</t>
   </si>
   <si>
     <t>Uma Mente Brilhante</t>
   </si>
   <si>
-    <t>O Enigma de Outro Mundo</t>
-  </si>
-  <si>
     <t>Kill Bill: Volume 1</t>
   </si>
   <si>
@@ -491,48 +494,48 @@
     <t>Fugindo do Inferno</t>
   </si>
   <si>
+    <t>Procurando Nemo</t>
+  </si>
+  <si>
     <t>Monty Python em Busca do Cálice Sagrado</t>
   </si>
   <si>
-    <t>Procurando Nemo</t>
-  </si>
-  <si>
     <t>O Castelo Animado</t>
   </si>
   <si>
+    <t>O Homem Elefante</t>
+  </si>
+  <si>
     <t>Rashomon</t>
   </si>
   <si>
-    <t>O Homem Elefante</t>
-  </si>
-  <si>
     <t>Disque M para Matar</t>
   </si>
   <si>
+    <t>...E o Vento Levou</t>
+  </si>
+  <si>
     <t>Chinatown</t>
   </si>
   <si>
-    <t>...E o Vento Levou</t>
+    <t>O Segredo dos Seus Olhos</t>
   </si>
   <si>
     <t>Jogos, Trapaças e Dois Canos Fumegantes</t>
   </si>
   <si>
+    <t>Divertida Mente</t>
+  </si>
+  <si>
     <t>V de Vingança</t>
   </si>
   <si>
-    <t>Divertida Mente</t>
-  </si>
-  <si>
-    <t>O Segredo dos Seus Olhos</t>
+    <t>Três Anúncios para um Crime</t>
   </si>
   <si>
     <t>Touro Indomável</t>
   </si>
   <si>
-    <t>Três Anúncios para um Crime</t>
-  </si>
-  <si>
     <t>Trainspotting: Sem Limites</t>
   </si>
   <si>
@@ -566,27 +569,27 @@
     <t>Meu Amigo Totoro</t>
   </si>
   <si>
+    <t>Mad Max: Estrada da Fúria</t>
+  </si>
+  <si>
     <t>Filhos do Paraíso</t>
   </si>
   <si>
+    <t>Ben-Hur</t>
+  </si>
+  <si>
+    <t>Barry Lyndon</t>
+  </si>
+  <si>
     <t>12 Anos de Escravidão</t>
   </si>
   <si>
-    <t>Ben-Hur</t>
-  </si>
-  <si>
-    <t>Mad Max: Estrada da Fúria</t>
-  </si>
-  <si>
-    <t>Barry Lyndon</t>
+    <t>Antes do Amanhecer</t>
   </si>
   <si>
     <t>Blade Runner - O Caçador de Androides</t>
   </si>
   <si>
-    <t>Antes do Amanhecer</t>
-  </si>
-  <si>
     <t>O Grande Hotel Budapeste</t>
   </si>
   <si>
@@ -602,75 +605,75 @@
     <t>Memórias de um Assassino</t>
   </si>
   <si>
+    <t>Em Nome do Pai</t>
+  </si>
+  <si>
+    <t>O Mistério da Lixeira</t>
+  </si>
+  <si>
     <t>Em Busca do Ouro</t>
   </si>
   <si>
-    <t>Em Nome do Pai</t>
-  </si>
-  <si>
     <t>Monstros S.A.</t>
   </si>
   <si>
     <t>Relatos Selvagens</t>
   </si>
   <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
     <t>O Franco Atirador</t>
   </si>
   <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
+    <t>Como Treinar o Seu Dragão</t>
+  </si>
+  <si>
+    <t>Bancando o Águia</t>
+  </si>
+  <si>
     <t>A General</t>
   </si>
   <si>
+    <t>Mary e Max - Uma Amizade Diferente</t>
+  </si>
+  <si>
     <t>Sindicato de Ladrões</t>
   </si>
   <si>
-    <t>Bancando o Águia</t>
-  </si>
-  <si>
-    <t>Tubarão</t>
-  </si>
-  <si>
-    <t>Como Treinar o Seu Dragão</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Mary e Max - Uma Amizade Diferente</t>
+    <t>O Salário do Medo</t>
+  </si>
+  <si>
+    <t>Ford vs. Ferrari</t>
+  </si>
+  <si>
+    <t>Morangos Silvestres</t>
+  </si>
+  <si>
+    <t>A Mulher Faz o Homem</t>
   </si>
   <si>
     <t>O 3º Homem</t>
   </si>
   <si>
-    <t>O Salário do Medo</t>
-  </si>
-  <si>
-    <t>Morangos Silvestres</t>
-  </si>
-  <si>
-    <t>A Mulher Faz o Homem</t>
-  </si>
-  <si>
-    <t>Ford vs. Ferrari</t>
-  </si>
-  <si>
-    <t>Deadpool &amp; Wolverine</t>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Rocky, um Lutador</t>
   </si>
   <si>
     <t>Era uma Vez em Tóquio</t>
   </si>
   <si>
-    <t>Rocky, um Lutador</t>
-  </si>
-  <si>
     <t>O Grande Lebowski</t>
   </si>
   <si>
     <t>O Sétimo Selo</t>
   </si>
   <si>
-    <t>Logan</t>
-  </si>
-  <si>
     <t>O Quarto de Jack</t>
   </si>
   <si>
@@ -686,19 +689,22 @@
     <t>Platoon</t>
   </si>
   <si>
+    <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
+  </si>
+  <si>
     <t>O Ódio</t>
   </si>
   <si>
     <t>Antes do Pôr do Sol</t>
   </si>
   <si>
-    <t>Piratas do Caribe: A Maldição do Pérola Negra</t>
+    <t>Jai Bhim</t>
   </si>
   <si>
     <t>O Martírio de Joana D'Arc</t>
   </si>
   <si>
-    <t>Jai Bhim</t>
+    <t>Um Condenado à Morte Escapou</t>
   </si>
   <si>
     <t>Os Melhores Anos de Nossa Vida</t>
@@ -710,70 +716,64 @@
     <t>Rush: No Limite da Emoção</t>
   </si>
   <si>
+    <t>Os Incríveis</t>
+  </si>
+  <si>
+    <t>O Mágico de Oz</t>
+  </si>
+  <si>
     <t>Rede de Intrigas</t>
   </si>
   <si>
-    <t>O Mágico de Oz</t>
-  </si>
-  <si>
-    <t>Os Incríveis</t>
-  </si>
-  <si>
     <t>Conta Comigo</t>
   </si>
   <si>
     <t>Sempre ao Seu Lado</t>
   </si>
   <si>
-    <t>Maharaja</t>
-  </si>
-  <si>
     <t>A Noviça Rebelde</t>
   </si>
   <si>
     <t>Meu Pai e Meu Filho</t>
   </si>
   <si>
+    <t>Ser ou Não Ser</t>
+  </si>
+  <si>
     <t>A Criada</t>
   </si>
   <si>
-    <t>Ser ou Não Ser</t>
-  </si>
-  <si>
     <t>Na Natureza Selvagem</t>
   </si>
   <si>
     <t>A Batalha de Argel</t>
   </si>
   <si>
+    <t>O Gigante de Ferro</t>
+  </si>
+  <si>
+    <t>As Vinhas da Ira</t>
+  </si>
+  <si>
     <t>Feitiço do Tempo</t>
   </si>
   <si>
-    <t>As Vinhas da Ira</t>
-  </si>
-  <si>
-    <t>O Gigante de Ferro</t>
-  </si>
-  <si>
     <t>Amores Brutos</t>
   </si>
   <si>
     <t>Rebecca, a Mulher Inesquecível</t>
   </si>
   <si>
+    <t>Histórias Cruzadas</t>
+  </si>
+  <si>
     <t>Rebeldia Indomável</t>
   </si>
   <si>
-    <t>Histórias Cruzadas</t>
-  </si>
-  <si>
-    <t>Aconteceu Naquela Noite</t>
-  </si>
-  <si>
-    <t>Aladdin</t>
-  </si>
-  <si>
-    <t>Paris, Texas</t>
+    <t>A Voz do Silêncio</t>
+  </si>
+  <si>
+    <t>Demon Slayer: Mugen Train - O Filme</t>
   </si>
   <si>
     <t>1994</t>
@@ -791,12 +791,12 @@
     <t>1957</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>1993</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>2001</t>
   </si>
   <si>
@@ -860,39 +860,39 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1942</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1942</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>1936</t>
   </si>
   <si>
+    <t>1979</t>
+  </si>
+  <si>
     <t>1968</t>
   </si>
   <si>
-    <t>1979</t>
+    <t>2012</t>
   </si>
   <si>
     <t>1931</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>1981</t>
   </si>
   <si>
@@ -941,12 +941,12 @@
     <t>1959</t>
   </si>
   <si>
+    <t>1944</t>
+  </si>
+  <si>
     <t>1941</t>
   </si>
   <si>
-    <t>1944</t>
-  </si>
-  <si>
     <t>1958</t>
   </si>
   <si>
@@ -980,18 +980,18 @@
     <t>2005</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
     <t>1965</t>
   </si>
   <si>
-    <t>2013</t>
+    <t>1961</t>
   </si>
   <si>
     <t>1921</t>
   </si>
   <si>
-    <t>1961</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
@@ -1016,27 +1016,27 @@
     <t>1978</t>
   </si>
   <si>
+    <t>1924</t>
+  </si>
+  <si>
     <t>1926</t>
   </si>
   <si>
-    <t>1924</t>
+    <t>1953</t>
   </si>
   <si>
     <t>1949</t>
   </si>
   <si>
-    <t>1953</t>
-  </si>
-  <si>
     <t>1928</t>
   </si>
   <si>
+    <t>1956</t>
+  </si>
+  <si>
     <t>1967</t>
   </si>
   <si>
-    <t>1934</t>
-  </si>
-  <si>
     <t>2h 22m</t>
   </si>
   <si>
@@ -1052,12 +1052,12 @@
     <t>1h 36m</t>
   </si>
   <si>
+    <t>3h 21m</t>
+  </si>
+  <si>
     <t>3h 15m</t>
   </si>
   <si>
-    <t>3h 21m</t>
-  </si>
-  <si>
     <t>2h 34m</t>
   </si>
   <si>
@@ -1115,78 +1115,78 @@
     <t>2h 1m</t>
   </si>
   <si>
+    <t>2h 30m</t>
+  </si>
+  <si>
+    <t>2h 12m</t>
+  </si>
+  <si>
+    <t>1h 49m</t>
+  </si>
+  <si>
+    <t>2h 35m</t>
+  </si>
+  <si>
+    <t>1h 28m</t>
+  </si>
+  <si>
+    <t>2h 20m</t>
+  </si>
+  <si>
+    <t>2h 31m</t>
+  </si>
+  <si>
+    <t>1h 46m</t>
+  </si>
+  <si>
+    <t>1h 59m</t>
+  </si>
+  <si>
+    <t>1h 50m</t>
+  </si>
+  <si>
+    <t>1h 42m</t>
+  </si>
+  <si>
+    <t>1h 52m</t>
+  </si>
+  <si>
+    <t>2h 46m</t>
+  </si>
+  <si>
+    <t>2h 54m</t>
+  </si>
+  <si>
+    <t>1h 27m</t>
+  </si>
+  <si>
+    <t>1h 57m</t>
+  </si>
+  <si>
+    <t>2h 45m</t>
+  </si>
+  <si>
+    <t>2h 27m</t>
+  </si>
+  <si>
+    <t>1h 53m</t>
+  </si>
+  <si>
+    <t>1h 38m</t>
+  </si>
+  <si>
+    <t>1h 55m</t>
+  </si>
+  <si>
+    <t>2h 29m</t>
+  </si>
+  <si>
+    <t>2h 26m</t>
+  </si>
+  <si>
     <t>2h 5m</t>
   </si>
   <si>
-    <t>2h 30m</t>
-  </si>
-  <si>
-    <t>2h 12m</t>
-  </si>
-  <si>
-    <t>1h 49m</t>
-  </si>
-  <si>
-    <t>2h 35m</t>
-  </si>
-  <si>
-    <t>1h 28m</t>
-  </si>
-  <si>
-    <t>2h 20m</t>
-  </si>
-  <si>
-    <t>2h 46m</t>
-  </si>
-  <si>
-    <t>2h 31m</t>
-  </si>
-  <si>
-    <t>1h 50m</t>
-  </si>
-  <si>
-    <t>1h 59m</t>
-  </si>
-  <si>
-    <t>1h 46m</t>
-  </si>
-  <si>
-    <t>1h 42m</t>
-  </si>
-  <si>
-    <t>1h 52m</t>
-  </si>
-  <si>
-    <t>2h 54m</t>
-  </si>
-  <si>
-    <t>1h 27m</t>
-  </si>
-  <si>
-    <t>1h 57m</t>
-  </si>
-  <si>
-    <t>2h 45m</t>
-  </si>
-  <si>
-    <t>2h 27m</t>
-  </si>
-  <si>
-    <t>1h 53m</t>
-  </si>
-  <si>
-    <t>1h 38m</t>
-  </si>
-  <si>
-    <t>1h 55m</t>
-  </si>
-  <si>
-    <t>2h 29m</t>
-  </si>
-  <si>
-    <t>2h 26m</t>
-  </si>
-  <si>
     <t>2h 33m</t>
   </si>
   <si>
@@ -1199,6 +1199,9 @@
     <t>2h 40m</t>
   </si>
   <si>
+    <t>1h 21m</t>
+  </si>
+  <si>
     <t>1h 35m</t>
   </si>
   <si>
@@ -1208,117 +1211,114 @@
     <t>2h 2m</t>
   </si>
   <si>
-    <t>1h 21m</t>
-  </si>
-  <si>
     <t>3h 1m</t>
   </si>
   <si>
     <t>2h 6m</t>
   </si>
   <si>
+    <t>2h 23m</t>
+  </si>
+  <si>
+    <t>2h 50m</t>
+  </si>
+  <si>
+    <t>3h 49m</t>
+  </si>
+  <si>
+    <t>1h 43m</t>
+  </si>
+  <si>
+    <t>2h 11m</t>
+  </si>
+  <si>
+    <t>1h 48m</t>
+  </si>
+  <si>
+    <t>1h 39m</t>
+  </si>
+  <si>
+    <t>3h 47m</t>
+  </si>
+  <si>
+    <t>1h 47m</t>
+  </si>
+  <si>
+    <t>2h 8m</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>2h 9m</t>
+  </si>
+  <si>
+    <t>2h 3m</t>
+  </si>
+  <si>
+    <t>2h 42m</t>
+  </si>
+  <si>
+    <t>1h 44m</t>
+  </si>
+  <si>
+    <t>2h 18m</t>
+  </si>
+  <si>
+    <t>1h 29m</t>
+  </si>
+  <si>
+    <t>2h 36m</t>
+  </si>
+  <si>
+    <t>1h 54m</t>
+  </si>
+  <si>
+    <t>1h 8m</t>
+  </si>
+  <si>
+    <t>1h 37m</t>
+  </si>
+  <si>
+    <t>2h 38m</t>
+  </si>
+  <si>
+    <t>2h 15m</t>
+  </si>
+  <si>
+    <t>1h 51m</t>
+  </si>
+  <si>
+    <t>2h 52m</t>
+  </si>
+  <si>
+    <t>1h 40m</t>
+  </si>
+  <si>
+    <t>1h 31m</t>
+  </si>
+  <si>
+    <t>3h 58m</t>
+  </si>
+  <si>
+    <t>1h 33m</t>
+  </si>
+  <si>
+    <t>2h 21m</t>
+  </si>
+  <si>
+    <t>1h 26m</t>
+  </si>
+  <si>
+    <t>3h 32m</t>
+  </si>
+  <si>
+    <t>3h 5m</t>
+  </si>
+  <si>
     <t>2h 14m</t>
   </si>
   <si>
-    <t>2h 23m</t>
-  </si>
-  <si>
-    <t>2h 50m</t>
-  </si>
-  <si>
-    <t>3h 49m</t>
-  </si>
-  <si>
-    <t>1h 43m</t>
-  </si>
-  <si>
-    <t>2h 11m</t>
-  </si>
-  <si>
-    <t>1h 48m</t>
-  </si>
-  <si>
-    <t>1h 39m</t>
-  </si>
-  <si>
-    <t>3h 38m</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>1h 47m</t>
-  </si>
-  <si>
-    <t>2h 8m</t>
-  </si>
-  <si>
-    <t>2h 9m</t>
-  </si>
-  <si>
-    <t>2h 3m</t>
-  </si>
-  <si>
-    <t>2h 42m</t>
-  </si>
-  <si>
-    <t>1h 44m</t>
-  </si>
-  <si>
-    <t>2h 18m</t>
-  </si>
-  <si>
-    <t>1h 29m</t>
-  </si>
-  <si>
-    <t>1h 54m</t>
-  </si>
-  <si>
-    <t>2h 36m</t>
-  </si>
-  <si>
-    <t>1h 8m</t>
-  </si>
-  <si>
-    <t>1h 37m</t>
-  </si>
-  <si>
-    <t>2h 38m</t>
-  </si>
-  <si>
-    <t>2h 15m</t>
-  </si>
-  <si>
-    <t>1h 51m</t>
-  </si>
-  <si>
-    <t>2h 52m</t>
-  </si>
-  <si>
-    <t>1h 31m</t>
-  </si>
-  <si>
-    <t>1h 40m</t>
-  </si>
-  <si>
-    <t>3h 58m</t>
-  </si>
-  <si>
-    <t>1h 33m</t>
-  </si>
-  <si>
-    <t>2h 21m</t>
-  </si>
-  <si>
-    <t>1h 26m</t>
-  </si>
-  <si>
-    <t>3h 32m</t>
-  </si>
-  <si>
-    <t>3h 5m</t>
-  </si>
-  <si>
     <t>1h 41m</t>
   </si>
   <si>
@@ -1328,16 +1328,13 @@
     <t>3h 3m</t>
   </si>
   <si>
+    <t>45m</t>
+  </si>
+  <si>
     <t>1h 18m</t>
   </si>
   <si>
-    <t>45m</t>
-  </si>
-  <si>
     <t>1h 20m</t>
-  </si>
-  <si>
-    <t>1h 30m</t>
   </si>
   <si>
     <t>9.3</t>
@@ -1765,7 +1762,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1779,7 +1776,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1793,7 +1790,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1807,7 +1804,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1821,7 +1818,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1835,7 +1832,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1849,7 +1846,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1863,7 +1860,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1877,7 +1874,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1891,7 +1888,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1905,7 +1902,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1919,7 +1916,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1933,7 +1930,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1947,7 +1944,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1961,7 +1958,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1975,7 +1972,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1989,7 +1986,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2003,7 +2000,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2017,7 +2014,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2031,7 +2028,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2045,7 +2042,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2059,7 +2056,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2073,7 +2070,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2087,7 +2084,7 @@
         <v>357</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2101,7 +2098,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2115,7 +2112,7 @@
         <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2129,7 +2126,7 @@
         <v>363</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2143,7 +2140,7 @@
         <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2157,7 +2154,7 @@
         <v>365</v>
       </c>
       <c r="D30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2171,7 +2168,7 @@
         <v>362</v>
       </c>
       <c r="D31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2182,10 +2179,10 @@
         <v>260</v>
       </c>
       <c r="C32" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2196,10 +2193,10 @@
         <v>262</v>
       </c>
       <c r="C33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2210,10 +2207,10 @@
         <v>277</v>
       </c>
       <c r="C34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2224,10 +2221,10 @@
         <v>278</v>
       </c>
       <c r="C35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2238,10 +2235,10 @@
         <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2252,10 +2249,10 @@
         <v>253</v>
       </c>
       <c r="C37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2266,10 +2263,10 @@
         <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2280,10 +2277,10 @@
         <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2291,13 +2288,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2305,13 +2302,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2322,10 +2319,10 @@
         <v>273</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2333,13 +2330,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C43" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2347,13 +2344,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s">
         <v>359</v>
       </c>
       <c r="D44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2364,10 +2361,10 @@
         <v>283</v>
       </c>
       <c r="C45" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="D45" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2378,7 +2375,7 @@
         <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D46" t="s">
         <v>447</v>
@@ -2392,10 +2389,10 @@
         <v>269</v>
       </c>
       <c r="C47" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2406,10 +2403,10 @@
         <v>285</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2420,10 +2417,10 @@
         <v>286</v>
       </c>
       <c r="C49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2431,13 +2428,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2448,10 +2445,10 @@
         <v>287</v>
       </c>
       <c r="C51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2459,13 +2456,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C52" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2473,13 +2470,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C53" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2490,10 +2487,10 @@
         <v>289</v>
       </c>
       <c r="C54" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2504,10 +2501,10 @@
         <v>290</v>
       </c>
       <c r="C55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2518,10 +2515,10 @@
         <v>291</v>
       </c>
       <c r="C56" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2529,13 +2526,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D57" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2546,10 +2543,10 @@
         <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D58" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2560,10 +2557,10 @@
         <v>255</v>
       </c>
       <c r="C59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2574,10 +2571,10 @@
         <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2588,7 +2585,7 @@
         <v>280</v>
       </c>
       <c r="C61" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D61" t="s">
         <v>444</v>
@@ -2599,13 +2596,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
         <v>364</v>
       </c>
       <c r="D62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2619,7 +2616,7 @@
         <v>375</v>
       </c>
       <c r="D63" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2630,10 +2627,10 @@
         <v>294</v>
       </c>
       <c r="C64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2644,10 +2641,10 @@
         <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2658,10 +2655,10 @@
         <v>294</v>
       </c>
       <c r="C66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2675,7 +2672,7 @@
         <v>362</v>
       </c>
       <c r="D67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2686,10 +2683,10 @@
         <v>265</v>
       </c>
       <c r="C68" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2700,10 +2697,10 @@
         <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2717,7 +2714,7 @@
         <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2731,7 +2728,7 @@
         <v>390</v>
       </c>
       <c r="D71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2739,13 +2736,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72" t="s">
         <v>391</v>
       </c>
       <c r="D72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2759,7 +2756,7 @@
         <v>392</v>
       </c>
       <c r="D73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2773,7 +2770,7 @@
         <v>393</v>
       </c>
       <c r="D74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2781,13 +2778,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="C75" t="s">
         <v>394</v>
       </c>
       <c r="D75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2795,13 +2792,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="C76" t="s">
         <v>395</v>
       </c>
       <c r="D76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2809,13 +2806,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C77" t="s">
         <v>396</v>
       </c>
       <c r="D77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2823,13 +2820,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C78" t="s">
         <v>397</v>
       </c>
       <c r="D78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2843,7 +2840,7 @@
         <v>398</v>
       </c>
       <c r="D79" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2851,13 +2848,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="D80" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2865,10 +2862,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
         <v>449</v>
@@ -2885,7 +2882,7 @@
         <v>399</v>
       </c>
       <c r="D82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2896,10 +2893,10 @@
         <v>274</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="D83" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2907,13 +2904,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C84" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="D84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2921,13 +2918,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C85" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="D85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2938,10 +2935,10 @@
         <v>302</v>
       </c>
       <c r="C86" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2952,10 +2949,10 @@
         <v>297</v>
       </c>
       <c r="C87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2966,10 +2963,10 @@
         <v>299</v>
       </c>
       <c r="C88" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D88" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2980,10 +2977,10 @@
         <v>303</v>
       </c>
       <c r="C89" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2997,7 +2994,7 @@
         <v>399</v>
       </c>
       <c r="D90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3022,10 +3019,10 @@
         <v>279</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3036,10 +3033,10 @@
         <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D93" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3050,10 +3047,10 @@
         <v>304</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3061,13 +3058,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="D95" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3075,13 +3072,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C96" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="D96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3089,13 +3086,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D97" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3103,13 +3100,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3117,13 +3114,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3131,13 +3128,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D100" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3148,10 +3145,10 @@
         <v>278</v>
       </c>
       <c r="C101" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="D101" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3159,13 +3156,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C102" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D102" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3173,13 +3170,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D103" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3193,7 +3190,7 @@
         <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3204,10 +3201,10 @@
         <v>308</v>
       </c>
       <c r="C105" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="D105" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3215,13 +3212,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C106" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="D106" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3229,13 +3226,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C107" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="D107" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3243,13 +3240,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="D108" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3257,13 +3254,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D109" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3271,13 +3268,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="D110" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3285,10 +3282,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="D111" t="s">
         <v>450</v>
@@ -3299,13 +3296,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C112" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D112" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3319,7 +3316,7 @@
         <v>344</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3341,13 +3338,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C115" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3355,13 +3352,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C116" t="s">
         <v>412</v>
       </c>
       <c r="D116" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3369,13 +3366,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C117" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D117" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3383,13 +3380,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D118" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3403,7 +3400,7 @@
         <v>358</v>
       </c>
       <c r="D119" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3414,10 +3411,10 @@
         <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D120" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3431,7 +3428,7 @@
         <v>390</v>
       </c>
       <c r="D121" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3442,10 +3439,10 @@
         <v>279</v>
       </c>
       <c r="C122" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D122" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3456,10 +3453,10 @@
         <v>277</v>
       </c>
       <c r="C123" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D123" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3470,10 +3467,10 @@
         <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3484,10 +3481,10 @@
         <v>317</v>
       </c>
       <c r="C125" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D125" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3495,10 +3492,10 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="D126" t="s">
         <v>450</v>
@@ -3509,13 +3506,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C127" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="D127" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3523,13 +3520,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D128" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3543,7 +3540,7 @@
         <v>349</v>
       </c>
       <c r="D129" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3554,10 +3551,10 @@
         <v>320</v>
       </c>
       <c r="C130" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D130" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3568,10 +3565,10 @@
         <v>321</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="D131" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3582,10 +3579,10 @@
         <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3599,7 +3596,7 @@
         <v>359</v>
       </c>
       <c r="D133" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3613,7 +3610,7 @@
         <v>365</v>
       </c>
       <c r="D134" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3621,13 +3618,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="C135" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="D135" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3635,13 +3632,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C136" t="s">
-        <v>421</v>
+        <v>350</v>
       </c>
       <c r="D136" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3652,7 +3649,7 @@
         <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="D137" t="s">
         <v>450</v>
@@ -3663,13 +3660,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="C138" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3680,10 +3677,10 @@
         <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D139" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3694,10 +3691,10 @@
         <v>264</v>
       </c>
       <c r="C140" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D140" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3708,10 +3705,10 @@
         <v>315</v>
       </c>
       <c r="C141" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D141" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3719,13 +3716,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="C142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D142" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3739,7 +3736,7 @@
         <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3747,13 +3744,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="C144" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D144" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3761,13 +3758,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C145" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D145" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3775,13 +3772,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C146" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D146" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3789,13 +3786,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C147" t="s">
         <v>361</v>
       </c>
       <c r="D147" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3803,13 +3800,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C148" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="D148" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3817,13 +3814,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C149" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="D149" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3831,13 +3828,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="C150" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="D150" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3845,13 +3842,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="C151" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D151" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3859,13 +3856,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C152" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D152" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3873,13 +3870,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="C153" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="D153" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3887,13 +3884,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C154" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D154" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3901,13 +3898,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C155" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="D155" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3915,13 +3912,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="C156" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D156" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3929,13 +3926,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C157" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D157" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3943,13 +3940,13 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C158" t="s">
         <v>390</v>
       </c>
       <c r="D158" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3957,13 +3954,13 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="C159" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="D159" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3971,13 +3968,13 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C160" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3991,7 +3988,7 @@
         <v>353</v>
       </c>
       <c r="D161" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3999,13 +3996,13 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C162" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4013,13 +4010,13 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C163" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="D163" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4030,10 +4027,10 @@
         <v>327</v>
       </c>
       <c r="C164" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4041,13 +4038,13 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C165" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="D165" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4055,13 +4052,13 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="D166" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4069,13 +4066,13 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="C167" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D167" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4083,10 +4080,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C168" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D168" t="s">
         <v>451</v>
@@ -4097,13 +4094,13 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="D169" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4114,10 +4111,10 @@
         <v>298</v>
       </c>
       <c r="C170" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D170" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4125,13 +4122,13 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="C171" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="D171" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4139,13 +4136,13 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="C172" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="D172" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4153,10 +4150,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C173" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D173" t="s">
         <v>451</v>
@@ -4167,13 +4164,13 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C174" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="D174" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4181,13 +4178,13 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="C175" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="D175" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4195,13 +4192,13 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="C176" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4209,10 +4206,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="D177" t="s">
         <v>451</v>
@@ -4223,13 +4220,13 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="C178" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D178" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4237,13 +4234,13 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C179" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D179" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4251,13 +4248,13 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C180" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D180" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4265,13 +4262,13 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="D181" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4279,10 +4276,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D182" t="s">
         <v>451</v>
@@ -4293,13 +4290,13 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C183" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4307,13 +4304,13 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D184" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4321,13 +4318,13 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="D185" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4338,10 +4335,10 @@
         <v>267</v>
       </c>
       <c r="C186" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D186" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4349,13 +4346,13 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C187" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4369,7 +4366,7 @@
         <v>434</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4377,13 +4374,13 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C189" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="D189" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4391,13 +4388,13 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="C190" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="D190" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4405,13 +4402,13 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="C191" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="D191" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4419,13 +4416,13 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="C192" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D192" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4433,13 +4430,13 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C193" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D193" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4447,13 +4444,13 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="C194" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D194" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4461,13 +4458,13 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C195" t="s">
         <v>356</v>
       </c>
       <c r="D195" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4475,13 +4472,13 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C196" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D196" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4489,13 +4486,13 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="C197" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D197" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4503,13 +4500,13 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="C198" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D198" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4517,13 +4514,13 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="C199" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="D199" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4531,13 +4528,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="C200" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4545,10 +4542,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C201" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D201" t="s">
         <v>451</v>
@@ -4565,7 +4562,7 @@
         <v>353</v>
       </c>
       <c r="D202" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4576,10 +4573,10 @@
         <v>264</v>
       </c>
       <c r="C203" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4587,13 +4584,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C204" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="D204" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4601,13 +4598,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="C205" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D205" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4615,13 +4612,13 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C206" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="D206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4629,13 +4626,13 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="C207" t="s">
         <v>405</v>
       </c>
       <c r="D207" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4643,13 +4640,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="C208" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4657,13 +4654,13 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="C209" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="D209" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4671,13 +4668,13 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C210" t="s">
-        <v>342</v>
+        <v>435</v>
       </c>
       <c r="D210" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4685,7 +4682,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="C211" t="s">
         <v>411</v>
@@ -4702,10 +4699,10 @@
         <v>336</v>
       </c>
       <c r="C212" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="D212" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4713,13 +4710,13 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C213" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="D213" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4727,13 +4724,13 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="C214" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D214" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4741,13 +4738,13 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="C215" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D215" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4755,13 +4752,13 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C216" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D216" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4769,13 +4766,13 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="C217" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D217" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4786,10 +4783,10 @@
         <v>328</v>
       </c>
       <c r="C218" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="D218" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4797,13 +4794,13 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="C219" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D219" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4811,13 +4808,13 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C220" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="D220" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4825,13 +4822,13 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="D221" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4839,13 +4836,13 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="C222" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D222" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4853,13 +4850,13 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C223" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="D223" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4867,13 +4864,13 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C224" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D224" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4881,13 +4878,13 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="C225" t="s">
-        <v>375</v>
+        <v>439</v>
       </c>
       <c r="D225" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4901,7 +4898,7 @@
         <v>391</v>
       </c>
       <c r="D226" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4909,13 +4906,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="C227" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="D227" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4923,13 +4920,13 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C228" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="D228" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4937,13 +4934,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="C229" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D229" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4951,13 +4948,13 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C230" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="D230" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4965,13 +4962,13 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C231" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="D231" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4982,10 +4979,10 @@
         <v>305</v>
       </c>
       <c r="C232" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D232" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4993,13 +4990,13 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="C233" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D233" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5007,13 +5004,13 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="C234" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="D234" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5021,13 +5018,13 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C235" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="D235" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5035,13 +5032,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C236" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D236" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5049,10 +5046,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C237" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="D237" t="s">
         <v>451</v>
@@ -5063,13 +5060,13 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="C238" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="D238" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5077,13 +5074,13 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C239" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D239" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5091,13 +5088,13 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C240" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D240" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5105,13 +5102,13 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="C241" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D241" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5119,13 +5116,13 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C242" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="D242" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5133,13 +5130,13 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C243" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="D243" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5147,13 +5144,13 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="C244" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="D244" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5161,10 +5158,10 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C245" t="s">
-        <v>347</v>
+        <v>434</v>
       </c>
       <c r="D245" t="s">
         <v>452</v>
@@ -5175,10 +5172,10 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D246" t="s">
         <v>452</v>
@@ -5189,13 +5186,13 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="C247" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D247" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5203,13 +5200,13 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C248" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D248" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5220,10 +5217,10 @@
         <v>339</v>
       </c>
       <c r="C249" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="D249" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5231,13 +5228,13 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C250" t="s">
-        <v>440</v>
+        <v>359</v>
       </c>
       <c r="D250" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5245,13 +5242,13 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C251" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="D251" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5292,7 +5289,7 @@
         <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5306,7 +5303,7 @@
         <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5320,7 +5317,7 @@
         <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5334,7 +5331,7 @@
         <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5348,7 +5345,7 @@
         <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5362,7 +5359,7 @@
         <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5376,7 +5373,7 @@
         <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5390,7 +5387,7 @@
         <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5404,7 +5401,7 @@
         <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5418,7 +5415,7 @@
         <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5432,7 +5429,7 @@
         <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5446,7 +5443,7 @@
         <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5460,7 +5457,7 @@
         <v>351</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5474,7 +5471,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5488,7 +5485,7 @@
         <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5502,7 +5499,7 @@
         <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5516,7 +5513,7 @@
         <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5530,7 +5527,7 @@
         <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5544,7 +5541,7 @@
         <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5558,7 +5555,7 @@
         <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5572,7 +5569,7 @@
         <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5586,7 +5583,7 @@
         <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5600,7 +5597,7 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5614,7 +5611,7 @@
         <v>357</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5628,7 +5625,7 @@
         <v>359</v>
       </c>
       <c r="D26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
